--- a/ClashOfClans-Calculator.xlsx
+++ b/ClashOfClans-Calculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <workbookProtection workbookPassword="9AF0" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="669" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="669"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="264">
   <si>
     <t>Time</t>
   </si>
@@ -874,6 +874,9 @@
 2. Enter quantities for an "Attack Set" and give it a name in the header
 3. Type the name of the "Attack Set" in the small red box
 4. View the calculated values in the tables</t>
+  </si>
+  <si>
+    <t>Fixed bug where "Remaining ___ Upgrades" calculations did not account for 'skips'</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2227,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1188">
+  <cellStyleXfs count="1190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3012,6 +3015,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4024,6 +4029,18 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="59" xfId="786" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4152,20 +4169,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="59" xfId="786" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1188">
+  <cellStyles count="1190">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5000,6 +5005,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1185" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1189" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5355,7 +5362,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Upgrade Costs" xfId="447"/>
   </cellStyles>
-  <dxfs count="271">
+  <dxfs count="273">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="#\ ??/24"/>
     </dxf>
@@ -7982,120 +8011,120 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="Custom" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="270"/>
-      <tableStyleElement type="headerRow" dxfId="269"/>
-      <tableStyleElement type="totalRow" dxfId="268"/>
-      <tableStyleElement type="firstColumn" dxfId="267"/>
-      <tableStyleElement type="lastColumn" dxfId="266"/>
-      <tableStyleElement type="firstRowStripe" dxfId="265"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="264"/>
+      <tableStyleElement type="wholeTable" dxfId="272"/>
+      <tableStyleElement type="headerRow" dxfId="271"/>
+      <tableStyleElement type="totalRow" dxfId="270"/>
+      <tableStyleElement type="firstColumn" dxfId="269"/>
+      <tableStyleElement type="lastColumn" dxfId="268"/>
+      <tableStyleElement type="firstRowStripe" dxfId="267"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="266"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium14 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="263"/>
-      <tableStyleElement type="headerRow" dxfId="262"/>
-      <tableStyleElement type="totalRow" dxfId="261"/>
-      <tableStyleElement type="firstColumn" dxfId="260"/>
-      <tableStyleElement type="lastColumn" dxfId="259"/>
-      <tableStyleElement type="firstRowStripe" dxfId="258"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="257"/>
+      <tableStyleElement type="wholeTable" dxfId="265"/>
+      <tableStyleElement type="headerRow" dxfId="264"/>
+      <tableStyleElement type="totalRow" dxfId="263"/>
+      <tableStyleElement type="firstColumn" dxfId="262"/>
+      <tableStyleElement type="lastColumn" dxfId="261"/>
+      <tableStyleElement type="firstRowStripe" dxfId="260"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="259"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ConstructionState" displayName="ConstructionState" ref="A23:S72" totalsRowShown="0" headerRowDxfId="249" dataDxfId="248">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ConstructionState" displayName="ConstructionState" ref="A23:S72" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250">
   <tableColumns count="19">
-    <tableColumn id="1" name="Building or Upgrade" dataDxfId="247"/>
-    <tableColumn id="14" name="Kind" dataDxfId="246">
+    <tableColumn id="1" name="Building or Upgrade" dataDxfId="249"/>
+    <tableColumn id="14" name="Kind" dataDxfId="248">
       <calculatedColumnFormula>VLOOKUP(ConstructionState[[#This Row],[Building or Upgrade]],Upgrades[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Resource" dataDxfId="245">
+    <tableColumn id="15" name="Resource" dataDxfId="247">
       <calculatedColumnFormula>VLOOKUP(ConstructionState[Building or Upgrade],Upgrades[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="MatchStr" dataDxfId="244">
+    <tableColumn id="21" name="MatchStr" dataDxfId="246">
       <calculatedColumnFormula>IF(COUNTIF(Skips,ConstructionState[[#This Row],[Building or Upgrade]]),"IGNORE",ConstructionState[Kind]&amp;"-"&amp;ConstructionState[Resource])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Available" dataDxfId="243">
+    <tableColumn id="2" name="Available" dataDxfId="245">
       <calculatedColumnFormula>IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Maximum Level" dataDxfId="242">
+    <tableColumn id="3" name="Maximum Level" dataDxfId="244">
       <calculatedColumnFormula>IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Not Built/Upgraded" dataDxfId="241">
+    <tableColumn id="4" name="Not Built/Upgraded" dataDxfId="243">
       <calculatedColumnFormula>ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="1" dataDxfId="240"/>
-    <tableColumn id="6" name="2" dataDxfId="239"/>
-    <tableColumn id="7" name="3" dataDxfId="238"/>
-    <tableColumn id="8" name="4" dataDxfId="237"/>
-    <tableColumn id="9" name="5" dataDxfId="236"/>
-    <tableColumn id="10" name="6" dataDxfId="235"/>
-    <tableColumn id="11" name="7" dataDxfId="234"/>
-    <tableColumn id="12" name="8" dataDxfId="233"/>
-    <tableColumn id="13" name="9" dataDxfId="232"/>
-    <tableColumn id="16" name="10" dataDxfId="231"/>
-    <tableColumn id="17" name="11" dataDxfId="230"/>
-    <tableColumn id="18" name="12" dataDxfId="229"/>
+    <tableColumn id="5" name="1" dataDxfId="242"/>
+    <tableColumn id="6" name="2" dataDxfId="241"/>
+    <tableColumn id="7" name="3" dataDxfId="240"/>
+    <tableColumn id="8" name="4" dataDxfId="239"/>
+    <tableColumn id="9" name="5" dataDxfId="238"/>
+    <tableColumn id="10" name="6" dataDxfId="237"/>
+    <tableColumn id="11" name="7" dataDxfId="236"/>
+    <tableColumn id="12" name="8" dataDxfId="235"/>
+    <tableColumn id="13" name="9" dataDxfId="234"/>
+    <tableColumn id="16" name="10" dataDxfId="233"/>
+    <tableColumn id="17" name="11" dataDxfId="232"/>
+    <tableColumn id="18" name="12" dataDxfId="231"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="CostRemaining" displayName="CostRemaining" ref="A19:R68" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="CostRemaining" displayName="CostRemaining" ref="A19:R68" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A19:R68"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Cost" dataDxfId="44"/>
-    <tableColumn id="15" name="Kind" dataDxfId="43">
+    <tableColumn id="1" name="Cost" dataDxfId="46"/>
+    <tableColumn id="15" name="Kind" dataDxfId="45">
       <calculatedColumnFormula>VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="42">
+    <tableColumn id="2" name="Resource" dataDxfId="44">
       <calculatedColumnFormula>VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MatchStr" dataDxfId="41">
+    <tableColumn id="18" name="MatchStr" dataDxfId="43">
       <calculatedColumnFormula>IF(COUNTIF(Skips,CostRemaining[[#This Row],[Cost]])&gt;0,"IGNORE",CostRemaining[Kind]&amp;"-"&amp;CostRemaining[Resource])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Next" dataDxfId="40">
+    <tableColumn id="14" name="Next" dataDxfId="42">
       <calculatedColumnFormula>IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(CostRemaining[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="39">
+    <tableColumn id="3" name="1" dataDxfId="41">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:G24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="2" dataDxfId="38">
+    <tableColumn id="4" name="2" dataDxfId="40">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:H24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="3" dataDxfId="37">
+    <tableColumn id="5" name="3" dataDxfId="39">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:I24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="4" dataDxfId="36">
+    <tableColumn id="6" name="4" dataDxfId="38">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:J24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="5" dataDxfId="35">
+    <tableColumn id="7" name="5" dataDxfId="37">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:K24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="6" dataDxfId="34">
+    <tableColumn id="8" name="6" dataDxfId="36">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:L24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="7" dataDxfId="33">
+    <tableColumn id="9" name="7" dataDxfId="35">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:M24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="8" dataDxfId="32">
+    <tableColumn id="10" name="8" dataDxfId="34">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:N24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="9" dataDxfId="31">
+    <tableColumn id="11" name="9" dataDxfId="33">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:O24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="10" dataDxfId="30">
+    <tableColumn id="12" name="10" dataDxfId="32">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:P24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="11" dataDxfId="29">
+    <tableColumn id="13" name="11" dataDxfId="31">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:Q24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="12" dataDxfId="28">
+    <tableColumn id="16" name="12" dataDxfId="30">
       <calculatedColumnFormula>IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:R24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sum" dataDxfId="27">
+    <tableColumn id="17" name="Sum" dataDxfId="29">
       <calculatedColumnFormula>IF(CostRemaining[[#This Row],[MatchStr]]="IGNORE",0,SUM(CostRemaining[[#This Row],[1]:[12]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8104,59 +8133,59 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TimeRemaining" displayName="TimeRemaining" ref="A73:R122" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TimeRemaining" displayName="TimeRemaining" ref="A73:R122" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A73:R122"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Time" dataDxfId="24"/>
-    <tableColumn id="15" name="Kind" dataDxfId="23">
+    <tableColumn id="1" name="Time" dataDxfId="26"/>
+    <tableColumn id="15" name="Kind" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("Kind",Upgrades[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="22">
+    <tableColumn id="2" name="Resource" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("Resource",Upgrades[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MatchStr" dataDxfId="21">
+    <tableColumn id="18" name="MatchStr" dataDxfId="23">
       <calculatedColumnFormula>IF(COUNTIF(Skips,TimeRemaining[[#This Row],[Time]])&gt;0,"IGNORE",TimeRemaining[Kind]&amp;"-"&amp;TimeRemaining[Resource])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Next" dataDxfId="20">
+    <tableColumn id="14" name="Next" dataDxfId="22">
       <calculatedColumnFormula>IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(TimeRemaining[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="19">
+    <tableColumn id="3" name="1" dataDxfId="21">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:G24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="2" dataDxfId="18">
+    <tableColumn id="4" name="2" dataDxfId="20">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:H24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="3" dataDxfId="17">
+    <tableColumn id="5" name="3" dataDxfId="19">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:I24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="4" dataDxfId="16">
+    <tableColumn id="6" name="4" dataDxfId="18">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:J24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="5" dataDxfId="15">
+    <tableColumn id="7" name="5" dataDxfId="17">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:K24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="6" dataDxfId="14">
+    <tableColumn id="8" name="6" dataDxfId="16">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:L24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="7" dataDxfId="13">
+    <tableColumn id="9" name="7" dataDxfId="15">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:M24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="8" dataDxfId="12">
+    <tableColumn id="10" name="8" dataDxfId="14">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:N24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="9" dataDxfId="11">
+    <tableColumn id="11" name="9" dataDxfId="13">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:O24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="10" dataDxfId="10">
+    <tableColumn id="12" name="10" dataDxfId="12">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:P24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="11" dataDxfId="9">
+    <tableColumn id="13" name="11" dataDxfId="11">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:Q24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="12" dataDxfId="8">
+    <tableColumn id="16" name="12" dataDxfId="10">
       <calculatedColumnFormula>IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:R24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sum" dataDxfId="7">
+    <tableColumn id="17" name="Sum" dataDxfId="9">
       <calculatedColumnFormula>IF(TimeRemaining[[#This Row],[MatchStr]]="IGNORE",0,SUM(TimeRemaining[[#This Row],[1]:[12]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8172,25 +8201,25 @@
     <tableColumn id="2" name="Level">
       <calculatedColumnFormula>AQLevel</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="MaxLevel" dataDxfId="6">
+    <tableColumn id="3" name="MaxLevel" dataDxfId="8">
       <calculatedColumnFormula>VLOOKUP(HeroNextUpgrade[[#This Row],[Hero]],MaxLevel[],MATCH("L"&amp;THLevel,MaxLevel[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Upgradeable" dataDxfId="5">
+    <tableColumn id="6" name="Upgradeable" dataDxfId="7">
       <calculatedColumnFormula>AND(HeroNextUpgrade[[#This Row],[Level]]&lt;HeroNextUpgrade[[#This Row],[MaxLevel]],COUNTIF(Skips,HeroNextUpgrade[[#This Row],[Hero]])=0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Next Level" dataDxfId="4">
+    <tableColumn id="9" name="Next Level" dataDxfId="6">
       <calculatedColumnFormula>HeroNextUpgrade[[#This Row],[Level]]+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Next Cost" dataDxfId="3">
+    <tableColumn id="4" name="Next Cost" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(HeroNextUpgrade[[#This Row],[Next Level]],HeroUpgrades[],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Cost",HeroUpgrades[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Next Time" dataDxfId="2">
+    <tableColumn id="5" name="Next Time" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(HeroNextUpgrade[[#This Row],[Next Level]],HeroUpgrades[],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Time",HeroUpgrades[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost to Max" dataDxfId="1">
+    <tableColumn id="12" name="Cost to Max" dataDxfId="3">
       <calculatedColumnFormula>IF(HeroNextUpgrade[[#This Row],[Upgradeable]],SUM(OFFSET(HeroUpgrades[],HeroNextUpgrade[[#This Row],[Level]],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Cost",HeroUpgrades[#Headers],0)-1,HeroNextUpgrade[[#This Row],[MaxLevel]]-HeroNextUpgrade[[#This Row],[Level]],1)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Time to Max" dataDxfId="0">
+    <tableColumn id="13" name="Time to Max" dataDxfId="2">
       <calculatedColumnFormula>IF(HeroNextUpgrade[[#This Row],[Upgradeable]],SUM(OFFSET(HeroUpgrades[],HeroNextUpgrade[[#This Row],[Level]],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Time",HeroUpgrades[#Headers],0)-1,HeroNextUpgrade[[#This Row],[MaxLevel]]-HeroNextUpgrade[[#This Row],[Level]],1)),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8199,37 +8228,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ArmyState" displayName="ArmyState" ref="B17:L37" headerRowDxfId="222" dataDxfId="221" totalsRowDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ArmyState" displayName="ArmyState" ref="B17:L37" headerRowDxfId="224" dataDxfId="223" totalsRowDxfId="222">
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="219" totalsRowDxfId="218"/>
-    <tableColumn id="4" name="Count" dataDxfId="217" totalsRowDxfId="216">
+    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="221" totalsRowDxfId="220"/>
+    <tableColumn id="4" name="Count" dataDxfId="219" totalsRowDxfId="218">
       <calculatedColumnFormula>INDEX(AttackSets[],MATCH(ArmyState[[#This Row],[Name]],AttackSets[Unit Set],0),MATCH(AttackSet,AttackSets[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Type" dataDxfId="215" totalsRowDxfId="214">
+    <tableColumn id="12" name="Type" dataDxfId="217" totalsRowDxfId="216">
       <calculatedColumnFormula>INDEX(UnitCosts[Type],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Level" dataDxfId="213" totalsRowDxfId="212">
+    <tableColumn id="2" name="Level" dataDxfId="215" totalsRowDxfId="214">
       <calculatedColumnFormula>IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="211" totalsRowDxfId="210">
+    <tableColumn id="3" name="Resource" dataDxfId="213" totalsRowDxfId="212">
       <calculatedColumnFormula>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Cost" dataDxfId="209" totalsRowDxfId="208">
+    <tableColumn id="9" name="Cost" dataDxfId="211" totalsRowDxfId="210">
       <calculatedColumnFormula>VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Time" dataDxfId="207" totalsRowDxfId="206">
+    <tableColumn id="7" name="Time" dataDxfId="209" totalsRowDxfId="208">
       <calculatedColumnFormula>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Space" dataDxfId="205" totalsRowDxfId="204">
+    <tableColumn id="8" name="Space" dataDxfId="207" totalsRowDxfId="206">
       <calculatedColumnFormula>INDEX(UnitCosts[Space],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Cost" dataDxfId="203" totalsRowDxfId="202">
+    <tableColumn id="6" name="Total Cost" dataDxfId="205" totalsRowDxfId="204">
       <calculatedColumnFormula>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Time" dataDxfId="201" totalsRowDxfId="200">
+    <tableColumn id="10" name="Total Time" dataDxfId="203" totalsRowDxfId="202">
       <calculatedColumnFormula>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Total Space" dataDxfId="199" totalsRowDxfId="198">
+    <tableColumn id="11" name="Total Space" dataDxfId="201" totalsRowDxfId="200">
       <calculatedColumnFormula>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Space]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8238,137 +8267,137 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="AttackSets" displayName="AttackSets" ref="N17:X37" headerRowDxfId="197" dataDxfId="196" totalsRowDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="AttackSets" displayName="AttackSets" ref="N17:X37" headerRowDxfId="199" dataDxfId="198" totalsRowDxfId="197">
   <tableColumns count="11">
-    <tableColumn id="1" name="Unit Set" totalsRowLabel="Total" dataDxfId="194" totalsRowDxfId="193"/>
-    <tableColumn id="2" name="LastUsed" dataDxfId="192"/>
-    <tableColumn id="3" name="Farming" dataDxfId="191"/>
-    <tableColumn id="4" name="War" dataDxfId="190"/>
-    <tableColumn id="6" name="G+Healers" dataDxfId="189"/>
-    <tableColumn id="7" name="WarSaver" dataDxfId="188"/>
-    <tableColumn id="8" name="Cheapo" dataDxfId="187"/>
-    <tableColumn id="9" name="RageT1" dataDxfId="186"/>
-    <tableColumn id="10" name="     " dataDxfId="185"/>
-    <tableColumn id="11" name="      " dataDxfId="184"/>
-    <tableColumn id="12" name="       " dataDxfId="183"/>
+    <tableColumn id="1" name="Unit Set" totalsRowLabel="Total" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="2" name="LastUsed" dataDxfId="194"/>
+    <tableColumn id="3" name="Farming" dataDxfId="193"/>
+    <tableColumn id="4" name="War" dataDxfId="192"/>
+    <tableColumn id="6" name="G+Healers" dataDxfId="191"/>
+    <tableColumn id="7" name="WarSaver" dataDxfId="190"/>
+    <tableColumn id="8" name="Cheapo" dataDxfId="189"/>
+    <tableColumn id="9" name="RageT1" dataDxfId="188"/>
+    <tableColumn id="10" name="     " dataDxfId="187"/>
+    <tableColumn id="11" name="      " dataDxfId="186"/>
+    <tableColumn id="12" name="       " dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="Custom" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Upgrades" displayName="Upgrades" ref="A2:AA51" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Upgrades" displayName="Upgrades" ref="A2:AA51" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <tableColumns count="27">
-    <tableColumn id="1" name="Building" dataDxfId="125"/>
-    <tableColumn id="3" name="Kind" dataDxfId="124"/>
-    <tableColumn id="2" name="Resource" dataDxfId="123"/>
-    <tableColumn id="5" name="C1" dataDxfId="122"/>
-    <tableColumn id="6" name="C2" dataDxfId="121"/>
-    <tableColumn id="7" name="C3" dataDxfId="120"/>
-    <tableColumn id="8" name="C4" dataDxfId="119"/>
-    <tableColumn id="9" name="C5" dataDxfId="118"/>
-    <tableColumn id="10" name="C6" dataDxfId="117"/>
-    <tableColumn id="11" name="C7" dataDxfId="116"/>
-    <tableColumn id="12" name="C8" dataDxfId="115"/>
-    <tableColumn id="13" name="C9" dataDxfId="114"/>
-    <tableColumn id="14" name="C10" dataDxfId="113"/>
-    <tableColumn id="15" name="C11" dataDxfId="112"/>
-    <tableColumn id="16" name="C12" dataDxfId="111"/>
-    <tableColumn id="17" name="T1" dataDxfId="110" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="18" name="T2" dataDxfId="109" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="19" name="T3" dataDxfId="108" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="20" name="T4" dataDxfId="107" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="21" name="T5" dataDxfId="106" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="22" name="T6" dataDxfId="105" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="23" name="T7" dataDxfId="104" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="24" name="T8" dataDxfId="103" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="25" name="T9" dataDxfId="102" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="26" name="T10" dataDxfId="101" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="27" name="T11" dataDxfId="100" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="28" name="T12" dataDxfId="99" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="1" name="Building" dataDxfId="127"/>
+    <tableColumn id="3" name="Kind" dataDxfId="126"/>
+    <tableColumn id="2" name="Resource" dataDxfId="125"/>
+    <tableColumn id="5" name="C1" dataDxfId="124"/>
+    <tableColumn id="6" name="C2" dataDxfId="123"/>
+    <tableColumn id="7" name="C3" dataDxfId="122"/>
+    <tableColumn id="8" name="C4" dataDxfId="121"/>
+    <tableColumn id="9" name="C5" dataDxfId="120"/>
+    <tableColumn id="10" name="C6" dataDxfId="119"/>
+    <tableColumn id="11" name="C7" dataDxfId="118"/>
+    <tableColumn id="12" name="C8" dataDxfId="117"/>
+    <tableColumn id="13" name="C9" dataDxfId="116"/>
+    <tableColumn id="14" name="C10" dataDxfId="115"/>
+    <tableColumn id="15" name="C11" dataDxfId="114"/>
+    <tableColumn id="16" name="C12" dataDxfId="113"/>
+    <tableColumn id="17" name="T1" dataDxfId="112" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="18" name="T2" dataDxfId="111" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="19" name="T3" dataDxfId="110" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="20" name="T4" dataDxfId="109" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="21" name="T5" dataDxfId="108" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="22" name="T6" dataDxfId="107" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="23" name="T7" dataDxfId="106" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="24" name="T8" dataDxfId="105" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="25" name="T9" dataDxfId="104" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="26" name="T10" dataDxfId="103" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="27" name="T11" dataDxfId="102" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="28" name="T12" dataDxfId="101" dataCellStyle="Normal_Upgrade Costs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="UnitCosts" displayName="UnitCosts" ref="A111:K131" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="UnitCosts" displayName="UnitCosts" ref="A111:K131" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" dataDxfId="96"/>
-    <tableColumn id="2" name="Type" dataDxfId="95"/>
-    <tableColumn id="3" name="Resource" dataDxfId="94"/>
-    <tableColumn id="16" name="Train Time" dataDxfId="93"/>
-    <tableColumn id="15" name="Space" dataDxfId="92"/>
-    <tableColumn id="4" name="1" dataDxfId="91"/>
-    <tableColumn id="5" name="2" dataDxfId="90"/>
-    <tableColumn id="6" name="3" dataDxfId="89"/>
-    <tableColumn id="7" name="4" dataDxfId="88"/>
-    <tableColumn id="8" name="5" dataDxfId="87"/>
-    <tableColumn id="9" name="6" dataDxfId="86"/>
+    <tableColumn id="1" name="Name" dataDxfId="98"/>
+    <tableColumn id="2" name="Type" dataDxfId="97"/>
+    <tableColumn id="3" name="Resource" dataDxfId="96"/>
+    <tableColumn id="16" name="Train Time" dataDxfId="95"/>
+    <tableColumn id="15" name="Space" dataDxfId="94"/>
+    <tableColumn id="4" name="1" dataDxfId="93"/>
+    <tableColumn id="5" name="2" dataDxfId="92"/>
+    <tableColumn id="6" name="3" dataDxfId="91"/>
+    <tableColumn id="7" name="4" dataDxfId="90"/>
+    <tableColumn id="8" name="5" dataDxfId="89"/>
+    <tableColumn id="9" name="6" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QuantAvail" displayName="QuantAvail" ref="A135:K186" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QuantAvail" displayName="QuantAvail" ref="A135:K186" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A135:K186"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Quantity Available" dataDxfId="83"/>
-    <tableColumn id="2" name="L1" dataDxfId="82"/>
-    <tableColumn id="3" name="L2" dataDxfId="81"/>
-    <tableColumn id="4" name="L3" dataDxfId="80"/>
-    <tableColumn id="5" name="L4" dataDxfId="79"/>
-    <tableColumn id="6" name="L5" dataDxfId="78"/>
-    <tableColumn id="7" name="L6" dataDxfId="77"/>
-    <tableColumn id="8" name="L7" dataDxfId="76"/>
-    <tableColumn id="9" name="L8" dataDxfId="75"/>
-    <tableColumn id="10" name="L9" dataDxfId="74"/>
-    <tableColumn id="11" name="L10" dataDxfId="73"/>
+    <tableColumn id="1" name="Quantity Available" dataDxfId="85"/>
+    <tableColumn id="2" name="L1" dataDxfId="84"/>
+    <tableColumn id="3" name="L2" dataDxfId="83"/>
+    <tableColumn id="4" name="L3" dataDxfId="82"/>
+    <tableColumn id="5" name="L4" dataDxfId="81"/>
+    <tableColumn id="6" name="L5" dataDxfId="80"/>
+    <tableColumn id="7" name="L6" dataDxfId="79"/>
+    <tableColumn id="8" name="L7" dataDxfId="78"/>
+    <tableColumn id="9" name="L8" dataDxfId="77"/>
+    <tableColumn id="10" name="L9" dataDxfId="76"/>
+    <tableColumn id="11" name="L10" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MaxLevel" displayName="MaxLevel" ref="A189:K240" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MaxLevel" displayName="MaxLevel" ref="A189:K240" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A189:K240"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Max Level" dataDxfId="70"/>
-    <tableColumn id="2" name="L1" dataDxfId="69"/>
-    <tableColumn id="3" name="L2" dataDxfId="68"/>
-    <tableColumn id="4" name="L3" dataDxfId="67"/>
-    <tableColumn id="5" name="L4" dataDxfId="66"/>
-    <tableColumn id="6" name="L5" dataDxfId="65"/>
-    <tableColumn id="7" name="L6" dataDxfId="64"/>
-    <tableColumn id="8" name="L7" dataDxfId="63"/>
-    <tableColumn id="9" name="L8" dataDxfId="62"/>
-    <tableColumn id="10" name="L9" dataDxfId="61"/>
-    <tableColumn id="11" name="L10" dataDxfId="60"/>
+    <tableColumn id="1" name="Max Level" dataDxfId="72"/>
+    <tableColumn id="2" name="L1" dataDxfId="71"/>
+    <tableColumn id="3" name="L2" dataDxfId="70"/>
+    <tableColumn id="4" name="L3" dataDxfId="69"/>
+    <tableColumn id="5" name="L4" dataDxfId="68"/>
+    <tableColumn id="6" name="L5" dataDxfId="67"/>
+    <tableColumn id="7" name="L6" dataDxfId="66"/>
+    <tableColumn id="8" name="L7" dataDxfId="65"/>
+    <tableColumn id="9" name="L8" dataDxfId="64"/>
+    <tableColumn id="10" name="L9" dataDxfId="63"/>
+    <tableColumn id="11" name="L10" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HeroUpgrades" displayName="HeroUpgrades" ref="A56:E96" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HeroUpgrades" displayName="HeroUpgrades" ref="A56:E96" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="A56:E96"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Level" dataDxfId="56"/>
-    <tableColumn id="2" name="BK-Cost" dataDxfId="55"/>
-    <tableColumn id="3" name="BK-Time" dataDxfId="54"/>
-    <tableColumn id="4" name="AQ-Cost" dataDxfId="53"/>
-    <tableColumn id="5" name="AQ-Time" dataDxfId="52"/>
+    <tableColumn id="1" name="Level" dataDxfId="58"/>
+    <tableColumn id="2" name="BK-Cost" dataDxfId="57"/>
+    <tableColumn id="3" name="BK-Time" dataDxfId="56"/>
+    <tableColumn id="4" name="AQ-Cost" dataDxfId="55"/>
+    <tableColumn id="5" name="AQ-Time" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A100:B108" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A100:B108" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="2">
-    <tableColumn id="1" name="Level" dataDxfId="49"/>
-    <tableColumn id="2" name="Capacity" dataDxfId="48"/>
+    <tableColumn id="1" name="Level" dataDxfId="51"/>
+    <tableColumn id="2" name="Capacity" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8701,11 +8730,11 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="I11" sqref="I11:N11"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8871,7 +8900,7 @@
       </c>
       <c r="K6" s="20">
         <f ca="1">SUMIFS(CostRemaining[Sum],CostRemaining[Resource],K$5,CostRemaining[Kind],$I6)</f>
-        <v>1250000</v>
+        <v>5750000</v>
       </c>
       <c r="L6" s="20">
         <f ca="1">SUMIFS(CostRemaining[Sum],CostRemaining[Resource],L$5,CostRemaining[Kind],$I6)</f>
@@ -8879,11 +8908,11 @@
       </c>
       <c r="M6" s="152">
         <f ca="1">SUMIF(TimeRemaining[Kind],$I6,TimeRemaining[Sum])</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N6" s="127">
         <f ca="1">M6/IF(I6="Building",NumBuilders,1)</f>
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="128"/>
       <c r="P6" s="18" t="s">
@@ -8916,7 +8945,7 @@
       </c>
       <c r="J7" s="23">
         <f ca="1">SUMIFS(CostRemaining[Sum],CostRemaining[Resource],J$5,CostRemaining[Kind],$I7)</f>
-        <v>43725000</v>
+        <v>41550000</v>
       </c>
       <c r="K7" s="157"/>
       <c r="L7" s="157"/>
@@ -9003,11 +9032,11 @@
       </c>
       <c r="J9" s="32">
         <f ca="1">SUM(J6:J8)</f>
-        <v>45725000</v>
+        <v>43550000</v>
       </c>
       <c r="K9" s="33">
         <f ca="1">SUM(K6:K8)</f>
-        <v>7300000</v>
+        <v>11800000</v>
       </c>
       <c r="L9" s="91">
         <f ca="1">SUM(L6:L8)</f>
@@ -9088,8 +9117,8 @@
       </c>
       <c r="M12" s="275"/>
       <c r="N12" s="190">
-        <f t="array" aca="1" ref="N12" ca="1">SUM(IF(ConstructionState[Kind]="Building",(ConstructionState[Available]*ConstructionState[Maximum Level])))-SUMPRODUCT(IF(ConstructionState[Kind]="Building",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]]))</f>
-        <v>7</v>
+        <f t="array" aca="1" ref="N12" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Building",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Building",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
+        <v>5</v>
       </c>
       <c r="O12" s="128"/>
       <c r="P12" s="12" t="s">
@@ -9129,8 +9158,8 @@
       </c>
       <c r="M13" s="279"/>
       <c r="N13" s="191">
-        <f t="array" aca="1" ref="N13" ca="1">SUM(IF(ConstructionState[Kind]="Wall",(ConstructionState[Available]*ConstructionState[Maximum Level])))-SUMPRODUCT(IF(ConstructionState[Kind]="Wall",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]]))</f>
-        <v>293</v>
+        <f t="array" aca="1" ref="N13" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Wall",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Wall",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
+        <v>264</v>
       </c>
       <c r="O13" s="128"/>
       <c r="P13" s="18" t="s">
@@ -9164,15 +9193,15 @@
       <c r="J14" s="277"/>
       <c r="K14" s="10">
         <f ca="1">K9/J9</f>
-        <v>0.15965008201202843</v>
+        <v>0.27095292766934559</v>
       </c>
       <c r="L14" s="280" t="s">
         <v>253</v>
       </c>
       <c r="M14" s="281"/>
       <c r="N14" s="192">
-        <f t="array" aca="1" ref="N14" ca="1">SUM(IF(ConstructionState[Kind]="Upgrade",(ConstructionState[Available]*ConstructionState[Maximum Level])))-SUMPRODUCT(IF(ConstructionState[Kind]="Upgrade",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]]))</f>
-        <v>11</v>
+        <f t="array" aca="1" ref="N14" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Upgrade",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Upgrade",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
+        <v>7</v>
       </c>
       <c r="O14" s="128"/>
       <c r="P14" s="27" t="s">
@@ -9323,9 +9352,7 @@
       <c r="Q19" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="R19" s="174" t="s">
-        <v>2</v>
-      </c>
+      <c r="R19" s="174"/>
       <c r="S19" s="175" t="s">
         <v>18</v>
       </c>
@@ -9577,7 +9604,7 @@
       </c>
       <c r="D26" s="49" t="str">
         <f>IF(COUNTIF(Skips,ConstructionState[[#This Row],[Building or Upgrade]]),"IGNORE",ConstructionState[Kind]&amp;"-"&amp;ConstructionState[Resource])</f>
-        <v>IGNORE</v>
+        <v>Building-Elixir</v>
       </c>
       <c r="E26" s="50">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
@@ -9597,11 +9624,9 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" s="4">
         <v>1</v>
@@ -10157,10 +10182,10 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="M39" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N39" s="2">
         <v>1</v>
@@ -11620,33 +11645,33 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="J6:N6 Q6:S8 Q13:S14 I21:I22 K8:N8 J7">
-    <cfRule type="cellIs" dxfId="256" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I22">
-    <cfRule type="cellIs" dxfId="255" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:S72">
-    <cfRule type="expression" dxfId="254" priority="80">
+    <cfRule type="expression" dxfId="256" priority="80">
       <formula>OR(VALUE(H$23)&gt;$F24,AND($B24="Upgrade",H$23="1"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="81">
+    <cfRule type="expression" dxfId="255" priority="81">
       <formula>AND(VALUE(H$23)&lt;$F24,VALUE(H24)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsErrors" dxfId="252" priority="2">
+    <cfRule type="containsErrors" dxfId="254" priority="2">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G72">
-    <cfRule type="cellIs" dxfId="251" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11695,8 +11720,8 @@
   </sheetPr>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="1">
       <selection activeCell="M15" sqref="M15"/>
@@ -11808,25 +11833,25 @@
     </row>
     <row r="4" spans="1:25" ht="16" thickTop="1">
       <c r="A4" s="130"/>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="299" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="298"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="300"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="301"/>
       <c r="I4" s="130"/>
       <c r="J4" s="93">
         <v>2</v>
       </c>
-      <c r="K4" s="305" t="s">
+      <c r="K4" s="308" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="306"/>
-      <c r="M4" s="306"/>
-      <c r="N4" s="307"/>
+      <c r="L4" s="309"/>
+      <c r="M4" s="309"/>
+      <c r="N4" s="310"/>
       <c r="O4" s="130"/>
       <c r="P4" s="130"/>
       <c r="Q4" s="130"/>
@@ -11841,23 +11866,23 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="130"/>
-      <c r="B5" s="299"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="301"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="303"/>
+      <c r="H5" s="304"/>
       <c r="I5" s="130"/>
       <c r="J5" s="36">
         <v>0</v>
       </c>
-      <c r="K5" s="308" t="s">
+      <c r="K5" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="L5" s="309"/>
-      <c r="M5" s="309"/>
-      <c r="N5" s="310"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="313"/>
       <c r="O5" s="130"/>
       <c r="P5" s="130"/>
       <c r="Q5" s="130"/>
@@ -11872,23 +11897,23 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="130"/>
-      <c r="B6" s="299"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="301"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="304"/>
       <c r="I6" s="130"/>
       <c r="J6" s="38">
         <v>-1</v>
       </c>
-      <c r="K6" s="308" t="s">
+      <c r="K6" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="309"/>
-      <c r="M6" s="309"/>
-      <c r="N6" s="310"/>
+      <c r="L6" s="312"/>
+      <c r="M6" s="312"/>
+      <c r="N6" s="313"/>
       <c r="O6" s="130"/>
       <c r="P6" s="130"/>
       <c r="Q6" s="130"/>
@@ -11903,21 +11928,21 @@
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1">
       <c r="A7" s="130"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="304"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="307"/>
       <c r="I7" s="130"/>
       <c r="J7" s="92"/>
-      <c r="K7" s="311" t="s">
+      <c r="K7" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="312"/>
-      <c r="M7" s="312"/>
-      <c r="N7" s="313"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="315"/>
+      <c r="N7" s="316"/>
       <c r="O7" s="130"/>
       <c r="P7" s="130"/>
       <c r="Q7" s="130"/>
@@ -11959,20 +11984,20 @@
     </row>
     <row r="9" spans="1:25" ht="17" thickTop="1" thickBot="1">
       <c r="A9" s="130"/>
-      <c r="B9" s="288" t="s">
+      <c r="B9" s="291" t="s">
         <v>175</v>
       </c>
       <c r="C9" s="219"/>
       <c r="D9" s="220"/>
       <c r="E9" s="130"/>
-      <c r="F9" s="288" t="s">
+      <c r="F9" s="291" t="s">
         <v>172</v>
       </c>
       <c r="G9" s="219"/>
       <c r="H9" s="219"/>
       <c r="I9" s="220"/>
       <c r="J9" s="130"/>
-      <c r="K9" s="288" t="s">
+      <c r="K9" s="291" t="s">
         <v>173</v>
       </c>
       <c r="L9" s="219"/>
@@ -12021,10 +12046,10 @@
       <c r="L10" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="289" t="s">
+      <c r="M10" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="N10" s="290"/>
+      <c r="N10" s="293"/>
       <c r="O10" s="130"/>
       <c r="P10" s="130"/>
       <c r="Q10" s="130"/>
@@ -12074,11 +12099,11 @@
         <f>SUMIFS(ArmyState[Total Time],ArmyState[Type],"Unit",ArmyState[Resource],"Elixir")</f>
         <v>92.333333333333329</v>
       </c>
-      <c r="M11" s="291">
+      <c r="M11" s="294">
         <f ca="1">L11/NumBarracks</f>
         <v>23.083333333333332</v>
       </c>
-      <c r="N11" s="292"/>
+      <c r="N11" s="295"/>
       <c r="O11" s="130"/>
       <c r="P11" s="130"/>
       <c r="Q11" s="130"/>
@@ -12128,11 +12153,11 @@
         <f>SUMIFS(ArmyState[Total Time],ArmyState[Type],"Unit",ArmyState[Resource],"Dark Elixir")</f>
         <v>0</v>
       </c>
-      <c r="M12" s="293">
+      <c r="M12" s="296">
         <f ca="1">L12/NumDarkBarracks</f>
         <v>0</v>
       </c>
-      <c r="N12" s="292"/>
+      <c r="N12" s="295"/>
       <c r="O12" s="130"/>
       <c r="P12" s="130"/>
       <c r="Q12" s="130"/>
@@ -12171,11 +12196,11 @@
         <f>SUMIFS(ArmyState[Total Time],ArmyState[Type],"Spell")</f>
         <v>0</v>
       </c>
-      <c r="M13" s="294">
+      <c r="M13" s="297">
         <f>L13/1</f>
         <v>0</v>
       </c>
-      <c r="N13" s="295"/>
+      <c r="N13" s="298"/>
       <c r="O13" s="130"/>
       <c r="P13" s="130"/>
       <c r="Q13" s="130"/>
@@ -12217,35 +12242,35 @@
     </row>
     <row r="15" spans="1:25" ht="25" thickTop="1" thickBot="1">
       <c r="A15" s="130"/>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="285" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="283"/>
-      <c r="D15" s="334" t="s">
+      <c r="C15" s="286"/>
+      <c r="D15" s="282" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="335"/>
-      <c r="F15" s="335"/>
-      <c r="G15" s="336"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="284"/>
       <c r="H15" s="130"/>
       <c r="I15" s="130"/>
       <c r="J15" s="130"/>
       <c r="K15" s="130"/>
       <c r="L15" s="130"/>
       <c r="M15" s="130"/>
-      <c r="N15" s="284" t="s">
+      <c r="N15" s="287" t="s">
         <v>185</v>
       </c>
-      <c r="O15" s="285"/>
-      <c r="P15" s="286"/>
-      <c r="Q15" s="286"/>
-      <c r="R15" s="286"/>
-      <c r="S15" s="286"/>
-      <c r="T15" s="286"/>
-      <c r="U15" s="286"/>
-      <c r="V15" s="286"/>
-      <c r="W15" s="286"/>
-      <c r="X15" s="287"/>
+      <c r="O15" s="288"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="289"/>
+      <c r="U15" s="289"/>
+      <c r="V15" s="289"/>
+      <c r="W15" s="289"/>
+      <c r="X15" s="290"/>
       <c r="Y15" s="130"/>
     </row>
     <row r="16" spans="1:25" ht="17" thickTop="1" thickBot="1">
@@ -13913,30 +13938,30 @@
     <mergeCell ref="K9:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:D13 L11:M13 G11:I12 O38:X41">
-    <cfRule type="cellIs" dxfId="228" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="cellIs" dxfId="227" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:X17">
-    <cfRule type="expression" dxfId="225" priority="1">
+    <cfRule type="expression" dxfId="227" priority="1">
       <formula>$D$15=O$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsErrors" dxfId="224" priority="4">
+    <cfRule type="containsErrors" dxfId="226" priority="4">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:X37">
-    <cfRule type="expression" dxfId="223" priority="2">
+    <cfRule type="expression" dxfId="225" priority="2">
       <formula>$D$15=N$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13983,97 +14008,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickTop="1">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="317" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="316"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="319"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="317"/>
-      <c r="B2" s="318"/>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="319"/>
+      <c r="A2" s="320"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="322"/>
     </row>
     <row r="3" spans="1:6" ht="16" thickTop="1"/>
     <row r="4" spans="1:6">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="323" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="321"/>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="324"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="321"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
+      <c r="A5" s="324"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="324"/>
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="321"/>
-      <c r="B6" s="321"/>
-      <c r="C6" s="321"/>
-      <c r="D6" s="321"/>
-      <c r="E6" s="321"/>
-      <c r="F6" s="321"/>
+      <c r="A6" s="324"/>
+      <c r="B6" s="324"/>
+      <c r="C6" s="324"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="321"/>
-      <c r="B7" s="321"/>
-      <c r="C7" s="321"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="321"/>
-      <c r="F7" s="321"/>
+      <c r="A7" s="324"/>
+      <c r="B7" s="324"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="324"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="321"/>
-      <c r="B8" s="321"/>
-      <c r="C8" s="321"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="321"/>
-      <c r="F8" s="321"/>
+      <c r="A8" s="324"/>
+      <c r="B8" s="324"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="321"/>
-      <c r="B9" s="321"/>
-      <c r="C9" s="321"/>
-      <c r="D9" s="321"/>
-      <c r="E9" s="321"/>
-      <c r="F9" s="321"/>
+      <c r="A9" s="324"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="324"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="324"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="322"/>
-      <c r="B10" s="322"/>
-      <c r="C10" s="322"/>
-      <c r="D10" s="322"/>
-      <c r="E10" s="322"/>
-      <c r="F10" s="322"/>
+      <c r="A10" s="325"/>
+      <c r="B10" s="325"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="322"/>
-      <c r="B11" s="322"/>
-      <c r="C11" s="322"/>
-      <c r="D11" s="322"/>
-      <c r="E11" s="322"/>
-      <c r="F11" s="322"/>
+      <c r="A11" s="325"/>
+      <c r="B11" s="325"/>
+      <c r="C11" s="325"/>
+      <c r="D11" s="325"/>
+      <c r="E11" s="325"/>
+      <c r="F11" s="325"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="322"/>
-      <c r="B12" s="322"/>
-      <c r="C12" s="322"/>
-      <c r="D12" s="322"/>
-      <c r="E12" s="322"/>
-      <c r="F12" s="322"/>
+      <c r="A12" s="325"/>
+      <c r="B12" s="325"/>
+      <c r="C12" s="325"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="325"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14101,8 +14126,8 @@
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
-    <sheetView topLeftCell="A29" workbookViewId="1">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14115,10 +14140,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1"/>
     <row r="2" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="326" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="324"/>
+      <c r="C2" s="327"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickTop="1">
       <c r="B3" s="100"/>
@@ -14216,10 +14241,10 @@
       <c r="C19" s="35"/>
     </row>
     <row r="20" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B20" s="323" t="s">
+      <c r="B20" s="326" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="324"/>
+      <c r="C20" s="327"/>
     </row>
     <row r="21" spans="2:3" ht="16" thickTop="1">
       <c r="B21" s="100"/>
@@ -14235,10 +14260,10 @@
       <c r="B23" s="111"/>
     </row>
     <row r="24" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B24" s="323" t="s">
+      <c r="B24" s="326" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="324"/>
+      <c r="C24" s="327"/>
     </row>
     <row r="25" spans="2:3" ht="46" thickTop="1">
       <c r="B25" s="103"/>
@@ -14274,10 +14299,10 @@
       <c r="B30" s="111"/>
     </row>
     <row r="31" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B31" s="323" t="s">
+      <c r="B31" s="326" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="324"/>
+      <c r="C31" s="327"/>
     </row>
     <row r="32" spans="2:3" ht="16" thickTop="1">
       <c r="B32" s="170"/>
@@ -14309,10 +14334,10 @@
     </row>
     <row r="37" spans="1:3" ht="17" thickTop="1" thickBot="1"/>
     <row r="38" spans="1:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B38" s="323" t="s">
+      <c r="B38" s="326" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="324"/>
+      <c r="C38" s="327"/>
     </row>
     <row r="39" spans="1:3" ht="16" thickTop="1">
       <c r="B39" s="163" t="s">
@@ -14378,8 +14403,12 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="111"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="112"/>
+      <c r="B46" s="114">
+        <v>41832</v>
+      </c>
+      <c r="C46" s="112" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="111"/>
@@ -14396,10 +14425,10 @@
     </row>
     <row r="50" spans="1:3" ht="17" thickTop="1" thickBot="1">
       <c r="A50" s="111"/>
-      <c r="B50" s="323" t="s">
+      <c r="B50" s="326" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="324"/>
+      <c r="C50" s="327"/>
     </row>
     <row r="51" spans="1:3" ht="16" thickTop="1">
       <c r="A51" s="111"/>
@@ -14506,35 +14535,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="331" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="329"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="329"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="329"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="330"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
+      <c r="R1" s="332"/>
+      <c r="S1" s="332"/>
+      <c r="T1" s="332"/>
+      <c r="U1" s="332"/>
+      <c r="V1" s="332"/>
+      <c r="W1" s="332"/>
+      <c r="X1" s="332"/>
+      <c r="Y1" s="332"/>
+      <c r="Z1" s="332"/>
+      <c r="AA1" s="333"/>
     </row>
     <row r="2" spans="1:27" ht="16" customHeight="1" thickTop="1">
       <c r="A2" s="11" t="s">
@@ -18716,35 +18745,35 @@
       <c r="AA52" s="77"/>
     </row>
     <row r="53" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A53" s="325" t="s">
+      <c r="A53" s="328" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="326"/>
-      <c r="C53" s="326"/>
-      <c r="D53" s="326"/>
-      <c r="E53" s="326"/>
-      <c r="F53" s="326"/>
-      <c r="G53" s="326"/>
-      <c r="H53" s="326"/>
-      <c r="I53" s="326"/>
-      <c r="J53" s="326"/>
-      <c r="K53" s="326"/>
-      <c r="L53" s="326"/>
-      <c r="M53" s="326"/>
-      <c r="N53" s="326"/>
-      <c r="O53" s="326"/>
-      <c r="P53" s="326"/>
-      <c r="Q53" s="326"/>
-      <c r="R53" s="326"/>
-      <c r="S53" s="326"/>
-      <c r="T53" s="326"/>
-      <c r="U53" s="326"/>
-      <c r="V53" s="326"/>
-      <c r="W53" s="326"/>
-      <c r="X53" s="326"/>
-      <c r="Y53" s="326"/>
-      <c r="Z53" s="326"/>
-      <c r="AA53" s="327"/>
+      <c r="B53" s="329"/>
+      <c r="C53" s="329"/>
+      <c r="D53" s="329"/>
+      <c r="E53" s="329"/>
+      <c r="F53" s="329"/>
+      <c r="G53" s="329"/>
+      <c r="H53" s="329"/>
+      <c r="I53" s="329"/>
+      <c r="J53" s="329"/>
+      <c r="K53" s="329"/>
+      <c r="L53" s="329"/>
+      <c r="M53" s="329"/>
+      <c r="N53" s="329"/>
+      <c r="O53" s="329"/>
+      <c r="P53" s="329"/>
+      <c r="Q53" s="329"/>
+      <c r="R53" s="329"/>
+      <c r="S53" s="329"/>
+      <c r="T53" s="329"/>
+      <c r="U53" s="329"/>
+      <c r="V53" s="329"/>
+      <c r="W53" s="329"/>
+      <c r="X53" s="329"/>
+      <c r="Y53" s="329"/>
+      <c r="Z53" s="329"/>
+      <c r="AA53" s="330"/>
     </row>
     <row r="54" spans="1:27" ht="17" thickTop="1" thickBot="1">
       <c r="A54" s="57"/>
@@ -18776,13 +18805,13 @@
       <c r="AA54" s="77"/>
     </row>
     <row r="55" spans="1:27" ht="19" thickTop="1">
-      <c r="A55" s="331" t="s">
+      <c r="A55" s="334" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="332"/>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="333"/>
+      <c r="B55" s="335"/>
+      <c r="C55" s="335"/>
+      <c r="D55" s="335"/>
+      <c r="E55" s="336"/>
       <c r="H55" s="75"/>
       <c r="I55" s="75"/>
       <c r="J55" s="75"/>
@@ -20069,35 +20098,35 @@
     </row>
     <row r="97" spans="1:27" ht="16" thickBot="1"/>
     <row r="98" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A98" s="325" t="s">
+      <c r="A98" s="328" t="s">
         <v>156</v>
       </c>
-      <c r="B98" s="326"/>
-      <c r="C98" s="326"/>
-      <c r="D98" s="326"/>
-      <c r="E98" s="326"/>
-      <c r="F98" s="326"/>
-      <c r="G98" s="326"/>
-      <c r="H98" s="326"/>
-      <c r="I98" s="326"/>
-      <c r="J98" s="326"/>
-      <c r="K98" s="326"/>
-      <c r="L98" s="326"/>
-      <c r="M98" s="326"/>
-      <c r="N98" s="326"/>
-      <c r="O98" s="326"/>
-      <c r="P98" s="326"/>
-      <c r="Q98" s="326"/>
-      <c r="R98" s="326"/>
-      <c r="S98" s="326"/>
-      <c r="T98" s="326"/>
-      <c r="U98" s="326"/>
-      <c r="V98" s="326"/>
-      <c r="W98" s="326"/>
-      <c r="X98" s="326"/>
-      <c r="Y98" s="326"/>
-      <c r="Z98" s="326"/>
-      <c r="AA98" s="327"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="329"/>
+      <c r="D98" s="329"/>
+      <c r="E98" s="329"/>
+      <c r="F98" s="329"/>
+      <c r="G98" s="329"/>
+      <c r="H98" s="329"/>
+      <c r="I98" s="329"/>
+      <c r="J98" s="329"/>
+      <c r="K98" s="329"/>
+      <c r="L98" s="329"/>
+      <c r="M98" s="329"/>
+      <c r="N98" s="329"/>
+      <c r="O98" s="329"/>
+      <c r="P98" s="329"/>
+      <c r="Q98" s="329"/>
+      <c r="R98" s="329"/>
+      <c r="S98" s="329"/>
+      <c r="T98" s="329"/>
+      <c r="U98" s="329"/>
+      <c r="V98" s="329"/>
+      <c r="W98" s="329"/>
+      <c r="X98" s="329"/>
+      <c r="Y98" s="329"/>
+      <c r="Z98" s="329"/>
+      <c r="AA98" s="330"/>
     </row>
     <row r="99" spans="1:27" ht="16" thickTop="1"/>
     <row r="100" spans="1:27">
@@ -20174,35 +20203,35 @@
     </row>
     <row r="109" spans="1:27" ht="16" thickBot="1"/>
     <row r="110" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A110" s="328" t="s">
+      <c r="A110" s="331" t="s">
         <v>155</v>
       </c>
-      <c r="B110" s="329"/>
-      <c r="C110" s="329"/>
-      <c r="D110" s="329"/>
-      <c r="E110" s="329"/>
-      <c r="F110" s="329"/>
-      <c r="G110" s="329"/>
-      <c r="H110" s="329"/>
-      <c r="I110" s="329"/>
-      <c r="J110" s="329"/>
-      <c r="K110" s="329"/>
-      <c r="L110" s="329"/>
-      <c r="M110" s="329"/>
-      <c r="N110" s="329"/>
-      <c r="O110" s="329"/>
-      <c r="P110" s="329"/>
-      <c r="Q110" s="329"/>
-      <c r="R110" s="329"/>
-      <c r="S110" s="329"/>
-      <c r="T110" s="329"/>
-      <c r="U110" s="329"/>
-      <c r="V110" s="329"/>
-      <c r="W110" s="329"/>
-      <c r="X110" s="329"/>
-      <c r="Y110" s="329"/>
-      <c r="Z110" s="329"/>
-      <c r="AA110" s="330"/>
+      <c r="B110" s="332"/>
+      <c r="C110" s="332"/>
+      <c r="D110" s="332"/>
+      <c r="E110" s="332"/>
+      <c r="F110" s="332"/>
+      <c r="G110" s="332"/>
+      <c r="H110" s="332"/>
+      <c r="I110" s="332"/>
+      <c r="J110" s="332"/>
+      <c r="K110" s="332"/>
+      <c r="L110" s="332"/>
+      <c r="M110" s="332"/>
+      <c r="N110" s="332"/>
+      <c r="O110" s="332"/>
+      <c r="P110" s="332"/>
+      <c r="Q110" s="332"/>
+      <c r="R110" s="332"/>
+      <c r="S110" s="332"/>
+      <c r="T110" s="332"/>
+      <c r="U110" s="332"/>
+      <c r="V110" s="332"/>
+      <c r="W110" s="332"/>
+      <c r="X110" s="332"/>
+      <c r="Y110" s="332"/>
+      <c r="Z110" s="332"/>
+      <c r="AA110" s="333"/>
     </row>
     <row r="111" spans="1:27" ht="16" thickTop="1">
       <c r="A111" s="11" t="s">
@@ -20941,35 +20970,35 @@
     </row>
     <row r="133" spans="1:27" ht="16" thickBot="1"/>
     <row r="134" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A134" s="325" t="s">
+      <c r="A134" s="328" t="s">
         <v>103</v>
       </c>
-      <c r="B134" s="326"/>
-      <c r="C134" s="326"/>
-      <c r="D134" s="326"/>
-      <c r="E134" s="326"/>
-      <c r="F134" s="326"/>
-      <c r="G134" s="326"/>
-      <c r="H134" s="326"/>
-      <c r="I134" s="326"/>
-      <c r="J134" s="326"/>
-      <c r="K134" s="326"/>
-      <c r="L134" s="326"/>
-      <c r="M134" s="326"/>
-      <c r="N134" s="326"/>
-      <c r="O134" s="326"/>
-      <c r="P134" s="326"/>
-      <c r="Q134" s="326"/>
-      <c r="R134" s="326"/>
-      <c r="S134" s="326"/>
-      <c r="T134" s="326"/>
-      <c r="U134" s="326"/>
-      <c r="V134" s="326"/>
-      <c r="W134" s="326"/>
-      <c r="X134" s="326"/>
-      <c r="Y134" s="326"/>
-      <c r="Z134" s="326"/>
-      <c r="AA134" s="327"/>
+      <c r="B134" s="329"/>
+      <c r="C134" s="329"/>
+      <c r="D134" s="329"/>
+      <c r="E134" s="329"/>
+      <c r="F134" s="329"/>
+      <c r="G134" s="329"/>
+      <c r="H134" s="329"/>
+      <c r="I134" s="329"/>
+      <c r="J134" s="329"/>
+      <c r="K134" s="329"/>
+      <c r="L134" s="329"/>
+      <c r="M134" s="329"/>
+      <c r="N134" s="329"/>
+      <c r="O134" s="329"/>
+      <c r="P134" s="329"/>
+      <c r="Q134" s="329"/>
+      <c r="R134" s="329"/>
+      <c r="S134" s="329"/>
+      <c r="T134" s="329"/>
+      <c r="U134" s="329"/>
+      <c r="V134" s="329"/>
+      <c r="W134" s="329"/>
+      <c r="X134" s="329"/>
+      <c r="Y134" s="329"/>
+      <c r="Z134" s="329"/>
+      <c r="AA134" s="330"/>
     </row>
     <row r="135" spans="1:27" ht="16" thickTop="1">
       <c r="A135" s="11" t="s">
@@ -22793,35 +22822,35 @@
     </row>
     <row r="187" spans="1:27" ht="16" thickBot="1"/>
     <row r="188" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A188" s="325" t="s">
+      <c r="A188" s="328" t="s">
         <v>127</v>
       </c>
-      <c r="B188" s="326"/>
-      <c r="C188" s="326"/>
-      <c r="D188" s="326"/>
-      <c r="E188" s="326"/>
-      <c r="F188" s="326"/>
-      <c r="G188" s="326"/>
-      <c r="H188" s="326"/>
-      <c r="I188" s="326"/>
-      <c r="J188" s="326"/>
-      <c r="K188" s="326"/>
-      <c r="L188" s="326"/>
-      <c r="M188" s="326"/>
-      <c r="N188" s="326"/>
-      <c r="O188" s="326"/>
-      <c r="P188" s="326"/>
-      <c r="Q188" s="326"/>
-      <c r="R188" s="326"/>
-      <c r="S188" s="326"/>
-      <c r="T188" s="326"/>
-      <c r="U188" s="326"/>
-      <c r="V188" s="326"/>
-      <c r="W188" s="326"/>
-      <c r="X188" s="326"/>
-      <c r="Y188" s="326"/>
-      <c r="Z188" s="326"/>
-      <c r="AA188" s="327"/>
+      <c r="B188" s="329"/>
+      <c r="C188" s="329"/>
+      <c r="D188" s="329"/>
+      <c r="E188" s="329"/>
+      <c r="F188" s="329"/>
+      <c r="G188" s="329"/>
+      <c r="H188" s="329"/>
+      <c r="I188" s="329"/>
+      <c r="J188" s="329"/>
+      <c r="K188" s="329"/>
+      <c r="L188" s="329"/>
+      <c r="M188" s="329"/>
+      <c r="N188" s="329"/>
+      <c r="O188" s="329"/>
+      <c r="P188" s="329"/>
+      <c r="Q188" s="329"/>
+      <c r="R188" s="329"/>
+      <c r="S188" s="329"/>
+      <c r="T188" s="329"/>
+      <c r="U188" s="329"/>
+      <c r="V188" s="329"/>
+      <c r="W188" s="329"/>
+      <c r="X188" s="329"/>
+      <c r="Y188" s="329"/>
+      <c r="Z188" s="329"/>
+      <c r="AA188" s="330"/>
     </row>
     <row r="189" spans="1:27" ht="16" thickTop="1">
       <c r="A189" s="11" t="s">
@@ -24645,35 +24674,35 @@
     </row>
     <row r="242" spans="1:27" ht="16" thickBot="1"/>
     <row r="243" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A243" s="325" t="s">
+      <c r="A243" s="328" t="s">
         <v>225</v>
       </c>
-      <c r="B243" s="326"/>
-      <c r="C243" s="326"/>
-      <c r="D243" s="326"/>
-      <c r="E243" s="326"/>
-      <c r="F243" s="326"/>
-      <c r="G243" s="326"/>
-      <c r="H243" s="326"/>
-      <c r="I243" s="326"/>
-      <c r="J243" s="326"/>
-      <c r="K243" s="326"/>
-      <c r="L243" s="326"/>
-      <c r="M243" s="326"/>
-      <c r="N243" s="326"/>
-      <c r="O243" s="326"/>
-      <c r="P243" s="326"/>
-      <c r="Q243" s="326"/>
-      <c r="R243" s="326"/>
-      <c r="S243" s="326"/>
-      <c r="T243" s="326"/>
-      <c r="U243" s="326"/>
-      <c r="V243" s="326"/>
-      <c r="W243" s="326"/>
-      <c r="X243" s="326"/>
-      <c r="Y243" s="326"/>
-      <c r="Z243" s="326"/>
-      <c r="AA243" s="327"/>
+      <c r="B243" s="329"/>
+      <c r="C243" s="329"/>
+      <c r="D243" s="329"/>
+      <c r="E243" s="329"/>
+      <c r="F243" s="329"/>
+      <c r="G243" s="329"/>
+      <c r="H243" s="329"/>
+      <c r="I243" s="329"/>
+      <c r="J243" s="329"/>
+      <c r="K243" s="329"/>
+      <c r="L243" s="329"/>
+      <c r="M243" s="329"/>
+      <c r="N243" s="329"/>
+      <c r="O243" s="329"/>
+      <c r="P243" s="329"/>
+      <c r="Q243" s="329"/>
+      <c r="R243" s="329"/>
+      <c r="S243" s="329"/>
+      <c r="T243" s="329"/>
+      <c r="U243" s="329"/>
+      <c r="V243" s="329"/>
+      <c r="W243" s="329"/>
+      <c r="X243" s="329"/>
+      <c r="Y243" s="329"/>
+      <c r="Z243" s="329"/>
+      <c r="AA243" s="330"/>
     </row>
     <row r="244" spans="1:27" ht="20" thickTop="1" thickBot="1">
       <c r="A244" s="94" t="s">
@@ -24976,277 +25005,277 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D3:AA52 J65:T96 D56:D96 H55:I96 D54:AA54 J55:X64">
-    <cfRule type="containsErrors" dxfId="182" priority="61">
+    <cfRule type="containsErrors" dxfId="184" priority="61">
       <formula>ISERROR(D3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:W23 P22:Q22 T22 P27:W27 P24:T26 P28:T29 P21:W21 P20:U20 P16:AA17 P15:V15 P19:X19 P18:Z18 P32:T52 P30:P31">
-    <cfRule type="containsErrors" dxfId="181" priority="60">
+    <cfRule type="containsErrors" dxfId="183" priority="60">
       <formula>ISERROR(P15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:T11 P10:U10 P8:Z8 P7:U7">
-    <cfRule type="containsErrors" dxfId="180" priority="59">
+    <cfRule type="containsErrors" dxfId="182" priority="59">
       <formula>ISERROR(P7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:AA6">
-    <cfRule type="containsErrors" dxfId="179" priority="56">
+    <cfRule type="containsErrors" dxfId="181" priority="56">
       <formula>ISERROR(P6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:N9">
-    <cfRule type="containsErrors" dxfId="178" priority="55">
+    <cfRule type="containsErrors" dxfId="180" priority="55">
       <formula>ISERROR(D9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:Z9">
-    <cfRule type="containsErrors" dxfId="177" priority="54">
+    <cfRule type="containsErrors" dxfId="179" priority="54">
       <formula>ISERROR(P9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsErrors" dxfId="176" priority="53">
+    <cfRule type="containsErrors" dxfId="178" priority="53">
       <formula>ISERROR(E41)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="containsErrors" dxfId="175" priority="52">
+    <cfRule type="containsErrors" dxfId="177" priority="52">
       <formula>ISERROR(J33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I41">
-    <cfRule type="containsErrors" dxfId="174" priority="51">
+    <cfRule type="containsErrors" dxfId="176" priority="51">
       <formula>ISERROR(I39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J41">
-    <cfRule type="containsErrors" dxfId="173" priority="50">
+    <cfRule type="containsErrors" dxfId="175" priority="50">
       <formula>ISERROR(J39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:K38 K42:K46">
-    <cfRule type="containsErrors" dxfId="172" priority="49">
+    <cfRule type="containsErrors" dxfId="174" priority="49">
       <formula>ISERROR(K34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="containsErrors" dxfId="171" priority="48">
+    <cfRule type="containsErrors" dxfId="173" priority="48">
       <formula>ISERROR(K33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K41">
-    <cfRule type="containsErrors" dxfId="170" priority="47">
+    <cfRule type="containsErrors" dxfId="172" priority="47">
       <formula>ISERROR(K39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:L38 L42:L46">
-    <cfRule type="containsErrors" dxfId="169" priority="46">
+    <cfRule type="containsErrors" dxfId="171" priority="46">
       <formula>ISERROR(L34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="containsErrors" dxfId="168" priority="45">
+    <cfRule type="containsErrors" dxfId="170" priority="45">
       <formula>ISERROR(L33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L41">
-    <cfRule type="containsErrors" dxfId="167" priority="44">
+    <cfRule type="containsErrors" dxfId="169" priority="44">
       <formula>ISERROR(L39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M38 M42:M46">
-    <cfRule type="containsErrors" dxfId="166" priority="43">
+    <cfRule type="containsErrors" dxfId="168" priority="43">
       <formula>ISERROR(M34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="containsErrors" dxfId="165" priority="42">
+    <cfRule type="containsErrors" dxfId="167" priority="42">
       <formula>ISERROR(M33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:M41">
-    <cfRule type="containsErrors" dxfId="164" priority="41">
+    <cfRule type="containsErrors" dxfId="166" priority="41">
       <formula>ISERROR(M39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N38 N42:N46">
-    <cfRule type="containsErrors" dxfId="163" priority="40">
+    <cfRule type="containsErrors" dxfId="165" priority="40">
       <formula>ISERROR(N34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsErrors" dxfId="162" priority="39">
+    <cfRule type="containsErrors" dxfId="164" priority="39">
       <formula>ISERROR(N33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:N41">
-    <cfRule type="containsErrors" dxfId="161" priority="38">
+    <cfRule type="containsErrors" dxfId="163" priority="38">
       <formula>ISERROR(N39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O38 O42:O46">
-    <cfRule type="containsErrors" dxfId="160" priority="37">
+    <cfRule type="containsErrors" dxfId="162" priority="37">
       <formula>ISERROR(O34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33">
-    <cfRule type="containsErrors" dxfId="159" priority="36">
+    <cfRule type="containsErrors" dxfId="161" priority="36">
       <formula>ISERROR(O33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:O41">
-    <cfRule type="containsErrors" dxfId="158" priority="35">
+    <cfRule type="containsErrors" dxfId="160" priority="35">
       <formula>ISERROR(O39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33:W52">
-    <cfRule type="containsErrors" dxfId="157" priority="34">
+    <cfRule type="containsErrors" dxfId="159" priority="34">
       <formula>ISERROR(W33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:X52">
-    <cfRule type="containsErrors" dxfId="156" priority="33">
+    <cfRule type="containsErrors" dxfId="158" priority="33">
       <formula>ISERROR(X33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:Y52">
-    <cfRule type="containsErrors" dxfId="155" priority="32">
+    <cfRule type="containsErrors" dxfId="157" priority="32">
       <formula>ISERROR(Y33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z52">
-    <cfRule type="containsErrors" dxfId="154" priority="31">
+    <cfRule type="containsErrors" dxfId="156" priority="31">
       <formula>ISERROR(Z33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA33:AA52">
-    <cfRule type="containsErrors" dxfId="153" priority="30">
+    <cfRule type="containsErrors" dxfId="155" priority="30">
       <formula>ISERROR(AA33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsErrors" dxfId="152" priority="28">
+    <cfRule type="containsErrors" dxfId="154" priority="28">
       <formula>ISERROR(D41)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D40 D42:D52 D54 D56:D96">
-    <cfRule type="containsErrors" dxfId="151" priority="29">
+    <cfRule type="containsErrors" dxfId="153" priority="29">
       <formula>ISERROR(D32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30:R31">
-    <cfRule type="containsErrors" dxfId="150" priority="27">
+    <cfRule type="containsErrors" dxfId="152" priority="27">
       <formula>ISERROR(Q30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120">
-    <cfRule type="containsErrors" dxfId="149" priority="26">
+    <cfRule type="containsErrors" dxfId="151" priority="26">
       <formula>ISERROR(J120)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120">
-    <cfRule type="containsErrors" dxfId="148" priority="25">
+    <cfRule type="containsErrors" dxfId="150" priority="25">
       <formula>ISERROR(J120)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="containsErrors" dxfId="147" priority="4">
+    <cfRule type="containsErrors" dxfId="149" priority="4">
       <formula>ISERROR(H131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126">
-    <cfRule type="containsErrors" dxfId="146" priority="3">
+    <cfRule type="containsErrors" dxfId="148" priority="3">
       <formula>ISERROR(K126)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J119">
-    <cfRule type="containsErrors" dxfId="145" priority="22">
+    <cfRule type="containsErrors" dxfId="147" priority="22">
       <formula>ISERROR(J119)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119">
-    <cfRule type="containsErrors" dxfId="144" priority="20">
+    <cfRule type="containsErrors" dxfId="146" priority="20">
       <formula>ISERROR(K119)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K120">
-    <cfRule type="containsErrors" dxfId="143" priority="19">
+    <cfRule type="containsErrors" dxfId="145" priority="19">
       <formula>ISERROR(K120)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="containsErrors" dxfId="142" priority="18">
+    <cfRule type="containsErrors" dxfId="144" priority="18">
       <formula>ISERROR(K121)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="containsErrors" dxfId="141" priority="17">
+    <cfRule type="containsErrors" dxfId="143" priority="17">
       <formula>ISERROR(J121)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="containsErrors" dxfId="140" priority="16">
+    <cfRule type="containsErrors" dxfId="142" priority="16">
       <formula>ISERROR(K124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K125">
-    <cfRule type="containsErrors" dxfId="139" priority="15">
+    <cfRule type="containsErrors" dxfId="141" priority="15">
       <formula>ISERROR(K125)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="containsErrors" dxfId="138" priority="14">
+    <cfRule type="containsErrors" dxfId="140" priority="14">
       <formula>ISERROR(J125)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="containsErrors" dxfId="137" priority="13">
+    <cfRule type="containsErrors" dxfId="139" priority="13">
       <formula>ISERROR(I125)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125">
-    <cfRule type="containsErrors" dxfId="136" priority="12">
+    <cfRule type="containsErrors" dxfId="138" priority="12">
       <formula>ISERROR(H125)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K128">
-    <cfRule type="containsErrors" dxfId="135" priority="11">
+    <cfRule type="containsErrors" dxfId="137" priority="11">
       <formula>ISERROR(K128)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129">
-    <cfRule type="containsErrors" dxfId="134" priority="10">
+    <cfRule type="containsErrors" dxfId="136" priority="10">
       <formula>ISERROR(K129)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129">
-    <cfRule type="containsErrors" dxfId="133" priority="9">
+    <cfRule type="containsErrors" dxfId="135" priority="9">
       <formula>ISERROR(J129)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K130">
-    <cfRule type="containsErrors" dxfId="132" priority="8">
+    <cfRule type="containsErrors" dxfId="134" priority="8">
       <formula>ISERROR(K130)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131">
-    <cfRule type="containsErrors" dxfId="131" priority="7">
+    <cfRule type="containsErrors" dxfId="133" priority="7">
       <formula>ISERROR(K131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131">
-    <cfRule type="containsErrors" dxfId="130" priority="6">
+    <cfRule type="containsErrors" dxfId="132" priority="6">
       <formula>ISERROR(J131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="containsErrors" dxfId="129" priority="5">
+    <cfRule type="containsErrors" dxfId="131" priority="5">
       <formula>ISERROR(I131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:K240 B136:K186">
-    <cfRule type="cellIs" dxfId="128" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25285,8 +25314,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="1">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="1">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25298,35 +25327,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="328" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="327"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
+      <c r="H1" s="329"/>
+      <c r="I1" s="329"/>
+      <c r="J1" s="329"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="330"/>
     </row>
     <row r="2" spans="1:27" ht="17" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:27" ht="17" thickTop="1" thickBot="1">
@@ -25393,35 +25422,35 @@
     </row>
     <row r="10" spans="1:27" ht="17" thickTop="1" thickBot="1"/>
     <row r="11" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A11" s="325" t="s">
+      <c r="A11" s="328" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="326"/>
-      <c r="C11" s="326"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="326"/>
-      <c r="F11" s="326"/>
-      <c r="G11" s="326"/>
-      <c r="H11" s="326"/>
-      <c r="I11" s="326"/>
-      <c r="J11" s="326"/>
-      <c r="K11" s="326"/>
-      <c r="L11" s="326"/>
-      <c r="M11" s="326"/>
-      <c r="N11" s="326"/>
-      <c r="O11" s="326"/>
-      <c r="P11" s="326"/>
-      <c r="Q11" s="326"/>
-      <c r="R11" s="326"/>
-      <c r="S11" s="326"/>
-      <c r="T11" s="326"/>
-      <c r="U11" s="326"/>
-      <c r="V11" s="326"/>
-      <c r="W11" s="326"/>
-      <c r="X11" s="326"/>
-      <c r="Y11" s="326"/>
-      <c r="Z11" s="326"/>
-      <c r="AA11" s="327"/>
+      <c r="B11" s="329"/>
+      <c r="C11" s="329"/>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="329"/>
+      <c r="I11" s="329"/>
+      <c r="J11" s="329"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="329"/>
+      <c r="M11" s="329"/>
+      <c r="N11" s="329"/>
+      <c r="O11" s="329"/>
+      <c r="P11" s="329"/>
+      <c r="Q11" s="329"/>
+      <c r="R11" s="329"/>
+      <c r="S11" s="329"/>
+      <c r="T11" s="329"/>
+      <c r="U11" s="329"/>
+      <c r="V11" s="329"/>
+      <c r="W11" s="329"/>
+      <c r="X11" s="329"/>
+      <c r="Y11" s="329"/>
+      <c r="Z11" s="329"/>
+      <c r="AA11" s="330"/>
     </row>
     <row r="12" spans="1:27" ht="16" thickTop="1"/>
     <row r="13" spans="1:27">
@@ -25538,35 +25567,35 @@
     </row>
     <row r="16" spans="1:27" ht="16" thickBot="1"/>
     <row r="17" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A17" s="325" t="s">
+      <c r="A17" s="328" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="326"/>
-      <c r="C17" s="326"/>
-      <c r="D17" s="326"/>
-      <c r="E17" s="326"/>
-      <c r="F17" s="326"/>
-      <c r="G17" s="326"/>
-      <c r="H17" s="326"/>
-      <c r="I17" s="326"/>
-      <c r="J17" s="326"/>
-      <c r="K17" s="326"/>
-      <c r="L17" s="326"/>
-      <c r="M17" s="326"/>
-      <c r="N17" s="326"/>
-      <c r="O17" s="326"/>
-      <c r="P17" s="326"/>
-      <c r="Q17" s="326"/>
-      <c r="R17" s="326"/>
-      <c r="S17" s="326"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="326"/>
-      <c r="V17" s="326"/>
-      <c r="W17" s="326"/>
-      <c r="X17" s="326"/>
-      <c r="Y17" s="326"/>
-      <c r="Z17" s="326"/>
-      <c r="AA17" s="327"/>
+      <c r="B17" s="329"/>
+      <c r="C17" s="329"/>
+      <c r="D17" s="329"/>
+      <c r="E17" s="329"/>
+      <c r="F17" s="329"/>
+      <c r="G17" s="329"/>
+      <c r="H17" s="329"/>
+      <c r="I17" s="329"/>
+      <c r="J17" s="329"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="329"/>
+      <c r="M17" s="329"/>
+      <c r="N17" s="329"/>
+      <c r="O17" s="329"/>
+      <c r="P17" s="329"/>
+      <c r="Q17" s="329"/>
+      <c r="R17" s="329"/>
+      <c r="S17" s="329"/>
+      <c r="T17" s="329"/>
+      <c r="U17" s="329"/>
+      <c r="V17" s="329"/>
+      <c r="W17" s="329"/>
+      <c r="X17" s="329"/>
+      <c r="Y17" s="329"/>
+      <c r="Z17" s="329"/>
+      <c r="AA17" s="330"/>
     </row>
     <row r="18" spans="1:27" ht="16" thickTop="1">
       <c r="A18" s="11"/>
@@ -25804,11 +25833,11 @@
       </c>
       <c r="D22" s="132" t="str">
         <f>IF(COUNTIF(Skips,CostRemaining[[#This Row],[Cost]])&gt;0,"IGNORE",CostRemaining[Kind]&amp;"-"&amp;CostRemaining[Resource])</f>
-        <v>IGNORE</v>
+        <v>Building-Elixir</v>
       </c>
       <c r="E22" s="54">
         <f ca="1">IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(CostRemaining[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>700000</v>
+        <v>1500000</v>
       </c>
       <c r="F22" s="55">
         <f ca="1">IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:G26)),0)</f>
@@ -25840,7 +25869,7 @@
       </c>
       <c r="M22" s="55">
         <f ca="1">IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:N26)),0)</f>
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="N22" s="55">
         <f ca="1">IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:O26)),0)</f>
@@ -25859,8 +25888,8 @@
         <v>0</v>
       </c>
       <c r="R22" s="55">
-        <f>IF(CostRemaining[[#This Row],[MatchStr]]="IGNORE",0,SUM(CostRemaining[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <f ca="1">IF(CostRemaining[[#This Row],[MatchStr]]="IGNORE",0,SUM(CostRemaining[[#This Row],[1]:[12]]))</f>
+        <v>4500000</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -26781,7 +26810,7 @@
       </c>
       <c r="K35" s="55">
         <f ca="1">IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F39,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G39:L39)),0)</f>
-        <v>8925000</v>
+        <v>6750000</v>
       </c>
       <c r="L35" s="55">
         <f ca="1">IF(VALUE(CostRemaining[#Headers])&lt;='Construction Dashboard'!$F39,IFERROR(VLOOKUP(CostRemaining[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;CostRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G39:M39)),0)</f>
@@ -26809,7 +26838,7 @@
       </c>
       <c r="R35" s="55">
         <f ca="1">IF(CostRemaining[[#This Row],[MatchStr]]="IGNORE",0,SUM(CostRemaining[[#This Row],[1]:[12]]))</f>
-        <v>43725000</v>
+        <v>41550000</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -29223,35 +29252,35 @@
     </row>
     <row r="70" spans="1:27" ht="16" thickBot="1"/>
     <row r="71" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A71" s="325" t="s">
+      <c r="A71" s="328" t="s">
         <v>211</v>
       </c>
-      <c r="B71" s="326"/>
-      <c r="C71" s="326"/>
-      <c r="D71" s="326"/>
-      <c r="E71" s="326"/>
-      <c r="F71" s="326"/>
-      <c r="G71" s="326"/>
-      <c r="H71" s="326"/>
-      <c r="I71" s="326"/>
-      <c r="J71" s="326"/>
-      <c r="K71" s="326"/>
-      <c r="L71" s="326"/>
-      <c r="M71" s="326"/>
-      <c r="N71" s="326"/>
-      <c r="O71" s="326"/>
-      <c r="P71" s="326"/>
-      <c r="Q71" s="326"/>
-      <c r="R71" s="326"/>
-      <c r="S71" s="326"/>
-      <c r="T71" s="326"/>
-      <c r="U71" s="326"/>
-      <c r="V71" s="326"/>
-      <c r="W71" s="326"/>
-      <c r="X71" s="326"/>
-      <c r="Y71" s="326"/>
-      <c r="Z71" s="326"/>
-      <c r="AA71" s="327"/>
+      <c r="B71" s="329"/>
+      <c r="C71" s="329"/>
+      <c r="D71" s="329"/>
+      <c r="E71" s="329"/>
+      <c r="F71" s="329"/>
+      <c r="G71" s="329"/>
+      <c r="H71" s="329"/>
+      <c r="I71" s="329"/>
+      <c r="J71" s="329"/>
+      <c r="K71" s="329"/>
+      <c r="L71" s="329"/>
+      <c r="M71" s="329"/>
+      <c r="N71" s="329"/>
+      <c r="O71" s="329"/>
+      <c r="P71" s="329"/>
+      <c r="Q71" s="329"/>
+      <c r="R71" s="329"/>
+      <c r="S71" s="329"/>
+      <c r="T71" s="329"/>
+      <c r="U71" s="329"/>
+      <c r="V71" s="329"/>
+      <c r="W71" s="329"/>
+      <c r="X71" s="329"/>
+      <c r="Y71" s="329"/>
+      <c r="Z71" s="329"/>
+      <c r="AA71" s="330"/>
     </row>
     <row r="72" spans="1:27" ht="16" thickTop="1">
       <c r="A72" s="11"/>
@@ -29489,11 +29518,11 @@
       </c>
       <c r="D76" s="132" t="str">
         <f>IF(COUNTIF(Skips,TimeRemaining[[#This Row],[Time]])&gt;0,"IGNORE",TimeRemaining[Kind]&amp;"-"&amp;TimeRemaining[Resource])</f>
-        <v>IGNORE</v>
+        <v>Building-Elixir</v>
       </c>
       <c r="E76" s="62">
         <f ca="1">IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(TimeRemaining[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" s="61">
         <f ca="1">IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:G26)),0)</f>
@@ -29525,7 +29554,7 @@
       </c>
       <c r="M76" s="61">
         <f ca="1">IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:N26)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76" s="61">
         <f ca="1">IF(VALUE(TimeRemaining[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(TimeRemaining[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;TimeRemaining[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:O26)),0)</f>
@@ -29544,8 +29573,8 @@
         <v>0</v>
       </c>
       <c r="R76" s="61">
-        <f>IF(TimeRemaining[[#This Row],[MatchStr]]="IGNORE",0,SUM(TimeRemaining[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <f ca="1">IF(TimeRemaining[[#This Row],[MatchStr]]="IGNORE",0,SUM(TimeRemaining[[#This Row],[1]:[12]]))</f>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -32914,7 +32943,7 @@
     <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsErrors" dxfId="47" priority="3">
+    <cfRule type="containsErrors" dxfId="49" priority="3">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ClashOfClans-Calculator.xlsx
+++ b/ClashOfClans-Calculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <workbookProtection workbookPassword="9AF0" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="669" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38380" windowHeight="21080" tabRatio="669"/>
   </bookViews>
   <sheets>
     <sheet name="Construction Dashboard" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="296">
   <si>
     <t>Time</t>
   </si>
@@ -942,9 +942,6 @@
     <t>** Only modify fields of an orange color **</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>W-GHeal</t>
   </si>
   <si>
@@ -967,6 +964,15 @@
   </si>
   <si>
     <t>Army Construction Time</t>
+  </si>
+  <si>
+    <t>Upgrading?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Added flag in army dashboard for barracks that are currently being upgraded and therefore unusable</t>
   </si>
 </sst>
 </file>
@@ -2281,21 +2287,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2345,8 +2336,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1511">
+  <cellStyleXfs count="1527">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3858,8 +3862,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4291,7 +4311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="85" xfId="786" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -4314,7 +4333,7 @@
     <xf numFmtId="38" fontId="7" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -4324,8 +4343,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -4589,7 +4608,7 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="84" xfId="786" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="86" xfId="786" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="85" xfId="786" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4671,8 +4690,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" xfId="786" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="786" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="19" xfId="786" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="786" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="87" xfId="786" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="88" xfId="786" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="89" xfId="786" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="25" xfId="786" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1511">
+  <cellStyles count="1527">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5830,6 +5861,22 @@
     <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1509" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6185,411 +6232,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Upgrade Costs" xfId="447"/>
   </cellStyles>
-  <dxfs count="331">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#\ ??/24"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#\ ??/24"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
+  <dxfs count="374">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -6677,472 +6320,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#\ ??/24"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7696,6 +6873,223 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike/>
+        <u val="double"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7795,6 +7189,34 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
@@ -7805,6 +7227,1301 @@
           <color auto="1"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#\ ??/24"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#\ ??/24"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <protection locked="1"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#\ ??/24"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#\ ??/60"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -8572,80 +9289,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -9004,94 +9647,6 @@
         <scheme val="minor"/>
       </font>
       <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <u val="double"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -9636,202 +10191,202 @@
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="Custom" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="330"/>
-      <tableStyleElement type="headerRow" dxfId="329"/>
-      <tableStyleElement type="totalRow" dxfId="328"/>
-      <tableStyleElement type="firstColumn" dxfId="327"/>
-      <tableStyleElement type="lastColumn" dxfId="326"/>
-      <tableStyleElement type="firstRowStripe" dxfId="325"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="324"/>
+      <tableStyleElement type="wholeTable" dxfId="373"/>
+      <tableStyleElement type="headerRow" dxfId="372"/>
+      <tableStyleElement type="totalRow" dxfId="371"/>
+      <tableStyleElement type="firstColumn" dxfId="370"/>
+      <tableStyleElement type="lastColumn" dxfId="369"/>
+      <tableStyleElement type="firstRowStripe" dxfId="368"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="367"/>
     </tableStyle>
     <tableStyle name="TableStyleDark10 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="323"/>
-      <tableStyleElement type="headerRow" dxfId="322"/>
-      <tableStyleElement type="totalRow" dxfId="321"/>
-      <tableStyleElement type="firstColumn" dxfId="320"/>
-      <tableStyleElement type="lastColumn" dxfId="319"/>
-      <tableStyleElement type="firstRowStripe" dxfId="318"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="317"/>
+      <tableStyleElement type="wholeTable" dxfId="366"/>
+      <tableStyleElement type="headerRow" dxfId="365"/>
+      <tableStyleElement type="totalRow" dxfId="364"/>
+      <tableStyleElement type="firstColumn" dxfId="363"/>
+      <tableStyleElement type="lastColumn" dxfId="362"/>
+      <tableStyleElement type="firstRowStripe" dxfId="361"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="360"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium14 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="316"/>
-      <tableStyleElement type="headerRow" dxfId="315"/>
-      <tableStyleElement type="totalRow" dxfId="314"/>
-      <tableStyleElement type="firstColumn" dxfId="313"/>
-      <tableStyleElement type="lastColumn" dxfId="312"/>
-      <tableStyleElement type="firstRowStripe" dxfId="311"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="310"/>
+      <tableStyleElement type="wholeTable" dxfId="359"/>
+      <tableStyleElement type="headerRow" dxfId="358"/>
+      <tableStyleElement type="totalRow" dxfId="357"/>
+      <tableStyleElement type="firstColumn" dxfId="356"/>
+      <tableStyleElement type="lastColumn" dxfId="355"/>
+      <tableStyleElement type="firstRowStripe" dxfId="354"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="353"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium14 2 2" pivot="0" count="8">
-      <tableStyleElement type="wholeTable" dxfId="309"/>
-      <tableStyleElement type="headerRow" dxfId="308"/>
-      <tableStyleElement type="totalRow" dxfId="307"/>
-      <tableStyleElement type="firstColumn" dxfId="306"/>
-      <tableStyleElement type="lastColumn" dxfId="305"/>
-      <tableStyleElement type="firstRowStripe" dxfId="304"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="303"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="302"/>
+      <tableStyleElement type="wholeTable" dxfId="352"/>
+      <tableStyleElement type="headerRow" dxfId="351"/>
+      <tableStyleElement type="totalRow" dxfId="350"/>
+      <tableStyleElement type="firstColumn" dxfId="349"/>
+      <tableStyleElement type="lastColumn" dxfId="348"/>
+      <tableStyleElement type="firstRowStripe" dxfId="347"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="346"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="345"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium14 2 2 2" pivot="0" count="8">
-      <tableStyleElement type="wholeTable" dxfId="301"/>
-      <tableStyleElement type="headerRow" dxfId="300"/>
-      <tableStyleElement type="totalRow" dxfId="299"/>
-      <tableStyleElement type="firstColumn" dxfId="298"/>
-      <tableStyleElement type="lastColumn" dxfId="297"/>
-      <tableStyleElement type="firstRowStripe" dxfId="296"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="295"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="294"/>
+      <tableStyleElement type="wholeTable" dxfId="344"/>
+      <tableStyleElement type="headerRow" dxfId="343"/>
+      <tableStyleElement type="totalRow" dxfId="342"/>
+      <tableStyleElement type="firstColumn" dxfId="341"/>
+      <tableStyleElement type="lastColumn" dxfId="340"/>
+      <tableStyleElement type="firstRowStripe" dxfId="339"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="338"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="337"/>
     </tableStyle>
     <tableStyle name="UnitSets" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="293"/>
-      <tableStyleElement type="headerRow" dxfId="292"/>
-      <tableStyleElement type="totalRow" dxfId="291"/>
-      <tableStyleElement type="firstColumn" dxfId="290"/>
-      <tableStyleElement type="lastColumn" dxfId="289"/>
-      <tableStyleElement type="firstRowStripe" dxfId="288"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="287"/>
+      <tableStyleElement type="wholeTable" dxfId="336"/>
+      <tableStyleElement type="headerRow" dxfId="335"/>
+      <tableStyleElement type="totalRow" dxfId="334"/>
+      <tableStyleElement type="firstColumn" dxfId="333"/>
+      <tableStyleElement type="lastColumn" dxfId="332"/>
+      <tableStyleElement type="firstRowStripe" dxfId="331"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="330"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ConstructionState" displayName="ConstructionState" ref="A23:S72" totalsRowShown="0" headerRowDxfId="279" dataDxfId="278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ConstructionState" displayName="ConstructionState" ref="A23:S72" totalsRowShown="0" headerRowDxfId="329" dataDxfId="328">
   <tableColumns count="19">
-    <tableColumn id="1" name="Building or Upgrade" dataDxfId="277"/>
-    <tableColumn id="14" name="Kind" dataDxfId="276">
+    <tableColumn id="1" name="Building or Upgrade" dataDxfId="327"/>
+    <tableColumn id="14" name="Kind" dataDxfId="326">
       <calculatedColumnFormula>VLOOKUP(ConstructionState[[#This Row],[Building or Upgrade]],Upgrades[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Resource" dataDxfId="275">
+    <tableColumn id="15" name="Resource" dataDxfId="325">
       <calculatedColumnFormula>VLOOKUP(ConstructionState[Building or Upgrade],Upgrades[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="MatchStr" dataDxfId="274">
+    <tableColumn id="21" name="MatchStr" dataDxfId="324">
       <calculatedColumnFormula>IF(COUNTIF(Skips,ConstructionState[[#This Row],[Building or Upgrade]]),"IGNORE",ConstructionState[Kind]&amp;"-"&amp;ConstructionState[Resource])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Available" dataDxfId="273">
+    <tableColumn id="2" name="Available" dataDxfId="323">
       <calculatedColumnFormula>IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Maximum Level" dataDxfId="272">
+    <tableColumn id="3" name="Maximum Level" dataDxfId="322">
       <calculatedColumnFormula>IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Not Built/Upgraded" dataDxfId="271">
+    <tableColumn id="4" name="Not Built/Upgraded" dataDxfId="321">
       <calculatedColumnFormula>ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="1" dataDxfId="270"/>
-    <tableColumn id="6" name="2" dataDxfId="269"/>
-    <tableColumn id="7" name="3" dataDxfId="268"/>
-    <tableColumn id="8" name="4" dataDxfId="267"/>
-    <tableColumn id="9" name="5" dataDxfId="266"/>
-    <tableColumn id="10" name="6" dataDxfId="265"/>
-    <tableColumn id="11" name="7" dataDxfId="264"/>
-    <tableColumn id="12" name="8" dataDxfId="263"/>
-    <tableColumn id="13" name="9" dataDxfId="262"/>
-    <tableColumn id="16" name="10" dataDxfId="261"/>
-    <tableColumn id="17" name="11" dataDxfId="260"/>
-    <tableColumn id="18" name="12" dataDxfId="259"/>
+    <tableColumn id="5" name="1" dataDxfId="320"/>
+    <tableColumn id="6" name="2" dataDxfId="319"/>
+    <tableColumn id="7" name="3" dataDxfId="318"/>
+    <tableColumn id="8" name="4" dataDxfId="317"/>
+    <tableColumn id="9" name="5" dataDxfId="316"/>
+    <tableColumn id="10" name="6" dataDxfId="315"/>
+    <tableColumn id="11" name="7" dataDxfId="314"/>
+    <tableColumn id="12" name="8" dataDxfId="313"/>
+    <tableColumn id="13" name="9" dataDxfId="312"/>
+    <tableColumn id="16" name="10" dataDxfId="311"/>
+    <tableColumn id="17" name="11" dataDxfId="310"/>
+    <tableColumn id="18" name="12" dataDxfId="309"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HeroUpgrades" displayName="HeroUpgrades" ref="A56:E96" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HeroUpgrades" displayName="HeroUpgrades" ref="A56:E96" totalsRowShown="0" headerRowDxfId="196" dataDxfId="195" tableBorderDxfId="194">
   <autoFilter ref="A56:E96"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Level" dataDxfId="78"/>
-    <tableColumn id="2" name="BK-Cost" dataDxfId="77"/>
-    <tableColumn id="3" name="BK-Time" dataDxfId="76"/>
-    <tableColumn id="4" name="AQ-Cost" dataDxfId="75"/>
-    <tableColumn id="5" name="AQ-Time" dataDxfId="74"/>
+    <tableColumn id="1" name="Level" dataDxfId="193"/>
+    <tableColumn id="2" name="BK-Cost" dataDxfId="192"/>
+    <tableColumn id="3" name="BK-Time" dataDxfId="191"/>
+    <tableColumn id="4" name="AQ-Cost" dataDxfId="190"/>
+    <tableColumn id="5" name="AQ-Time" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Cap_AC" displayName="Cap_AC" ref="A101:B109" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Cap_AC" displayName="Cap_AC" ref="A101:B109" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
   <tableColumns count="2">
-    <tableColumn id="1" name="Level" dataDxfId="71"/>
-    <tableColumn id="2" name="Capacity" dataDxfId="70"/>
+    <tableColumn id="1" name="Level" dataDxfId="186"/>
+    <tableColumn id="2" name="Capacity" dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Cap_Bar" displayName="Cap_Bar" ref="D101:E111" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Cap_Bar" displayName="Cap_Bar" ref="D101:E111" totalsRowShown="0" headerRowDxfId="184" dataDxfId="183">
   <tableColumns count="2">
-    <tableColumn id="1" name="Level" dataDxfId="67"/>
-    <tableColumn id="2" name="Capacity" dataDxfId="66"/>
+    <tableColumn id="1" name="Level" dataDxfId="182"/>
+    <tableColumn id="2" name="Capacity" dataDxfId="181"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Cap_DB" displayName="Cap_DB" ref="G101:H106" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Cap_DB" displayName="Cap_DB" ref="G101:H106" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
   <tableColumns count="2">
-    <tableColumn id="1" name="Level" dataDxfId="63"/>
-    <tableColumn id="2" name="Capacity" dataDxfId="62"/>
+    <tableColumn id="1" name="Level" dataDxfId="178"/>
+    <tableColumn id="2" name="Capacity" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Remaining_Cost" displayName="Remaining_Cost" ref="A19:R68" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Remaining_Cost" displayName="Remaining_Cost" ref="A19:R68" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
   <autoFilter ref="A19:R68"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Cost" dataDxfId="51"/>
-    <tableColumn id="15" name="Kind" dataDxfId="50">
+    <tableColumn id="1" name="Cost" dataDxfId="174"/>
+    <tableColumn id="15" name="Kind" dataDxfId="173">
       <calculatedColumnFormula>VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="49">
+    <tableColumn id="2" name="Resource" dataDxfId="172">
       <calculatedColumnFormula>VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MatchStr" dataDxfId="48">
+    <tableColumn id="18" name="MatchStr" dataDxfId="171">
       <calculatedColumnFormula>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Cost]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Next" dataDxfId="47">
+    <tableColumn id="14" name="Next" dataDxfId="170">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="46">
+    <tableColumn id="3" name="1" dataDxfId="169">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:G24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="2" dataDxfId="45">
+    <tableColumn id="4" name="2" dataDxfId="168">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:H24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="3" dataDxfId="44">
+    <tableColumn id="5" name="3" dataDxfId="167">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:I24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="4" dataDxfId="43">
+    <tableColumn id="6" name="4" dataDxfId="166">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:J24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="5" dataDxfId="42">
+    <tableColumn id="7" name="5" dataDxfId="165">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:K24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="6" dataDxfId="41">
+    <tableColumn id="8" name="6" dataDxfId="164">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:L24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="7" dataDxfId="40">
+    <tableColumn id="9" name="7" dataDxfId="163">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:M24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="8" dataDxfId="39">
+    <tableColumn id="10" name="8" dataDxfId="162">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:N24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="9" dataDxfId="38">
+    <tableColumn id="11" name="9" dataDxfId="161">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:O24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="10" dataDxfId="37">
+    <tableColumn id="12" name="10" dataDxfId="160">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:P24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="11" dataDxfId="36">
+    <tableColumn id="13" name="11" dataDxfId="159">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:Q24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="12" dataDxfId="35">
+    <tableColumn id="16" name="12" dataDxfId="158">
       <calculatedColumnFormula>IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Cost]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:R24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sum" dataDxfId="34">
+    <tableColumn id="17" name="Sum" dataDxfId="157">
       <calculatedColumnFormula>IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9840,59 +10395,59 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Remaining_Time" displayName="Remaining_Time" ref="A73:R122" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Remaining_Time" displayName="Remaining_Time" ref="A73:R122" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="A73:R122"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Time" dataDxfId="31"/>
-    <tableColumn id="15" name="Kind" dataDxfId="30">
+    <tableColumn id="1" name="Time" dataDxfId="154"/>
+    <tableColumn id="15" name="Kind" dataDxfId="153">
       <calculatedColumnFormula>VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("Kind",Upgrades[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="29">
+    <tableColumn id="2" name="Resource" dataDxfId="152">
       <calculatedColumnFormula>VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("Resource",Upgrades[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MatchStr" dataDxfId="28">
+    <tableColumn id="18" name="MatchStr" dataDxfId="151">
       <calculatedColumnFormula>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Time]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Next" dataDxfId="27">
+    <tableColumn id="14" name="Next" dataDxfId="150">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="26">
+    <tableColumn id="3" name="1" dataDxfId="149">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:G24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="2" dataDxfId="25">
+    <tableColumn id="4" name="2" dataDxfId="148">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:H24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="3" dataDxfId="24">
+    <tableColumn id="5" name="3" dataDxfId="147">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:I24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="4" dataDxfId="23">
+    <tableColumn id="6" name="4" dataDxfId="146">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:J24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="5" dataDxfId="22">
+    <tableColumn id="7" name="5" dataDxfId="145">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:K24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="6" dataDxfId="21">
+    <tableColumn id="8" name="6" dataDxfId="144">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:L24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="7" dataDxfId="20">
+    <tableColumn id="9" name="7" dataDxfId="143">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:M24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="8" dataDxfId="19">
+    <tableColumn id="10" name="8" dataDxfId="142">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:N24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="9" dataDxfId="18">
+    <tableColumn id="11" name="9" dataDxfId="141">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:O24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="10" dataDxfId="17">
+    <tableColumn id="12" name="10" dataDxfId="140">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:P24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="11" dataDxfId="16">
+    <tableColumn id="13" name="11" dataDxfId="139">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:Q24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="12" dataDxfId="15">
+    <tableColumn id="16" name="12" dataDxfId="138">
       <calculatedColumnFormula>IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Time]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:R24)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sum" dataDxfId="14">
+    <tableColumn id="17" name="Sum" dataDxfId="137">
       <calculatedColumnFormula>IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9908,25 +10463,25 @@
     <tableColumn id="2" name="Level">
       <calculatedColumnFormula>AQLevel</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="MaxLevel" dataDxfId="13">
+    <tableColumn id="3" name="MaxLevel" dataDxfId="136">
       <calculatedColumnFormula>VLOOKUP(HeroNextUpgrade[[#This Row],[Hero]],MaxLevel[],MATCH("L"&amp;THLevel,MaxLevel[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Upgradeable" dataDxfId="12">
+    <tableColumn id="6" name="Upgradeable" dataDxfId="135">
       <calculatedColumnFormula>AND(HeroNextUpgrade[[#This Row],[Level]]&lt;HeroNextUpgrade[[#This Row],[MaxLevel]],COUNTIF(Skips,HeroNextUpgrade[[#This Row],[Hero]])=0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Next Level" dataDxfId="11">
+    <tableColumn id="9" name="Next Level" dataDxfId="134">
       <calculatedColumnFormula>HeroNextUpgrade[[#This Row],[Level]]+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Next Cost" dataDxfId="10">
+    <tableColumn id="4" name="Next Cost" dataDxfId="133">
       <calculatedColumnFormula>VLOOKUP(HeroNextUpgrade[[#This Row],[Next Level]],HeroUpgrades[],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Cost",HeroUpgrades[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Next Time" dataDxfId="9">
+    <tableColumn id="5" name="Next Time" dataDxfId="132">
       <calculatedColumnFormula>VLOOKUP(HeroNextUpgrade[[#This Row],[Next Level]],HeroUpgrades[],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Time",HeroUpgrades[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Cost to Max" dataDxfId="8">
+    <tableColumn id="12" name="Cost to Max" dataDxfId="131">
       <calculatedColumnFormula>IF(HeroNextUpgrade[[#This Row],[Upgradeable]],SUM(OFFSET(HeroUpgrades[],HeroNextUpgrade[[#This Row],[Level]],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Cost",HeroUpgrades[#Headers],0)-1,HeroNextUpgrade[[#This Row],[MaxLevel]]-HeroNextUpgrade[[#This Row],[Level]],1)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Time to Max" dataDxfId="7">
+    <tableColumn id="13" name="Time to Max" dataDxfId="130">
       <calculatedColumnFormula>IF(HeroNextUpgrade[[#This Row],[Upgradeable]],SUM(OFFSET(HeroUpgrades[],HeroNextUpgrade[[#This Row],[Level]],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Time",HeroUpgrades[#Headers],0)-1,HeroNextUpgrade[[#This Row],[MaxLevel]]-HeroNextUpgrade[[#This Row],[Level]],1)),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9935,40 +10490,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ArmyState" displayName="ArmyState" ref="A8:K28" headerRowDxfId="252" dataDxfId="251" totalsRowDxfId="249" tableBorderDxfId="250">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ArmyState" displayName="ArmyState" ref="A8:K28" headerRowDxfId="308" dataDxfId="307" totalsRowDxfId="305" tableBorderDxfId="306">
   <sortState ref="A9:L28">
     <sortCondition ref="B14:B34"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="4" name="Count" dataDxfId="246" totalsRowDxfId="245">
+    <tableColumn id="1" name="Name" totalsRowLabel="Total" dataDxfId="304" totalsRowDxfId="303"/>
+    <tableColumn id="4" name="Count" dataDxfId="302" totalsRowDxfId="301">
       <calculatedColumnFormula>INDEX(AttackSets[],MATCH(ArmyState[[#This Row],[Name]],AttackSets[Unit Set],0),MATCH(AttackSet,AttackSets[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Type" dataDxfId="244" totalsRowDxfId="243">
+    <tableColumn id="12" name="Type" dataDxfId="300" totalsRowDxfId="299">
       <calculatedColumnFormula>INDEX(UnitCosts[Type],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Level" dataDxfId="242" totalsRowDxfId="241">
+    <tableColumn id="2" name="Level" dataDxfId="298" totalsRowDxfId="297">
       <calculatedColumnFormula>IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="240" totalsRowDxfId="239">
+    <tableColumn id="3" name="Resource" dataDxfId="296" totalsRowDxfId="295">
       <calculatedColumnFormula>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Cost" dataDxfId="238" totalsRowDxfId="237">
+    <tableColumn id="9" name="Cost" dataDxfId="294" totalsRowDxfId="293">
       <calculatedColumnFormula>VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Time" dataDxfId="236" totalsRowDxfId="235">
+    <tableColumn id="7" name="Time" dataDxfId="292" totalsRowDxfId="291">
       <calculatedColumnFormula>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Space" dataDxfId="234" totalsRowDxfId="233">
+    <tableColumn id="8" name="Space" dataDxfId="290" totalsRowDxfId="289">
       <calculatedColumnFormula>INDEX(UnitCosts[Space],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Cost" dataDxfId="232" totalsRowDxfId="231">
+    <tableColumn id="6" name="Total Cost" dataDxfId="288" totalsRowDxfId="287">
       <calculatedColumnFormula>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Time" dataDxfId="230" totalsRowDxfId="229">
+    <tableColumn id="10" name="Total Time" dataDxfId="286" totalsRowDxfId="285">
       <calculatedColumnFormula>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Total Space" dataDxfId="228" totalsRowDxfId="227">
+    <tableColumn id="11" name="Total Space" dataDxfId="284" totalsRowDxfId="283">
       <calculatedColumnFormula>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Space]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9977,32 +10532,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="AttackSets" displayName="AttackSets" ref="M8:W28" headerRowDxfId="226" totalsRowDxfId="224" headerRowBorderDxfId="225">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="AttackSets" displayName="AttackSets" ref="M8:W28" headerRowDxfId="282" totalsRowDxfId="280" headerRowBorderDxfId="281">
   <tableColumns count="11">
-    <tableColumn id="1" name="Unit Set" totalsRowLabel="Total" dataDxfId="223"/>
-    <tableColumn id="2" name="Custom" dataDxfId="222"/>
-    <tableColumn id="3" name="F-Cheap" dataDxfId="221"/>
-    <tableColumn id="4" name="W-GHeal" dataDxfId="220"/>
-    <tableColumn id="6" name="W-NoHeal" dataDxfId="219"/>
-    <tableColumn id="7" name="F-GHeal" dataDxfId="218"/>
-    <tableColumn id="8" name=" " dataDxfId="217"/>
-    <tableColumn id="9" name="RageT1" dataDxfId="216"/>
-    <tableColumn id="10" name="Cheapo" dataDxfId="215"/>
-    <tableColumn id="11" name="  " dataDxfId="214"/>
-    <tableColumn id="12" name="Test" dataDxfId="213"/>
+    <tableColumn id="1" name="Unit Set" totalsRowLabel="Total" dataDxfId="279"/>
+    <tableColumn id="2" name="Custom" dataDxfId="278"/>
+    <tableColumn id="3" name="F-Cheap" dataDxfId="277"/>
+    <tableColumn id="4" name="W-GHeal" dataDxfId="276"/>
+    <tableColumn id="6" name="W-NoHeal" dataDxfId="275"/>
+    <tableColumn id="7" name="F-GHeal" dataDxfId="274"/>
+    <tableColumn id="8" name=" " dataDxfId="273"/>
+    <tableColumn id="9" name="RageT1" dataDxfId="272"/>
+    <tableColumn id="10" name="Cheapo" dataDxfId="271"/>
+    <tableColumn id="11" name="   " dataDxfId="270"/>
+    <tableColumn id="12" name="Test" dataDxfId="269"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14 2 2 2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="BO_Barracks" displayName="BO_Barracks" ref="Y8:AE19" totalsRowCount="1" headerRowDxfId="212" dataDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="BO_Barracks" displayName="BO_Barracks" ref="Y8:AE19" totalsRowCount="1" headerRowDxfId="268" dataDxfId="267">
   <tableColumns count="7">
-    <tableColumn id="1" name="Unit" totalsRowLabel="Time" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Already Built" totalsRowFunction="custom" totalsRowDxfId="5" dataCellStyle="Input">
+    <tableColumn id="1" name="Unit" totalsRowLabel="Time" totalsRowDxfId="99"/>
+    <tableColumn id="6" name="Already Built" totalsRowFunction="custom" totalsRowDxfId="98" dataCellStyle="Input">
       <totalsRowFormula>SUMPRODUCT(BO_Barracks[Already Built],$G9:$G18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Barracks1" totalsRowFunction="custom" totalsRowDxfId="4">
+    <tableColumn id="2" name="Barracks1" totalsRowFunction="custom" totalsRowDxfId="97">
       <calculatedColumnFormula>MAX(0,
 MIN($B9-IF(NOT(ISNUMBER(Y9)),0,SUM(Y9:$AA9)),
   FLOOR(
@@ -10015,18 +10570,18 @@
     1)))</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(BO_Barracks[Barracks1],$G9:$G18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Barracks2" totalsRowFunction="custom" totalsRowDxfId="3">
+    <tableColumn id="3" name="Barracks2" totalsRowFunction="custom" totalsRowDxfId="96">
       <totalsRowFormula>SUMPRODUCT(BO_Barracks[Barracks2],$G9:$G18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Barracks3" totalsRowFunction="custom" totalsRowDxfId="2">
+    <tableColumn id="4" name="Barracks3" totalsRowFunction="custom" totalsRowDxfId="95">
       <totalsRowFormula>SUMPRODUCT(BO_Barracks[Barracks3],$G9:$G18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Barracks4" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="5" name="Barracks4" totalsRowFunction="custom" totalsRowDxfId="94">
       <totalsRowFormula>SUMPRODUCT(BO_Barracks[Barracks4],$G9:$G18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Left" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="7" name="Left" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="93">
       <calculatedColumnFormula>ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</calculatedColumnFormula>
-      <totalsRowFormula>COUNTIF(BO_Barracks[Left],"&lt;&gt;0")</totalsRowFormula>
+      <totalsRowFormula>SUMPRODUCT(BO_Barracks[Left],$G9:$G18)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10034,13 +10589,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="BO_DarkBar" displayName="BO_DarkBar" ref="Y24:AC30" totalsRowCount="1" headerRowDxfId="210" dataDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="BO_DarkBar" displayName="BO_DarkBar" ref="Y25:AC31" totalsRowCount="1" headerRowDxfId="266" dataDxfId="265">
   <tableColumns count="5">
-    <tableColumn id="1" name="Unit" totalsRowLabel="Total" totalsRowDxfId="208"/>
-    <tableColumn id="4" name="Already Built" totalsRowFunction="custom" dataCellStyle="Input">
+    <tableColumn id="1" name="Unit" totalsRowLabel="Total" totalsRowDxfId="85"/>
+    <tableColumn id="4" name="Already Built" totalsRowFunction="custom" totalsRowDxfId="84" dataCellStyle="Input">
       <totalsRowFormula>SUMPRODUCT(BO_DarkBar[Already Built],$G24:$G28)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="DB1" totalsRowFunction="custom" totalsRowDxfId="207">
+    <tableColumn id="2" name="DB1" totalsRowFunction="custom" totalsRowDxfId="83">
       <calculatedColumnFormula>MAX(0,
 MIN($B9-IF(NOT(ISNUMBER(Y9)),0,SUM(Y9:$AA9)),
   FLOOR(
@@ -10053,10 +10608,10 @@
     1)))</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(BO_DarkBar[DB1],$G24:$G28)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="DB2" totalsRowFunction="custom" totalsRowDxfId="206">
+    <tableColumn id="3" name="DB2" totalsRowFunction="custom" totalsRowDxfId="82">
       <totalsRowFormula>SUMPRODUCT(BO_DarkBar[DB2],$G24:$G28)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Left" totalsRowFunction="custom" totalsRowDxfId="205">
+    <tableColumn id="5" name="Left" totalsRowFunction="custom" totalsRowDxfId="81">
       <calculatedColumnFormula>B24-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</calculatedColumnFormula>
       <totalsRowFormula>COUNTIF(BO_DarkBar[Left],"&lt;&gt;0")</totalsRowFormula>
     </tableColumn>
@@ -10066,94 +10621,94 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Upgrades" displayName="Upgrades" ref="A2:AA51" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Upgrades" displayName="Upgrades" ref="A2:AA51" totalsRowShown="0" headerRowDxfId="264" dataDxfId="263">
   <tableColumns count="27">
-    <tableColumn id="1" name="Building" dataDxfId="147"/>
-    <tableColumn id="3" name="Kind" dataDxfId="146"/>
-    <tableColumn id="2" name="Resource" dataDxfId="145"/>
-    <tableColumn id="5" name="C1" dataDxfId="144"/>
-    <tableColumn id="6" name="C2" dataDxfId="143"/>
-    <tableColumn id="7" name="C3" dataDxfId="142"/>
-    <tableColumn id="8" name="C4" dataDxfId="141"/>
-    <tableColumn id="9" name="C5" dataDxfId="140"/>
-    <tableColumn id="10" name="C6" dataDxfId="139"/>
-    <tableColumn id="11" name="C7" dataDxfId="138"/>
-    <tableColumn id="12" name="C8" dataDxfId="137"/>
-    <tableColumn id="13" name="C9" dataDxfId="136"/>
-    <tableColumn id="14" name="C10" dataDxfId="135"/>
-    <tableColumn id="15" name="C11" dataDxfId="134"/>
-    <tableColumn id="16" name="C12" dataDxfId="133"/>
-    <tableColumn id="17" name="T1" dataDxfId="132" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="18" name="T2" dataDxfId="131" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="19" name="T3" dataDxfId="130" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="20" name="T4" dataDxfId="129" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="21" name="T5" dataDxfId="128" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="22" name="T6" dataDxfId="127" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="23" name="T7" dataDxfId="126" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="24" name="T8" dataDxfId="125" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="25" name="T9" dataDxfId="124" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="26" name="T10" dataDxfId="123" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="27" name="T11" dataDxfId="122" dataCellStyle="Normal_Upgrade Costs"/>
-    <tableColumn id="28" name="T12" dataDxfId="121" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="1" name="Building" dataDxfId="262"/>
+    <tableColumn id="3" name="Kind" dataDxfId="261"/>
+    <tableColumn id="2" name="Resource" dataDxfId="260"/>
+    <tableColumn id="5" name="C1" dataDxfId="259"/>
+    <tableColumn id="6" name="C2" dataDxfId="258"/>
+    <tableColumn id="7" name="C3" dataDxfId="257"/>
+    <tableColumn id="8" name="C4" dataDxfId="256"/>
+    <tableColumn id="9" name="C5" dataDxfId="255"/>
+    <tableColumn id="10" name="C6" dataDxfId="254"/>
+    <tableColumn id="11" name="C7" dataDxfId="253"/>
+    <tableColumn id="12" name="C8" dataDxfId="252"/>
+    <tableColumn id="13" name="C9" dataDxfId="251"/>
+    <tableColumn id="14" name="C10" dataDxfId="250"/>
+    <tableColumn id="15" name="C11" dataDxfId="249"/>
+    <tableColumn id="16" name="C12" dataDxfId="248"/>
+    <tableColumn id="17" name="T1" dataDxfId="247" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="18" name="T2" dataDxfId="246" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="19" name="T3" dataDxfId="245" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="20" name="T4" dataDxfId="244" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="21" name="T5" dataDxfId="243" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="22" name="T6" dataDxfId="242" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="23" name="T7" dataDxfId="241" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="24" name="T8" dataDxfId="240" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="25" name="T9" dataDxfId="239" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="26" name="T10" dataDxfId="238" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="27" name="T11" dataDxfId="237" dataCellStyle="Normal_Upgrade Costs"/>
+    <tableColumn id="28" name="T12" dataDxfId="236" dataCellStyle="Normal_Upgrade Costs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="UnitCosts" displayName="UnitCosts" ref="A114:K134" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="UnitCosts" displayName="UnitCosts" ref="A114:K134" totalsRowShown="0" headerRowDxfId="235" dataDxfId="234">
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" dataDxfId="118"/>
-    <tableColumn id="2" name="Type" dataDxfId="117"/>
-    <tableColumn id="3" name="Resource" dataDxfId="116"/>
-    <tableColumn id="16" name="Train Time" dataDxfId="115"/>
-    <tableColumn id="15" name="Space" dataDxfId="114"/>
-    <tableColumn id="4" name="1" dataDxfId="113"/>
-    <tableColumn id="5" name="2" dataDxfId="112"/>
-    <tableColumn id="6" name="3" dataDxfId="111"/>
-    <tableColumn id="7" name="4" dataDxfId="110"/>
-    <tableColumn id="8" name="5" dataDxfId="109"/>
-    <tableColumn id="9" name="6" dataDxfId="108"/>
+    <tableColumn id="1" name="Name" dataDxfId="233"/>
+    <tableColumn id="2" name="Type" dataDxfId="232"/>
+    <tableColumn id="3" name="Resource" dataDxfId="231"/>
+    <tableColumn id="16" name="Train Time" dataDxfId="230"/>
+    <tableColumn id="15" name="Space" dataDxfId="229"/>
+    <tableColumn id="4" name="1" dataDxfId="228"/>
+    <tableColumn id="5" name="2" dataDxfId="227"/>
+    <tableColumn id="6" name="3" dataDxfId="226"/>
+    <tableColumn id="7" name="4" dataDxfId="225"/>
+    <tableColumn id="8" name="5" dataDxfId="224"/>
+    <tableColumn id="9" name="6" dataDxfId="223"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QuantAvail" displayName="QuantAvail" ref="A138:K189" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QuantAvail" displayName="QuantAvail" ref="A138:K189" totalsRowShown="0" headerRowDxfId="222" dataDxfId="221">
   <autoFilter ref="A138:K189"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Quantity Available" dataDxfId="105"/>
-    <tableColumn id="2" name="L1" dataDxfId="104"/>
-    <tableColumn id="3" name="L2" dataDxfId="103"/>
-    <tableColumn id="4" name="L3" dataDxfId="102"/>
-    <tableColumn id="5" name="L4" dataDxfId="101"/>
-    <tableColumn id="6" name="L5" dataDxfId="100"/>
-    <tableColumn id="7" name="L6" dataDxfId="99"/>
-    <tableColumn id="8" name="L7" dataDxfId="98"/>
-    <tableColumn id="9" name="L8" dataDxfId="97"/>
-    <tableColumn id="10" name="L9" dataDxfId="96"/>
-    <tableColumn id="11" name="L10" dataDxfId="95"/>
+    <tableColumn id="1" name="Quantity Available" dataDxfId="220"/>
+    <tableColumn id="2" name="L1" dataDxfId="219"/>
+    <tableColumn id="3" name="L2" dataDxfId="218"/>
+    <tableColumn id="4" name="L3" dataDxfId="217"/>
+    <tableColumn id="5" name="L4" dataDxfId="216"/>
+    <tableColumn id="6" name="L5" dataDxfId="215"/>
+    <tableColumn id="7" name="L6" dataDxfId="214"/>
+    <tableColumn id="8" name="L7" dataDxfId="213"/>
+    <tableColumn id="9" name="L8" dataDxfId="212"/>
+    <tableColumn id="10" name="L9" dataDxfId="211"/>
+    <tableColumn id="11" name="L10" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MaxLevel" displayName="MaxLevel" ref="A192:K243" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MaxLevel" displayName="MaxLevel" ref="A192:K243" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
   <autoFilter ref="A192:K243"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Max Level" dataDxfId="92"/>
-    <tableColumn id="2" name="L1" dataDxfId="91"/>
-    <tableColumn id="3" name="L2" dataDxfId="90"/>
-    <tableColumn id="4" name="L3" dataDxfId="89"/>
-    <tableColumn id="5" name="L4" dataDxfId="88"/>
-    <tableColumn id="6" name="L5" dataDxfId="87"/>
-    <tableColumn id="7" name="L6" dataDxfId="86"/>
-    <tableColumn id="8" name="L7" dataDxfId="85"/>
-    <tableColumn id="9" name="L8" dataDxfId="84"/>
-    <tableColumn id="10" name="L9" dataDxfId="83"/>
-    <tableColumn id="11" name="L10" dataDxfId="82"/>
+    <tableColumn id="1" name="Max Level" dataDxfId="207"/>
+    <tableColumn id="2" name="L1" dataDxfId="206"/>
+    <tableColumn id="3" name="L2" dataDxfId="205"/>
+    <tableColumn id="4" name="L3" dataDxfId="204"/>
+    <tableColumn id="5" name="L4" dataDxfId="203"/>
+    <tableColumn id="6" name="L5" dataDxfId="202"/>
+    <tableColumn id="7" name="L6" dataDxfId="201"/>
+    <tableColumn id="8" name="L7" dataDxfId="200"/>
+    <tableColumn id="9" name="L8" dataDxfId="199"/>
+    <tableColumn id="10" name="L9" dataDxfId="198"/>
+    <tableColumn id="11" name="L10" dataDxfId="197"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10486,8 +11041,8 @@
   </sheetPr>
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10502,48 +11057,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16" thickTop="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="267" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="272"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="271"/>
     </row>
     <row r="2" spans="1:19" ht="16" thickBot="1">
-      <c r="A2" s="273"/>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="277"/>
+      <c r="A2" s="272"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="276"/>
     </row>
     <row r="3" spans="1:19" ht="17" thickTop="1" thickBot="1">
       <c r="A3" s="112"/>
@@ -10566,40 +11121,40 @@
       <c r="S3" s="112"/>
     </row>
     <row r="4" spans="1:19" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="268" t="s">
+      <c r="A4" s="267" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="281"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="280"/>
       <c r="H4" s="112"/>
-      <c r="I4" s="257" t="s">
+      <c r="I4" s="256" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="248"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="296"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="295"/>
       <c r="O4" s="112"/>
-      <c r="P4" s="286" t="s">
+      <c r="P4" s="285" t="s">
         <v>212</v>
       </c>
-      <c r="Q4" s="287"/>
-      <c r="R4" s="287"/>
-      <c r="S4" s="288"/>
+      <c r="Q4" s="286"/>
+      <c r="R4" s="286"/>
+      <c r="S4" s="287"/>
     </row>
     <row r="5" spans="1:19" ht="19" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="282"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
+      <c r="A5" s="281"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="112"/>
       <c r="I5" s="12" t="s">
         <v>167</v>
@@ -10634,15 +11189,15 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="19" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="258" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="260"/>
       <c r="H6" s="112"/>
       <c r="I6" s="181" t="s">
         <v>14</v>
@@ -10685,13 +11240,13 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19" customHeight="1" thickTop="1">
-      <c r="A7" s="262"/>
-      <c r="B7" s="263"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="264"/>
+      <c r="A7" s="261"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="263"/>
       <c r="H7" s="112"/>
       <c r="I7" s="181" t="s">
         <v>23</v>
@@ -10726,13 +11281,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="19" customHeight="1" thickBot="1">
-      <c r="A8" s="262"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="A8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="263"/>
       <c r="H8" s="112"/>
       <c r="I8" s="181" t="s">
         <v>71</v>
@@ -10772,13 +11327,13 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="20" thickTop="1" thickBot="1">
-      <c r="A9" s="262"/>
-      <c r="B9" s="263"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="A9" s="261"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="263"/>
       <c r="H9" s="112"/>
       <c r="I9" s="24" t="s">
         <v>108</v>
@@ -10804,13 +11359,13 @@
       <c r="S9" s="112"/>
     </row>
     <row r="10" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A10" s="262"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="A10" s="261"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
       <c r="H10" s="112"/>
       <c r="I10" s="112"/>
       <c r="J10" s="112"/>
@@ -10825,29 +11380,29 @@
       <c r="S10" s="112"/>
     </row>
     <row r="11" spans="1:19" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="265"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="267"/>
+      <c r="A11" s="264"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="266"/>
       <c r="H11" s="112"/>
-      <c r="I11" s="278" t="s">
+      <c r="I11" s="277" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="279"/>
-      <c r="K11" s="249"/>
-      <c r="L11" s="249"/>
-      <c r="M11" s="249"/>
-      <c r="N11" s="280"/>
+      <c r="J11" s="278"/>
+      <c r="K11" s="248"/>
+      <c r="L11" s="248"/>
+      <c r="M11" s="248"/>
+      <c r="N11" s="279"/>
       <c r="O11" s="112"/>
-      <c r="P11" s="286" t="s">
+      <c r="P11" s="285" t="s">
         <v>213</v>
       </c>
-      <c r="Q11" s="287"/>
-      <c r="R11" s="287"/>
-      <c r="S11" s="288"/>
+      <c r="Q11" s="286"/>
+      <c r="R11" s="286"/>
+      <c r="S11" s="287"/>
     </row>
     <row r="12" spans="1:19" ht="20" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="112"/>
@@ -10857,18 +11412,18 @@
       <c r="F12" s="113"/>
       <c r="G12" s="112"/>
       <c r="H12" s="112"/>
-      <c r="I12" s="303" t="s">
+      <c r="I12" s="302" t="s">
         <v>239</v>
       </c>
-      <c r="J12" s="304"/>
+      <c r="J12" s="303"/>
       <c r="K12" s="163">
         <f t="array" ref="K12">SUM(IF(ConstructionState[Kind]="Building",ConstructionState[[1]:[12]]))</f>
         <v>64</v>
       </c>
-      <c r="L12" s="303" t="s">
+      <c r="L12" s="302" t="s">
         <v>236</v>
       </c>
-      <c r="M12" s="305"/>
+      <c r="M12" s="304"/>
       <c r="N12" s="163">
         <f t="array" aca="1" ref="N12" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Building",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Building",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
         <v>4</v>
@@ -10889,27 +11444,27 @@
     </row>
     <row r="13" spans="1:19" ht="19" customHeight="1" thickTop="1">
       <c r="A13" s="112"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="267" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="281"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="280"/>
       <c r="G13" s="112"/>
       <c r="H13" s="112"/>
-      <c r="I13" s="308" t="s">
+      <c r="I13" s="307" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="309"/>
+      <c r="J13" s="308"/>
       <c r="K13" s="166">
         <f t="array" ref="K13">SUM(H27:O27*TRANSPOSE(Cap_AC[Capacity]))</f>
         <v>200</v>
       </c>
-      <c r="L13" s="308" t="s">
+      <c r="L13" s="307" t="s">
         <v>238</v>
       </c>
-      <c r="M13" s="309"/>
+      <c r="M13" s="308"/>
       <c r="N13" s="164">
         <f t="array" aca="1" ref="N13" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Wall",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Wall",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
         <v>123</v>
@@ -10933,25 +11488,25 @@
     </row>
     <row r="14" spans="1:19" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="112"/>
-      <c r="B14" s="273"/>
-      <c r="C14" s="274"/>
-      <c r="D14" s="274"/>
-      <c r="E14" s="274"/>
-      <c r="F14" s="285"/>
+      <c r="B14" s="272"/>
+      <c r="C14" s="273"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="284"/>
       <c r="G14" s="112"/>
       <c r="H14" s="112"/>
-      <c r="I14" s="306" t="s">
+      <c r="I14" s="305" t="s">
         <v>240</v>
       </c>
-      <c r="J14" s="307"/>
+      <c r="J14" s="306"/>
       <c r="K14" s="10">
         <f ca="1">K9/J9</f>
         <v>0.16917293233082706</v>
       </c>
-      <c r="L14" s="310" t="s">
+      <c r="L14" s="309" t="s">
         <v>237</v>
       </c>
-      <c r="M14" s="311"/>
+      <c r="M14" s="310"/>
       <c r="N14" s="165">
         <f t="array" aca="1" ref="N14" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Upgrade",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Upgrade",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
         <v>2</v>
@@ -10978,12 +11533,12 @@
       <c r="B15" s="133">
         <v>2</v>
       </c>
-      <c r="C15" s="297" t="s">
+      <c r="C15" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="299"/>
+      <c r="D15" s="297"/>
+      <c r="E15" s="297"/>
+      <c r="F15" s="298"/>
       <c r="G15" s="112"/>
       <c r="H15" s="112"/>
       <c r="I15" s="112"/>
@@ -11003,87 +11558,87 @@
       <c r="B16" s="29">
         <v>0</v>
       </c>
-      <c r="C16" s="241" t="s">
+      <c r="C16" s="240" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="243"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="242"/>
       <c r="G16" s="112"/>
-      <c r="H16" s="289" t="s">
+      <c r="H16" s="288" t="s">
         <v>211</v>
       </c>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
-      <c r="M16" s="290"/>
-      <c r="N16" s="290"/>
-      <c r="O16" s="290"/>
-      <c r="P16" s="290"/>
-      <c r="Q16" s="290"/>
-      <c r="R16" s="290"/>
-      <c r="S16" s="291"/>
+      <c r="I16" s="289"/>
+      <c r="J16" s="289"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="289"/>
+      <c r="M16" s="289"/>
+      <c r="N16" s="289"/>
+      <c r="O16" s="289"/>
+      <c r="P16" s="289"/>
+      <c r="Q16" s="289"/>
+      <c r="R16" s="289"/>
+      <c r="S16" s="290"/>
     </row>
     <row r="17" spans="1:19" ht="19" thickBot="1">
       <c r="A17" s="112"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="241" t="s">
+      <c r="C17" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="243"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="242"/>
       <c r="G17" s="112"/>
-      <c r="H17" s="292"/>
-      <c r="I17" s="293"/>
-      <c r="J17" s="293"/>
-      <c r="K17" s="293"/>
-      <c r="L17" s="293"/>
-      <c r="M17" s="293"/>
-      <c r="N17" s="293"/>
-      <c r="O17" s="294"/>
-      <c r="P17" s="293"/>
-      <c r="Q17" s="293"/>
-      <c r="R17" s="293"/>
-      <c r="S17" s="295"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="292"/>
+      <c r="J17" s="292"/>
+      <c r="K17" s="292"/>
+      <c r="L17" s="292"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="292"/>
+      <c r="O17" s="293"/>
+      <c r="P17" s="292"/>
+      <c r="Q17" s="292"/>
+      <c r="R17" s="292"/>
+      <c r="S17" s="294"/>
     </row>
     <row r="18" spans="1:19" ht="20" thickTop="1" thickBot="1">
       <c r="A18" s="112"/>
       <c r="B18" s="137"/>
-      <c r="C18" s="241" t="s">
+      <c r="C18" s="240" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="243"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="242"/>
       <c r="G18" s="112"/>
-      <c r="H18" s="247" t="s">
+      <c r="H18" s="246" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="248"/>
-      <c r="J18" s="248"/>
-      <c r="K18" s="248"/>
-      <c r="L18" s="248"/>
-      <c r="M18" s="249"/>
-      <c r="N18" s="250"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="247"/>
+      <c r="K18" s="247"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="248"/>
+      <c r="N18" s="249"/>
       <c r="O18" s="191"/>
-      <c r="P18" s="257" t="s">
+      <c r="P18" s="256" t="s">
         <v>276</v>
       </c>
-      <c r="Q18" s="249"/>
-      <c r="R18" s="249"/>
-      <c r="S18" s="258"/>
+      <c r="Q18" s="248"/>
+      <c r="R18" s="248"/>
+      <c r="S18" s="257"/>
     </row>
     <row r="19" spans="1:19" ht="19" thickTop="1">
       <c r="A19" s="112"/>
       <c r="B19" s="134"/>
-      <c r="C19" s="241" t="s">
+      <c r="C19" s="240" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="243"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="242"/>
       <c r="G19" s="112"/>
       <c r="H19" s="192" t="s">
         <v>109</v>
@@ -11091,13 +11646,13 @@
       <c r="I19" s="57">
         <v>5</v>
       </c>
-      <c r="J19" s="244" t="s">
+      <c r="J19" s="243" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="245"/>
-      <c r="L19" s="245"/>
-      <c r="M19" s="245"/>
-      <c r="N19" s="246"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="245"/>
       <c r="O19" s="191"/>
       <c r="P19" s="151" t="s">
         <v>87</v>
@@ -11113,12 +11668,12 @@
       <c r="B20" s="170">
         <v>-1</v>
       </c>
-      <c r="C20" s="300" t="s">
+      <c r="C20" s="299" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="301"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="302"/>
+      <c r="D20" s="300"/>
+      <c r="E20" s="300"/>
+      <c r="F20" s="301"/>
       <c r="G20" s="112"/>
       <c r="H20" s="193" t="s">
         <v>125</v>
@@ -11126,13 +11681,13 @@
       <c r="I20" s="121" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="251" t="s">
+      <c r="J20" s="250" t="s">
         <v>183</v>
       </c>
-      <c r="K20" s="252"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="252"/>
-      <c r="N20" s="253"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="252"/>
       <c r="O20" s="191"/>
       <c r="P20" s="154"/>
       <c r="Q20" s="155"/>
@@ -11144,12 +11699,12 @@
       <c r="B21" s="171">
         <v>30</v>
       </c>
-      <c r="C21" s="238" t="s">
+      <c r="C21" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="239"/>
-      <c r="E21" s="239"/>
-      <c r="F21" s="240"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="239"/>
       <c r="G21" s="112"/>
       <c r="H21" s="193" t="s">
         <v>189</v>
@@ -11157,13 +11712,13 @@
       <c r="I21" s="122">
         <v>1</v>
       </c>
-      <c r="J21" s="251" t="s">
+      <c r="J21" s="250" t="s">
         <v>190</v>
       </c>
-      <c r="K21" s="252"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="252"/>
-      <c r="N21" s="253"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="251"/>
+      <c r="M21" s="251"/>
+      <c r="N21" s="252"/>
       <c r="O21" s="191"/>
       <c r="P21" s="172"/>
       <c r="Q21" s="172"/>
@@ -11183,13 +11738,13 @@
       <c r="I22" s="58">
         <v>0</v>
       </c>
-      <c r="J22" s="254" t="s">
+      <c r="J22" s="253" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="255"/>
-      <c r="L22" s="255"/>
-      <c r="M22" s="255"/>
-      <c r="N22" s="256"/>
+      <c r="K22" s="254"/>
+      <c r="L22" s="254"/>
+      <c r="M22" s="254"/>
+      <c r="N22" s="255"/>
       <c r="O22" s="191"/>
       <c r="P22" s="172"/>
       <c r="Q22" s="172"/>
@@ -13397,33 +13952,33 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="J6:N6 Q6:S8 Q13:S14 I21:I22 K8:N8 J7">
-    <cfRule type="cellIs" dxfId="286" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I22">
-    <cfRule type="cellIs" dxfId="285" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:S72">
-    <cfRule type="expression" dxfId="284" priority="80">
+    <cfRule type="expression" dxfId="78" priority="80">
       <formula>OR(VALUE(H$23)&gt;$F24,AND($B24="Upgrade",H$23="1"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="81">
+    <cfRule type="expression" dxfId="77" priority="81">
       <formula>AND(VALUE(H$23)&lt;$F24,VALUE(H24)&gt;0,COUNTIF(Skips,$A24)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD23 A24:T24 AG24:XFD24 A25:XFD1048576">
-    <cfRule type="containsErrors" dxfId="282" priority="2">
+    <cfRule type="containsErrors" dxfId="76" priority="2">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G72">
-    <cfRule type="cellIs" dxfId="281" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="55">
+    <cfRule type="expression" dxfId="74" priority="55">
       <formula>AND(G24&gt;0,COUNTIF(Skips,$A24)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13469,10 +14024,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26:AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -13497,22 +14052,22 @@
     <col min="30" max="16384" width="10.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" customHeight="1" thickTop="1">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:38" ht="16" customHeight="1" thickTop="1">
+      <c r="A1" s="267" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="313"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="312"/>
       <c r="G1" s="114"/>
-      <c r="H1" s="268" t="s">
+      <c r="H1" s="267" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="320"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="319"/>
       <c r="L1" s="114"/>
       <c r="M1" s="114"/>
       <c r="N1" s="114"/>
@@ -13526,29 +14081,29 @@
       <c r="V1" s="114"/>
       <c r="W1" s="114"/>
       <c r="X1" s="114"/>
-      <c r="Y1" s="268" t="s">
+      <c r="Y1" s="267" t="s">
         <v>275</v>
       </c>
-      <c r="Z1" s="269"/>
-      <c r="AA1" s="269"/>
-      <c r="AB1" s="269"/>
-      <c r="AC1" s="269"/>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="320"/>
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="268"/>
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="319"/>
       <c r="AF1" s="114"/>
     </row>
-    <row r="2" spans="1:32" ht="16" customHeight="1" thickBot="1">
-      <c r="A2" s="314"/>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="316"/>
+    <row r="2" spans="1:38" ht="16" customHeight="1" thickBot="1">
+      <c r="A2" s="313"/>
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="315"/>
       <c r="G2" s="114"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="274"/>
-      <c r="K2" s="321"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="320"/>
       <c r="L2" s="114"/>
       <c r="M2" s="114"/>
       <c r="N2" s="114"/>
@@ -13562,117 +14117,117 @@
       <c r="V2" s="114"/>
       <c r="W2" s="114"/>
       <c r="X2" s="114"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="274"/>
-      <c r="AA2" s="274"/>
-      <c r="AB2" s="274"/>
-      <c r="AC2" s="274"/>
-      <c r="AD2" s="274"/>
-      <c r="AE2" s="321"/>
+      <c r="Y2" s="272"/>
+      <c r="Z2" s="273"/>
+      <c r="AA2" s="273"/>
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="273"/>
+      <c r="AD2" s="273"/>
+      <c r="AE2" s="320"/>
       <c r="AF2" s="114"/>
     </row>
-    <row r="3" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="344" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="346"/>
+    <row r="3" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="343" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="345"/>
       <c r="G3" s="114"/>
       <c r="H3" s="82">
         <v>2</v>
       </c>
-      <c r="I3" s="331" t="s">
+      <c r="I3" s="330" t="s">
         <v>170</v>
       </c>
-      <c r="J3" s="332"/>
-      <c r="K3" s="333"/>
+      <c r="J3" s="331"/>
+      <c r="K3" s="332"/>
       <c r="L3" s="114"/>
       <c r="M3" s="114"/>
-      <c r="N3" s="289" t="s">
+      <c r="N3" s="288" t="s">
         <v>285</v>
       </c>
-      <c r="O3" s="326"/>
-      <c r="P3" s="326"/>
-      <c r="Q3" s="326"/>
-      <c r="R3" s="326"/>
-      <c r="S3" s="326"/>
-      <c r="T3" s="326"/>
-      <c r="U3" s="326"/>
-      <c r="V3" s="326"/>
-      <c r="W3" s="327"/>
+      <c r="O3" s="325"/>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="325"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="325"/>
+      <c r="T3" s="325"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="325"/>
+      <c r="W3" s="326"/>
       <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
+      <c r="Y3" s="321" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z3" s="322"/>
+      <c r="AA3" s="322"/>
+      <c r="AB3" s="213" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="323" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD3" s="322"/>
+      <c r="AE3" s="324"/>
       <c r="AF3" s="114"/>
     </row>
-    <row r="4" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="347"/>
-      <c r="B4" s="348"/>
-      <c r="C4" s="348"/>
-      <c r="D4" s="348"/>
-      <c r="E4" s="348"/>
-      <c r="F4" s="349"/>
+    <row r="4" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="346"/>
+      <c r="B4" s="347"/>
+      <c r="C4" s="347"/>
+      <c r="D4" s="347"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="348"/>
       <c r="G4" s="114"/>
       <c r="H4" s="29">
         <v>0</v>
       </c>
-      <c r="I4" s="334" t="s">
+      <c r="I4" s="333" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="335"/>
-      <c r="K4" s="336"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="335"/>
       <c r="L4" s="114"/>
       <c r="M4" s="114"/>
-      <c r="N4" s="328"/>
-      <c r="O4" s="329"/>
-      <c r="P4" s="329"/>
-      <c r="Q4" s="329"/>
-      <c r="R4" s="329"/>
-      <c r="S4" s="329"/>
-      <c r="T4" s="329"/>
-      <c r="U4" s="329"/>
-      <c r="V4" s="329"/>
-      <c r="W4" s="330"/>
+      <c r="N4" s="327"/>
+      <c r="O4" s="328"/>
+      <c r="P4" s="328"/>
+      <c r="Q4" s="328"/>
+      <c r="R4" s="328"/>
+      <c r="S4" s="328"/>
+      <c r="T4" s="328"/>
+      <c r="U4" s="328"/>
+      <c r="V4" s="328"/>
+      <c r="W4" s="329"/>
       <c r="X4" s="114"/>
-      <c r="Y4" s="322" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z4" s="323"/>
-      <c r="AA4" s="323"/>
-      <c r="AB4" s="213" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="324" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD4" s="323"/>
-      <c r="AE4" s="325"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
       <c r="AF4" s="114"/>
     </row>
-    <row r="5" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="347"/>
-      <c r="B5" s="348"/>
-      <c r="C5" s="348"/>
-      <c r="D5" s="348"/>
-      <c r="E5" s="348"/>
-      <c r="F5" s="349"/>
+    <row r="5" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="346"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="348"/>
       <c r="G5" s="114"/>
       <c r="H5" s="31">
         <v>-1</v>
       </c>
-      <c r="I5" s="334" t="s">
+      <c r="I5" s="333" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="335"/>
-      <c r="K5" s="336"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="335"/>
       <c r="L5" s="114"/>
       <c r="M5" s="114"/>
       <c r="N5" s="114"/>
@@ -13686,60 +14241,70 @@
       <c r="V5" s="114"/>
       <c r="W5" s="114"/>
       <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
+      <c r="Y5" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="248"/>
+      <c r="AA5" s="248"/>
+      <c r="AB5" s="248"/>
+      <c r="AC5" s="317"/>
+      <c r="AD5" s="317"/>
+      <c r="AE5" s="318"/>
       <c r="AF5" s="114"/>
     </row>
-    <row r="6" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="350"/>
-      <c r="B6" s="351"/>
-      <c r="C6" s="351"/>
-      <c r="D6" s="351"/>
-      <c r="E6" s="351"/>
-      <c r="F6" s="352"/>
+    <row r="6" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="349"/>
+      <c r="B6" s="350"/>
+      <c r="C6" s="350"/>
+      <c r="D6" s="350"/>
+      <c r="E6" s="350"/>
+      <c r="F6" s="351"/>
       <c r="G6" s="114"/>
       <c r="H6" s="81"/>
-      <c r="I6" s="337" t="s">
+      <c r="I6" s="336" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="338"/>
-      <c r="K6" s="339"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="338"/>
       <c r="L6" s="114"/>
       <c r="M6" s="114"/>
-      <c r="N6" s="340" t="s">
+      <c r="N6" s="339" t="s">
         <v>247</v>
       </c>
-      <c r="O6" s="341"/>
-      <c r="P6" s="342" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q6" s="343"/>
-      <c r="R6" s="324" t="s">
+      <c r="O6" s="340"/>
+      <c r="P6" s="341" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q6" s="342"/>
+      <c r="R6" s="323" t="s">
         <v>250</v>
       </c>
-      <c r="S6" s="323"/>
-      <c r="T6" s="323"/>
-      <c r="U6" s="325"/>
+      <c r="S6" s="322"/>
+      <c r="T6" s="322"/>
+      <c r="U6" s="324"/>
       <c r="V6" s="114"/>
       <c r="W6" s="114"/>
       <c r="X6" s="114"/>
-      <c r="Y6" s="317" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="249"/>
-      <c r="AA6" s="249"/>
-      <c r="AB6" s="249"/>
-      <c r="AC6" s="318"/>
-      <c r="AD6" s="318"/>
-      <c r="AE6" s="319"/>
+      <c r="Y6" s="214"/>
+      <c r="Z6" s="376" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA6" s="379" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="377" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="377" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="378" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="216"/>
       <c r="AF6" s="114"/>
     </row>
-    <row r="7" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="114"/>
       <c r="B7" s="114"/>
       <c r="C7" s="114"/>
@@ -13765,25 +14330,25 @@
       <c r="W7" s="114"/>
       <c r="X7" s="114"/>
       <c r="Y7" s="214"/>
-      <c r="Z7" s="185" t="s">
+      <c r="Z7" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="AA7" s="215" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="215" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="215" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="215" t="b">
+      <c r="AA7" s="380" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="374" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="374" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="375" t="b">
         <v>0</v>
       </c>
       <c r="AE7" s="216"/>
       <c r="AF7" s="114"/>
     </row>
-    <row r="8" spans="1:32" ht="16" customHeight="1" thickTop="1">
+    <row r="8" spans="1:38" ht="16" customHeight="1" thickTop="1">
       <c r="A8" s="160" t="s">
         <v>146</v>
       </c>
@@ -13818,37 +14383,37 @@
         <v>150</v>
       </c>
       <c r="L8" s="112"/>
-      <c r="M8" s="235" t="s">
+      <c r="M8" s="234" t="s">
         <v>177</v>
       </c>
-      <c r="N8" s="236" t="s">
+      <c r="N8" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="O8" s="236" t="s">
+      <c r="O8" s="235" t="s">
+        <v>289</v>
+      </c>
+      <c r="P8" s="235" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q8" s="235" t="s">
+        <v>287</v>
+      </c>
+      <c r="R8" s="235" t="s">
         <v>290</v>
       </c>
-      <c r="P8" s="236" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q8" s="236" t="s">
+      <c r="S8" s="235" t="s">
         <v>288</v>
       </c>
-      <c r="R8" s="236" t="s">
-        <v>291</v>
-      </c>
-      <c r="S8" s="236" t="s">
-        <v>289</v>
-      </c>
-      <c r="T8" s="236" t="s">
+      <c r="T8" s="235" t="s">
         <v>188</v>
       </c>
-      <c r="U8" s="236" t="s">
+      <c r="U8" s="235" t="s">
         <v>187</v>
       </c>
-      <c r="V8" s="236" t="s">
-        <v>286</v>
-      </c>
-      <c r="W8" s="237" t="s">
+      <c r="V8" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="W8" s="236" t="s">
         <v>258</v>
       </c>
       <c r="X8" s="114"/>
@@ -13874,8 +14439,23 @@
         <v>165</v>
       </c>
       <c r="AF8" s="114"/>
-    </row>
-    <row r="9" spans="1:32" ht="16" customHeight="1">
+      <c r="AH8" s="59">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="16" customHeight="1">
       <c r="A9" s="160" t="s">
         <v>88</v>
       </c>
@@ -13920,7 +14500,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="112"/>
-      <c r="M9" s="233" t="s">
+      <c r="M9" s="232" t="s">
         <v>88</v>
       </c>
       <c r="N9" s="159"/>
@@ -13938,90 +14518,108 @@
       <c r="T9" s="159"/>
       <c r="U9" s="159"/>
       <c r="V9" s="159"/>
-      <c r="W9" s="222">
+      <c r="W9" s="221">
         <v>3</v>
       </c>
       <c r="X9" s="114"/>
       <c r="Y9" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="Z9" s="215">
-        <v>3</v>
-      </c>
+      <c r="Z9" s="215"/>
       <c r="AA9" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B9-IF(NOT(ISNUMBER(Z9)),0,SUM($Z9:Z9)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA8)),0,SUMPRODUCT(AA$8:AA9,$H$8:$H9))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA8)),
-        0,
-        SUMPRODUCT(AA$8:AA9,$G$8:$G9)
-      )
-    )/$G9+10^-10,
-    0))),0)</f>
-        <v>1</v>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B9-IF(NOT(ISNUMBER(Z9)),0,SUM($Z9:Z9)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA8)),0,SUMPRODUCT(AA8:AA$9,$H8:$H$9))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA8)),
+          0,
+          SUMPRODUCT(AA8:AA$9,$G8:$G$9)
+        )
+      )/$G9+10^-10,
+      0))),0))</f>
+        <v>4</v>
       </c>
       <c r="AB9" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B9-IF(NOT(ISNUMBER(AA9)),0,SUM($Z9:AA9)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB8)),0,SUMPRODUCT(AB$8:AB9,$H$8:$H9))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB8)),
-        0,
-        SUMPRODUCT(AB$8:AB9,$G$8:$G9)
-      )
-    )/$G9+10^-10,
-    0))),0)</f>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B9-IF(NOT(ISNUMBER(AA9)),0,SUM($Z9:AA9)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB8)),0,SUMPRODUCT(AB8:AB$9,$H8:$H$9))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB8)),
+          0,
+          SUMPRODUCT(AB8:AB$9,$G8:$G$9)
+        )
+      )/$G9+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC9" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B9-IF(NOT(ISNUMBER(AB9)),0,SUM($Z9:AB9)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC8)),0,SUMPRODUCT(AC$8:AC9,$H$8:$H9))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC8)),
-        0,
-        SUMPRODUCT(AC$8:AC9,$G$8:$G9)
-      )
-    )/$G9+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B9-IF(NOT(ISNUMBER(AB9)),0,SUM($Z9:AB9)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC8)),0,SUMPRODUCT(AC8:AC$9,$H8:$H$9))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC8)),
+          0,
+          SUMPRODUCT(AC8:AC$9,$G8:$G$9)
+        )
+      )/$G9+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AD9" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B9-IF(NOT(ISNUMBER(AC9)),0,SUM($Z9:AC9)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD8)),0,SUMPRODUCT(AD$8:AD9,$H$8:$H9))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD8)),
-        0,
-        SUMPRODUCT(AD$8:AD9,$G$8:$G9)
-      )
-    )/$G9+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B9-IF(NOT(ISNUMBER(AC9)),0,SUM($Z9:AC9)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD8)),0,SUMPRODUCT(AD8:AD$9,$H8:$H$9))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD8)),
+          0,
+          SUMPRODUCT(AD8:AD$9,$G8:$G$9)
+        )
+      )/$G9+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AE9" s="218">
@@ -14029,8 +14627,23 @@
         <v>0</v>
       </c>
       <c r="AF9" s="114"/>
-    </row>
-    <row r="10" spans="1:32" ht="16" customHeight="1">
+      <c r="AH9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="16" customHeight="1">
       <c r="A10" s="160" t="s">
         <v>91</v>
       </c>
@@ -14075,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="112"/>
-      <c r="M10" s="233" t="s">
+      <c r="M10" s="232" t="s">
         <v>91</v>
       </c>
       <c r="N10" s="159"/>
@@ -14087,86 +14700,106 @@
       <c r="T10" s="159"/>
       <c r="U10" s="159"/>
       <c r="V10" s="159"/>
-      <c r="W10" s="222"/>
+      <c r="W10" s="221"/>
       <c r="X10" s="114"/>
       <c r="Y10" s="217" t="s">
         <v>91</v>
       </c>
       <c r="Z10" s="215"/>
       <c r="AA10" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B10-IF(NOT(ISNUMBER(Z10)),0,SUM($Z10:Z10)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA9)),0,SUMPRODUCT(AA$9:AA9,$H$9:$H9))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA9)),
-        0,
-        SUMPRODUCT(AA$9:AA9,$G$9:$G9)
-      )
-    )/$G10+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B10-IF(NOT(ISNUMBER(Z10)),0,SUM($Z10:Z10)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA9)),0,SUMPRODUCT(AA9:AA$9,$H9:$H$9))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA9)),
+          0,
+          SUMPRODUCT(AA9:AA$9,$G9:$G$9)
+        )
+      )/$G10+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB10" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B10-IF(NOT(ISNUMBER(AA10)),0,SUM($Z10:AA10)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB9)),0,SUMPRODUCT(AB$9:AB9,$H$9:$H9))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB9)),
-        0,
-        SUMPRODUCT(AB$9:AB9,$G$9:$G9)
-      )
-    )/$G10+10^-10,
-    0))),0)</f>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B10-IF(NOT(ISNUMBER(AA10)),0,SUM($Z10:AA10)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB9)),0,SUMPRODUCT(AB9:AB$9,$H9:$H$9))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB9)),
+          0,
+          SUMPRODUCT(AB9:AB$9,$G9:$G$9)
+        )
+      )/$G10+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC10" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B10-IF(NOT(ISNUMBER(AB10)),0,SUM($Z10:AB10)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC9)),0,SUMPRODUCT(AC$9:AC9,$H$9:$H9))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC9)),
-        0,
-        SUMPRODUCT(AC$9:AC9,$G$9:$G9)
-      )
-    )/$G10+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B10-IF(NOT(ISNUMBER(AB10)),0,SUM($Z10:AB10)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC9)),0,SUMPRODUCT(AC9:AC$9,$H9:$H$9))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC9)),
+          0,
+          SUMPRODUCT(AC9:AC$9,$G9:$G$9)
+        )
+      )/$G10+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AD10" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B10-IF(NOT(ISNUMBER(AC10)),0,SUM($Z10:AC10)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD9)),0,SUMPRODUCT(AD$9:AD9,$H$9:$H9))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD9)),
-        0,
-        SUMPRODUCT(AD$9:AD9,$G$9:$G9)
-      )
-    )/$G10+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B10-IF(NOT(ISNUMBER(AC10)),0,SUM($Z10:AC10)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD9)),0,SUMPRODUCT(AD9:AD$9,$H9:$H$9))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD9)),
+          0,
+          SUMPRODUCT(AD9:AD$9,$G9:$G$9)
+        )
+      )/$G10+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AE10" s="218">
@@ -14174,8 +14807,23 @@
         <v>0</v>
       </c>
       <c r="AF10" s="114"/>
-    </row>
-    <row r="11" spans="1:32" ht="16" customHeight="1">
+      <c r="AH10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="16" customHeight="1">
       <c r="A11" s="160" t="s">
         <v>87</v>
       </c>
@@ -14220,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="112"/>
-      <c r="M11" s="233" t="s">
+      <c r="M11" s="232" t="s">
         <v>87</v>
       </c>
       <c r="N11" s="159"/>
@@ -14232,7 +14880,7 @@
       <c r="T11" s="159"/>
       <c r="U11" s="159"/>
       <c r="V11" s="159"/>
-      <c r="W11" s="222">
+      <c r="W11" s="221">
         <v>5</v>
       </c>
       <c r="X11" s="114"/>
@@ -14241,79 +14889,99 @@
       </c>
       <c r="Z11" s="215"/>
       <c r="AA11" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B11-IF(NOT(ISNUMBER(Z11)),0,SUM($Z11:Z11)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA10)),0,SUMPRODUCT(AA$9:AA10,$H$9:$H10))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA10)),
-        0,
-        SUMPRODUCT(AA$9:AA10,$G$9:$G10)
-      )
-    )/$G11+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B11-IF(NOT(ISNUMBER(Z11)),0,SUM($Z11:Z11)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA10)),0,SUMPRODUCT(AA$9:AA10,$H$9:$H10))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA10)),
+          0,
+          SUMPRODUCT(AA$9:AA10,$G$9:$G10)
+        )
+      )/$G11+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B11-IF(NOT(ISNUMBER(AA11)),0,SUM($Z11:AA11)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB10)),0,SUMPRODUCT(AB$9:AB10,$H$9:$H10))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB10)),
-        0,
-        SUMPRODUCT(AB$9:AB10,$G$9:$G10)
-      )
-    )/$G11+10^-10,
-    0))),0)</f>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B11-IF(NOT(ISNUMBER(AA11)),0,SUM($Z11:AA11)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB10)),0,SUMPRODUCT(AB$9:AB10,$H$9:$H10))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB10)),
+          0,
+          SUMPRODUCT(AB$9:AB10,$G$9:$G10)
+        )
+      )/$G11+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC11" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B11-IF(NOT(ISNUMBER(AB11)),0,SUM($Z11:AB11)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC10)),0,SUMPRODUCT(AC$9:AC10,$H$9:$H10))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC10)),
-        0,
-        SUMPRODUCT(AC$9:AC10,$G$9:$G10)
-      )
-    )/$G11+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B11-IF(NOT(ISNUMBER(AB11)),0,SUM($Z11:AB11)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC10)),0,SUMPRODUCT(AC$9:AC10,$H$9:$H10))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC10)),
+          0,
+          SUMPRODUCT(AC$9:AC10,$G$9:$G10)
+        )
+      )/$G11+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AD11" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B11-IF(NOT(ISNUMBER(AC11)),0,SUM($Z11:AC11)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD10)),0,SUMPRODUCT(AD$9:AD10,$H$9:$H10))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD10)),
-        0,
-        SUMPRODUCT(AD$9:AD10,$G$9:$G10)
-      )
-    )/$G11+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B11-IF(NOT(ISNUMBER(AC11)),0,SUM($Z11:AC11)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD10)),0,SUMPRODUCT(AD$9:AD10,$H$9:$H10))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD10)),
+          0,
+          SUMPRODUCT(AD$9:AD10,$G$9:$G10)
+        )
+      )/$G11+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AE11" s="218">
@@ -14321,8 +14989,23 @@
         <v>0</v>
       </c>
       <c r="AF11" s="114"/>
-    </row>
-    <row r="12" spans="1:32" ht="16" customHeight="1">
+      <c r="AH11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="16" customHeight="1">
       <c r="A12" s="160" t="s">
         <v>90</v>
       </c>
@@ -14367,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="112"/>
-      <c r="M12" s="233" t="s">
+      <c r="M12" s="232" t="s">
         <v>90</v>
       </c>
       <c r="N12" s="159"/>
@@ -14379,86 +15062,106 @@
       <c r="T12" s="159"/>
       <c r="U12" s="159"/>
       <c r="V12" s="159"/>
-      <c r="W12" s="222"/>
+      <c r="W12" s="221"/>
       <c r="X12" s="114"/>
       <c r="Y12" s="217" t="s">
         <v>90</v>
       </c>
       <c r="Z12" s="215"/>
       <c r="AA12" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B12-IF(NOT(ISNUMBER(Z12)),0,SUM($Z12:Z12)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA11)),0,SUMPRODUCT(AA$9:AA11,$H$9:$H11))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA11)),
-        0,
-        SUMPRODUCT(AA$9:AA11,$G$9:$G11)
-      )
-    )/$G12+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B12-IF(NOT(ISNUMBER(Z12)),0,SUM($Z12:Z12)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA11)),0,SUMPRODUCT(AA$9:AA11,$H$9:$H11))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA11)),
+          0,
+          SUMPRODUCT(AA$9:AA11,$G$9:$G11)
+        )
+      )/$G12+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB12" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B12-IF(NOT(ISNUMBER(AA12)),0,SUM($Z12:AA12)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB11)),0,SUMPRODUCT(AB$9:AB11,$H$9:$H11))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB11)),
-        0,
-        SUMPRODUCT(AB$9:AB11,$G$9:$G11)
-      )
-    )/$G12+10^-10,
-    0))),0)</f>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B12-IF(NOT(ISNUMBER(AA12)),0,SUM($Z12:AA12)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB11)),0,SUMPRODUCT(AB$9:AB11,$H$9:$H11))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB11)),
+          0,
+          SUMPRODUCT(AB$9:AB11,$G$9:$G11)
+        )
+      )/$G12+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC12" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B12-IF(NOT(ISNUMBER(AB12)),0,SUM($Z12:AB12)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC11)),0,SUMPRODUCT(AC$9:AC11,$H$9:$H11))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC11)),
-        0,
-        SUMPRODUCT(AC$9:AC11,$G$9:$G11)
-      )
-    )/$G12+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B12-IF(NOT(ISNUMBER(AB12)),0,SUM($Z12:AB12)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC11)),0,SUMPRODUCT(AC$9:AC11,$H$9:$H11))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC11)),
+          0,
+          SUMPRODUCT(AC$9:AC11,$G$9:$G11)
+        )
+      )/$G12+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AD12" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B12-IF(NOT(ISNUMBER(AC12)),0,SUM($Z12:AC12)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD11)),0,SUMPRODUCT(AD$9:AD11,$H$9:$H11))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD11)),
-        0,
-        SUMPRODUCT(AD$9:AD11,$G$9:$G11)
-      )
-    )/$G12+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B12-IF(NOT(ISNUMBER(AC12)),0,SUM($Z12:AC12)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD11)),0,SUMPRODUCT(AD$9:AD11,$H$9:$H11))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD11)),
+          0,
+          SUMPRODUCT(AD$9:AD11,$G$9:$G11)
+        )
+      )/$G12+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AE12" s="218">
@@ -14466,8 +15169,23 @@
         <v>0</v>
       </c>
       <c r="AF12" s="114"/>
-    </row>
-    <row r="13" spans="1:32" ht="16" customHeight="1">
+      <c r="AH12" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="16" customHeight="1">
       <c r="A13" s="160" t="s">
         <v>89</v>
       </c>
@@ -14512,7 +15230,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="112"/>
-      <c r="M13" s="233" t="s">
+      <c r="M13" s="232" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="159"/>
@@ -14528,88 +15246,110 @@
       <c r="T13" s="159"/>
       <c r="U13" s="159"/>
       <c r="V13" s="159"/>
-      <c r="W13" s="222">
+      <c r="W13" s="221">
         <v>3</v>
       </c>
       <c r="X13" s="114"/>
       <c r="Y13" s="217" t="s">
         <v>89</v>
       </c>
-      <c r="Z13" s="215"/>
+      <c r="Z13" s="215">
+        <v>1</v>
+      </c>
       <c r="AA13" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B13-IF(NOT(ISNUMBER(Z13)),0,SUM($Z13:Z13)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA12)),0,SUMPRODUCT(AA$9:AA12,$H$9:$H12))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA12)),
-        0,
-        SUMPRODUCT(AA$9:AA12,$G$9:$G12)
-      )
-    )/$G13+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B13-IF(NOT(ISNUMBER(Z13)),0,SUM($Z13:Z13)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA12)),0,SUMPRODUCT(AA$9:AA12,$H$9:$H12))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA12)),
+          0,
+          SUMPRODUCT(AA$9:AA12,$G$9:$G12)
+        )
+      )/$G13+10^-10,
+      0))),0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="160">
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B13-IF(NOT(ISNUMBER(AA13)),0,SUM($Z13:AA13)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB12)),0,SUMPRODUCT(AB$9:AB12,$H$9:$H12))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB12)),
+          0,
+          SUMPRODUCT(AB$9:AB12,$G$9:$G12)
+        )
+      )/$G13+10^-10,
+      0))),0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="160">
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B13-IF(NOT(ISNUMBER(AB13)),0,SUM($Z13:AB13)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC12)),0,SUMPRODUCT(AC$9:AC12,$H$9:$H12))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC12)),
+          0,
+          SUMPRODUCT(AC$9:AC12,$G$9:$G12)
+        )
+      )/$G13+10^-10,
+      0))),0))</f>
         <v>1</v>
       </c>
-      <c r="AB13" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B13-IF(NOT(ISNUMBER(AA13)),0,SUM($Z13:AA13)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB12)),0,SUMPRODUCT(AB$9:AB12,$H$9:$H12))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB12)),
-        0,
-        SUMPRODUCT(AB$9:AB12,$G$9:$G12)
-      )
-    )/$G13+10^-10,
-    0))),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B13-IF(NOT(ISNUMBER(AB13)),0,SUM($Z13:AB13)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC12)),0,SUMPRODUCT(AC$9:AC12,$H$9:$H12))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC12)),
-        0,
-        SUMPRODUCT(AC$9:AC12,$G$9:$G12)
-      )
-    )/$G13+10^-10,
-    0))),0)</f>
-        <v>0</v>
-      </c>
       <c r="AD13" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B13-IF(NOT(ISNUMBER(AC13)),0,SUM($Z13:AC13)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD12)),0,SUMPRODUCT(AD$9:AD12,$H$9:$H12))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD12)),
-        0,
-        SUMPRODUCT(AD$9:AD12,$G$9:$G12)
-      )
-    )/$G13+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B13-IF(NOT(ISNUMBER(AC13)),0,SUM($Z13:AC13)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD12)),0,SUMPRODUCT(AD$9:AD12,$H$9:$H12))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD12)),
+          0,
+          SUMPRODUCT(AD$9:AD12,$G$9:$G12)
+        )
+      )/$G13+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AE13" s="218">
@@ -14617,8 +15357,23 @@
         <v>0</v>
       </c>
       <c r="AF13" s="114"/>
-    </row>
-    <row r="14" spans="1:32" ht="16" customHeight="1">
+      <c r="AH13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="59">
+        <v>10</v>
+      </c>
+      <c r="AK13" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="16" customHeight="1">
       <c r="A14" s="160" t="s">
         <v>86</v>
       </c>
@@ -14663,7 +15418,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="112"/>
-      <c r="M14" s="233" t="s">
+      <c r="M14" s="232" t="s">
         <v>86</v>
       </c>
       <c r="N14" s="159">
@@ -14687,7 +15442,7 @@
       </c>
       <c r="U14" s="159"/>
       <c r="V14" s="159"/>
-      <c r="W14" s="222">
+      <c r="W14" s="221">
         <v>7</v>
       </c>
       <c r="X14" s="114"/>
@@ -14696,94 +15451,129 @@
       </c>
       <c r="Z14" s="215"/>
       <c r="AA14" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B14-IF(NOT(ISNUMBER(Z14)),0,SUM($Z14:Z14)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA13)),0,SUMPRODUCT(AA$9:AA13,$H$9:$H13))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA13)),
-        0,
-        SUMPRODUCT(AA$9:AA13,$G$9:$G13)
-      )
-    )/$G14+10^-10,
-    0))),0)</f>
-        <v>3</v>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B14-IF(NOT(ISNUMBER(Z14)),0,SUM($Z14:Z14)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA13)),0,SUMPRODUCT(AA$9:AA13,$H$9:$H13))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA13)),
+          0,
+          SUMPRODUCT(AA$9:AA13,$G$9:$G13)
+        )
+      )/$G14+10^-10,
+      0))),0))</f>
+        <v>0</v>
       </c>
       <c r="AB14" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B14-IF(NOT(ISNUMBER(AA14)),0,SUM($Z14:AA14)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB13)),0,SUMPRODUCT(AB$9:AB13,$H$9:$H13))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB13)),
-        0,
-        SUMPRODUCT(AB$9:AB13,$G$9:$G13)
-      )
-    )/$G14+10^-10,
-    0))),0)</f>
-        <v>6</v>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B14-IF(NOT(ISNUMBER(AA14)),0,SUM($Z14:AA14)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB13)),0,SUMPRODUCT(AB$9:AB13,$H$9:$H13))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB13)),
+          0,
+          SUMPRODUCT(AB$9:AB13,$G$9:$G13)
+        )
+      )/$G14+10^-10,
+      0))),0))</f>
+        <v>0</v>
       </c>
       <c r="AC14" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B14-IF(NOT(ISNUMBER(AB14)),0,SUM($Z14:AB14)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC13)),0,SUMPRODUCT(AC$9:AC13,$H$9:$H13))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC13)),
-        0,
-        SUMPRODUCT(AC$9:AC13,$G$9:$G13)
-      )
-    )/$G14+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B14-IF(NOT(ISNUMBER(AB14)),0,SUM($Z14:AB14)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC13)),0,SUMPRODUCT(AC$9:AC13,$H$9:$H13))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC13)),
+          0,
+          SUMPRODUCT(AC$9:AC13,$G$9:$G13)
+        )
+      )/$G14+10^-10,
+      0))),0))</f>
+        <v>9</v>
+      </c>
+      <c r="AD14" s="160">
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B14-IF(NOT(ISNUMBER(AC14)),0,SUM($Z14:AC14)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD13)),0,SUMPRODUCT(AD$9:AD13,$H$9:$H13))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD13)),
+          0,
+          SUMPRODUCT(AD$9:AD13,$G$9:$G13)
+        )
+      )/$G14+10^-10,
+      0))),0))</f>
         <v>1</v>
-      </c>
-      <c r="AD14" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B14-IF(NOT(ISNUMBER(AC14)),0,SUM($Z14:AC14)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD13)),0,SUMPRODUCT(AD$9:AD13,$H$9:$H13))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD13)),
-        0,
-        SUMPRODUCT(AD$9:AD13,$G$9:$G13)
-      )
-    )/$G14+10^-10,
-    0))),0)</f>
-        <v>0</v>
       </c>
       <c r="AE14" s="218">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
         <v>0</v>
       </c>
       <c r="AF14" s="114"/>
-    </row>
-    <row r="15" spans="1:32" ht="16" customHeight="1">
+      <c r="AH14" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="59">
+        <v>21</v>
+      </c>
+      <c r="AK14" s="59">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="16" customHeight="1">
       <c r="A15" s="160" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="20">
         <f>INDEX(AttackSets[],MATCH(ArmyState[[#This Row],[Name]],AttackSets[Unit Set],0),MATCH(AttackSet,AttackSets[#Headers],0))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C15" s="161" t="str">
         <f>INDEX(UnitCosts[Type],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14811,18 +15601,18 @@
       </c>
       <c r="I15" s="17">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J15" s="161">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K15" s="18">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Space]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L15" s="112"/>
-      <c r="M15" s="233" t="s">
+      <c r="M15" s="232" t="s">
         <v>84</v>
       </c>
       <c r="N15" s="159"/>
@@ -14842,103 +15632,140 @@
         <v>48</v>
       </c>
       <c r="V15" s="159"/>
-      <c r="W15" s="222">
+      <c r="W15" s="221">
         <v>8</v>
       </c>
       <c r="X15" s="114"/>
       <c r="Y15" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="Z15" s="215"/>
+      <c r="Z15" s="215">
+        <v>19</v>
+      </c>
       <c r="AA15" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B15-IF(NOT(ISNUMBER(Z15)),0,SUM($Z15:Z15)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA14)),0,SUMPRODUCT(AA$9:AA14,$H$9:$H14))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA14)),
-        0,
-        SUMPRODUCT(AA$9:AA14,$G$9:$G14)
-      )
-    )/$G15+10^-10,
-    0))),0)</f>
-        <v>0</v>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B15-IF(NOT(ISNUMBER(Z15)),0,SUM($Z15:Z15)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA14)),0,SUMPRODUCT(AA$9:AA14,$H$9:$H14))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA14)),
+          0,
+          SUMPRODUCT(AA$9:AA14,$G$9:$G14)
+        )
+      )/$G15+10^-10,
+      0))),0))</f>
+        <v>1</v>
       </c>
       <c r="AB15" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B15-IF(NOT(ISNUMBER(AA15)),0,SUM($Z15:AA15)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB14)),0,SUMPRODUCT(AB$9:AB14,$H$9:$H14))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB14)),
-        0,
-        SUMPRODUCT(AB$9:AB14,$G$9:$G14)
-      )
-    )/$G15+10^-10,
-    0))),0)</f>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B15-IF(NOT(ISNUMBER(AA15)),0,SUM($Z15:AA15)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB14)),0,SUMPRODUCT(AB$9:AB14,$H$9:$H14))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB14)),
+          0,
+          SUMPRODUCT(AB$9:AB14,$G$9:$G14)
+        )
+      )/$G15+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC15" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B15-IF(NOT(ISNUMBER(AB15)),0,SUM($Z15:AB15)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC14)),0,SUMPRODUCT(AC$9:AC14,$H$9:$H14))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC14)),
-        0,
-        SUMPRODUCT(AC$9:AC14,$G$9:$G14)
-      )
-    )/$G15+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B15-IF(NOT(ISNUMBER(AB15)),0,SUM($Z15:AB15)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC14)),0,SUMPRODUCT(AC$9:AC14,$H$9:$H14))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC14)),
+          0,
+          SUMPRODUCT(AC$9:AC14,$G$9:$G14)
+        )
+      )/$G15+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AD15" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B15-IF(NOT(ISNUMBER(AC15)),0,SUM($Z15:AC15)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD14)),0,SUMPRODUCT(AD$9:AD14,$H$9:$H14))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD14)),
-        0,
-        SUMPRODUCT(AD$9:AD14,$G$9:$G14)
-      )
-    )/$G15+10^-10,
-    0))),0)</f>
-        <v>0</v>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B15-IF(NOT(ISNUMBER(AC15)),0,SUM($Z15:AC15)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD14)),0,SUMPRODUCT(AD$9:AD14,$H$9:$H14))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD14)),
+          0,
+          SUMPRODUCT(AD$9:AD14,$G$9:$G14)
+        )
+      )/$G15+10^-10,
+      0))),0))</f>
+        <v>10</v>
       </c>
       <c r="AE15" s="218">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
         <v>0</v>
       </c>
       <c r="AF15" s="114"/>
-    </row>
-    <row r="16" spans="1:32" ht="16" customHeight="1">
+      <c r="AH15" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="59">
+        <v>46</v>
+      </c>
+      <c r="AL15" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="16" customHeight="1">
       <c r="A16" s="160" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="20">
         <f>INDEX(AttackSets[],MATCH(ArmyState[[#This Row],[Name]],AttackSets[Unit Set],0),MATCH(AttackSet,AttackSets[#Headers],0))</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C16" s="161" t="str">
         <f>INDEX(UnitCosts[Type],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14966,18 +15793,18 @@
       </c>
       <c r="I16" s="17">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>8960</v>
+        <v>7360</v>
       </c>
       <c r="J16" s="161">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
-        <v>23.333333333333336</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="K16" s="18">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Space]]</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L16" s="112"/>
-      <c r="M16" s="233" t="s">
+      <c r="M16" s="232" t="s">
         <v>83</v>
       </c>
       <c r="N16" s="159">
@@ -15003,97 +15830,134 @@
         <v>70</v>
       </c>
       <c r="V16" s="159"/>
-      <c r="W16" s="222">
+      <c r="W16" s="221">
         <v>18</v>
       </c>
       <c r="X16" s="114"/>
       <c r="Y16" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="Z16" s="215"/>
+      <c r="Z16" s="215">
+        <v>10</v>
+      </c>
       <c r="AA16" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B16-IF(NOT(ISNUMBER(Z16)),0,SUM($Z16:Z16)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA15)),0,SUMPRODUCT(AA9:AA$15,$H9:$H$15))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA15)),
-        0,
-        SUMPRODUCT(AA9:AA$15,$G9:$G$15)
-      )
-    )/$G16+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B16-IF(NOT(ISNUMBER(Z16)),0,SUM($Z16:Z16)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA15)),0,SUMPRODUCT(AA$9:AA15,$H$9:$H15))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA15)),
+          0,
+          SUMPRODUCT(AA$9:AA15,$G$9:$G15)
+        )
+      )/$G16+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB16" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B16-IF(NOT(ISNUMBER(AA16)),0,SUM($Z16:AA16)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB15)),0,SUMPRODUCT(AB9:AB$15,$H9:$H$15))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB15)),
-        0,
-        SUMPRODUCT(AB9:AB$15,$G9:$G$15)
-      )
-    )/$G16+10^-10,
-    0))),0)</f>
-        <v>2</v>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B16-IF(NOT(ISNUMBER(AA16)),0,SUM($Z16:AA16)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB15)),0,SUMPRODUCT(AB$9:AB15,$H$9:$H15))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB15)),
+          0,
+          SUMPRODUCT(AB$9:AB15,$G$9:$G15)
+        )
+      )/$G16+10^-10,
+      0))),0))</f>
+        <v>0</v>
       </c>
       <c r="AC16" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B16-IF(NOT(ISNUMBER(AB16)),0,SUM($Z16:AB16)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC15)),0,SUMPRODUCT(AC9:AC$15,$H9:$H$15))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC15)),
-        0,
-        SUMPRODUCT(AC9:AC$15,$G9:$G$15)
-      )
-    )/$G16+10^-10,
-    0))),0)</f>
-        <v>54</v>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B16-IF(NOT(ISNUMBER(AB16)),0,SUM($Z16:AB16)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC15)),0,SUMPRODUCT(AC$9:AC15,$H$9:$H15))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC15)),
+          0,
+          SUMPRODUCT(AC$9:AC15,$G$9:$G15)
+        )
+      )/$G16+10^-10,
+      0))),0))</f>
+        <v>0</v>
       </c>
       <c r="AD16" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B16-IF(NOT(ISNUMBER(AC16)),0,SUM($Z16:AC16)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD15)),0,SUMPRODUCT(AD9:AD$15,$H9:$H$15))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD15)),
-        0,
-        SUMPRODUCT(AD9:AD$15,$G9:$G$15)
-      )
-    )/$G16+10^-10,
-    0))),0)</f>
-        <v>0</v>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B16-IF(NOT(ISNUMBER(AC16)),0,SUM($Z16:AC16)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD15)),0,SUMPRODUCT(AD$9:AD15,$H$9:$H15))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD15)),
+          0,
+          SUMPRODUCT(AD$9:AD15,$G$9:$G15)
+        )
+      )/$G16+10^-10,
+      0))),0))</f>
+        <v>36</v>
       </c>
       <c r="AE16" s="218">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
         <v>0</v>
       </c>
       <c r="AF16" s="114"/>
-    </row>
-    <row r="17" spans="1:32" ht="16" customHeight="1">
+      <c r="AH16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="16" customHeight="1">
       <c r="A17" s="160" t="s">
         <v>85</v>
       </c>
@@ -15138,7 +16002,7 @@
         <v>60</v>
       </c>
       <c r="L17" s="112"/>
-      <c r="M17" s="233" t="s">
+      <c r="M17" s="232" t="s">
         <v>85</v>
       </c>
       <c r="N17" s="159">
@@ -15164,103 +16028,140 @@
         <v>2</v>
       </c>
       <c r="V17" s="159"/>
-      <c r="W17" s="222">
+      <c r="W17" s="221">
         <v>2</v>
       </c>
       <c r="X17" s="114"/>
       <c r="Y17" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="Z17" s="215"/>
+      <c r="Z17" s="215">
+        <v>7</v>
+      </c>
       <c r="AA17" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B17-IF(NOT(ISNUMBER(Z17)),0,SUM($Z17:Z17)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA16)),0,SUMPRODUCT(AA$9:AA16,$H$9:$H16))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA16)),
-        0,
-        SUMPRODUCT(AA$9:AA16,$G$9:$G16)
-      )
-    )/$G17+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B17-IF(NOT(ISNUMBER(Z17)),0,SUM($Z17:Z17)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA16)),0,SUMPRODUCT(AA$9:AA16,$H$9:$H16))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA16)),
+          0,
+          SUMPRODUCT(AA$9:AA16,$G$9:$G16)
+        )
+      )/$G17+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB17" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B17-IF(NOT(ISNUMBER(AA17)),0,SUM($Z17:AA17)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB16)),0,SUMPRODUCT(AB$9:AB16,$H$9:$H16))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB16)),
-        0,
-        SUMPRODUCT(AB$9:AB16,$G$9:$G16)
-      )
-    )/$G17+10^-10,
-    0))),0)</f>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B17-IF(NOT(ISNUMBER(AA17)),0,SUM($Z17:AA17)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB16)),0,SUMPRODUCT(AB$9:AB16,$H$9:$H16))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB16)),
+          0,
+          SUMPRODUCT(AB$9:AB16,$G$9:$G16)
+        )
+      )/$G17+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC17" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B17-IF(NOT(ISNUMBER(AB17)),0,SUM($Z17:AB17)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC16)),0,SUMPRODUCT(AC$9:AC16,$H$9:$H16))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC16)),
-        0,
-        SUMPRODUCT(AC$9:AC16,$G$9:$G16)
-      )
-    )/$G17+10^-10,
-    0))),0)</f>
-        <v>2</v>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B17-IF(NOT(ISNUMBER(AB17)),0,SUM($Z17:AB17)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC16)),0,SUMPRODUCT(AC$9:AC16,$H$9:$H16))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC16)),
+          0,
+          SUMPRODUCT(AC$9:AC16,$G$9:$G16)
+        )
+      )/$G17+10^-10,
+      0))),0))</f>
+        <v>0</v>
       </c>
       <c r="AD17" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B17-IF(NOT(ISNUMBER(AC17)),0,SUM($Z17:AC17)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD16)),0,SUMPRODUCT(AD$9:AD16,$H$9:$H16))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD16)),
-        0,
-        SUMPRODUCT(AD$9:AD16,$G$9:$G16)
-      )
-    )/$G17+10^-10,
-    0))),0)</f>
-        <v>10</v>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B17-IF(NOT(ISNUMBER(AC17)),0,SUM($Z17:AC17)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD16)),0,SUMPRODUCT(AD$9:AD16,$H$9:$H16))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD16)),
+          0,
+          SUMPRODUCT(AD$9:AD16,$G$9:$G16)
+        )
+      )/$G17+10^-10,
+      0))),0))</f>
+        <v>5</v>
       </c>
       <c r="AE17" s="218">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
         <v>0</v>
       </c>
       <c r="AF17" s="114"/>
-    </row>
-    <row r="18" spans="1:32" ht="16" customHeight="1">
+      <c r="AH17" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="16" customHeight="1">
       <c r="A18" s="160" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="184">
         <f>INDEX(AttackSets[],MATCH(ArmyState[[#This Row],[Name]],AttackSets[Unit Set],0),MATCH(AttackSet,AttackSets[#Headers],0))</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C18" s="161" t="str">
         <f>INDEX(UnitCosts[Type],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15288,18 +16189,18 @@
       </c>
       <c r="I18" s="17">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J18" s="161">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
-        <v>6.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Space]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L18" s="112"/>
-      <c r="M18" s="233" t="s">
+      <c r="M18" s="232" t="s">
         <v>82</v>
       </c>
       <c r="N18" s="159"/>
@@ -15321,7 +16222,7 @@
         <v>72</v>
       </c>
       <c r="V18" s="159"/>
-      <c r="W18" s="222">
+      <c r="W18" s="221">
         <v>5</v>
       </c>
       <c r="X18" s="114"/>
@@ -15330,88 +16231,123 @@
       </c>
       <c r="Z18" s="215"/>
       <c r="AA18" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B18-IF(NOT(ISNUMBER(Z18)),0,SUM($Z18:Z18)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AA17)),0,SUMPRODUCT(AA9:AA$17,$H9:$H$17))),
-  ROUND(
-    ((($J$32-SUM($Z$19:Z$19))
-      * IF(AA$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AA$7:$AD$7,TRUE))-COLUMNS($Z$19:Z$19)+1))
-    -IF(NOT(ISNUMBER(AA17)),
-        0,
-        SUMPRODUCT(AA9:AA$17,$G9:$G$17)
-      )
-    )/$G18+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$6,0,
+IFERROR(MAX(0,
+  MIN($B18-IF(NOT(ISNUMBER(Z18)),0,SUM($Z18:Z18)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AA17)),0,SUMPRODUCT(AA$9:AA17,$H$9:$H17))),
+    ROUND(
+      ((($J$32-SUM($Z$19:Z$19))
+        * IF(AA$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:Z$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA17)),
+          0,
+          SUMPRODUCT(AA$9:AA17,$G$9:$G17)
+        )
+      )/$G18+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB18" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B18-IF(NOT(ISNUMBER(AA18)),0,SUM($Z18:AA18)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AB17)),0,SUMPRODUCT(AB9:AB$17,$H9:$H$17))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AA$19))
-      * IF(AB$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AB$7:$AD$7,TRUE))-COLUMNS($Z$19:AA$19)+1))
-    -IF(NOT(ISNUMBER(AB17)),
-        0,
-        SUMPRODUCT(AB9:AB$17,$G9:$G$17)
-      )
-    )/$G18+10^-10,
-    0))),0)</f>
+        <f>IF(AB$6,0,
+IFERROR(MAX(0,
+  MIN($B18-IF(NOT(ISNUMBER(AA18)),0,SUM($Z18:AA18)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AB17)),0,SUMPRODUCT(AB$9:AB17,$H$9:$H17))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AA$19))
+        * IF(AB$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AA$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB17)),
+          0,
+          SUMPRODUCT(AB$9:AB17,$G$9:$G17)
+        )
+      )/$G18+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC18" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B18-IF(NOT(ISNUMBER(AB18)),0,SUM($Z18:AB18)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AC17)),0,SUMPRODUCT(AC9:AC$17,$H9:$H$17))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AB$19))
-      * IF(AC$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AC$7:$AD$7,TRUE))-COLUMNS($Z$19:AB$19)+1))
-    -IF(NOT(ISNUMBER(AC17)),
-        0,
-        SUMPRODUCT(AC9:AC$17,$G9:$G$17)
-      )
-    )/$G18+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AC$6,0,
+IFERROR(MAX(0,
+  MIN($B18-IF(NOT(ISNUMBER(AB18)),0,SUM($Z18:AB18)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AC17)),0,SUMPRODUCT(AC$9:AC17,$H$9:$H17))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AB$19))
+        * IF(AC$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AC$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AB$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AD$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AC17)),
+          0,
+          SUMPRODUCT(AC$9:AC17,$G$9:$G17)
+        )
+      )/$G18+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AD18" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B18-IF(NOT(ISNUMBER(AC18)),0,SUM($Z18:AC18)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
-      -IF(NOT(ISNUMBER(AD17)),0,SUMPRODUCT(AD9:AD$17,$H9:$H$17))),
-  ROUND(
-    ((($J$32-SUM($Z$19:AC$19))
-      * IF(AD$7,4,1)
-      / (NumBarracks+(3*COUNTIF(AD$7:$AD$7,TRUE))-COLUMNS($Z$19:AC$19)+1))
-    -IF(NOT(ISNUMBER(AD17)),
-        0,
-        SUMPRODUCT(AD9:AD$17,$G9:$G$17)
-      )
-    )/$G18+10^-10,
-    0))),0)</f>
-        <v>20</v>
+        <f ca="1">IF(AD$6,0,
+IFERROR(MAX(0,
+  MIN($B18-IF(NOT(ISNUMBER(AC18)),0,SUM($Z18:AC18)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_Bar[],2)
+        -IF(NOT(ISNUMBER(AD17)),0,SUMPRODUCT(AD$9:AD17,$H$9:$H17))),
+    ROUND(
+      ((($J$32-SUM($Z$19:AC$19))
+        * IF(AD$7,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AD$7:$AD$7,TRUE)) +N("Account for boosted barracks")
+            - COLUMNS($Z$19:AC$19) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AE$6:$AE$6,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AD17)),
+          0,
+          SUMPRODUCT(AD$9:AD17,$G$9:$G17)
+        )
+      )/$G18+10^-10,
+      0))),0))</f>
+        <v>0</v>
       </c>
       <c r="AE18" s="218">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
         <v>0</v>
       </c>
       <c r="AF18" s="114"/>
-    </row>
-    <row r="19" spans="1:32" ht="16" customHeight="1" thickBot="1">
+      <c r="AH18" s="59">
+        <v>47</v>
+      </c>
+      <c r="AI18" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="59">
+        <v>45.5</v>
+      </c>
+      <c r="AK18" s="59">
+        <v>23.666666666666668</v>
+      </c>
+      <c r="AL18" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="16" customHeight="1" thickBot="1">
       <c r="A19" s="160" t="s">
         <v>94</v>
       </c>
@@ -15456,7 +16392,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="112"/>
-      <c r="M19" s="233" t="s">
+      <c r="M19" s="232" t="s">
         <v>94</v>
       </c>
       <c r="N19" s="159"/>
@@ -15474,38 +16410,53 @@
       </c>
       <c r="U19" s="159"/>
       <c r="V19" s="159"/>
-      <c r="W19" s="222"/>
+      <c r="W19" s="221"/>
       <c r="X19" s="114"/>
       <c r="Y19" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="Z19" s="223">
+      <c r="Z19" s="222">
         <f>SUMPRODUCT(BO_Barracks[Already Built],$G9:$G18)</f>
-        <v>24</v>
-      </c>
-      <c r="AA19" s="223">
+        <v>42.666666666666671</v>
+      </c>
+      <c r="AA19" s="222">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks1],$G9:$G18)</f>
-        <v>29</v>
-      </c>
-      <c r="AB19" s="223">
-        <f ca="1">SUMPRODUCT(BO_Barracks[Barracks2],$G9:$G18)</f>
-        <v>27.833333333333332</v>
-      </c>
-      <c r="AC19" s="223">
+        <v>32.5</v>
+      </c>
+      <c r="AB19" s="222">
+        <f>SUMPRODUCT(BO_Barracks[Barracks2],$G9:$G18)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="222">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks3],$G9:$G18)</f>
-        <v>28.5</v>
-      </c>
-      <c r="AD19" s="223">
+        <v>33</v>
+      </c>
+      <c r="AD19" s="222">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks4],$G9:$G18)</f>
-        <v>26.666666666666664</v>
-      </c>
-      <c r="AE19" s="224">
-        <f ca="1">COUNTIF(BO_Barracks[Left],"&lt;&gt;0")</f>
+        <v>32</v>
+      </c>
+      <c r="AE19" s="381">
+        <f ca="1">SUMPRODUCT(BO_Barracks[Left],$G9:$G18)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="114"/>
-    </row>
-    <row r="20" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AH19" s="59">
+        <v>30</v>
+      </c>
+      <c r="AI19" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="59">
+        <v>55</v>
+      </c>
+      <c r="AK19" s="59">
+        <v>55</v>
+      </c>
+      <c r="AL19" s="59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="160" t="s">
         <v>95</v>
       </c>
@@ -15550,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="112"/>
-      <c r="M20" s="233" t="s">
+      <c r="M20" s="232" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="159"/>
@@ -15562,38 +16513,38 @@
       <c r="T20" s="159"/>
       <c r="U20" s="159"/>
       <c r="V20" s="159"/>
-      <c r="W20" s="222"/>
+      <c r="W20" s="221"/>
       <c r="X20" s="114"/>
-      <c r="Y20" s="225" t="s">
+      <c r="Y20" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="Z20" s="226">
+      <c r="Z20" s="225">
         <f>SUMPRODUCT(BO_Barracks[Already Built],$H9:$H18)</f>
-        <v>12</v>
-      </c>
-      <c r="AA20" s="226">
+        <v>78</v>
+      </c>
+      <c r="AA20" s="225">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks1],$H9:$H18)</f>
-        <v>24</v>
-      </c>
-      <c r="AB20" s="226">
-        <f ca="1">SUMPRODUCT(BO_Barracks[Barracks2],$H9:$H18)</f>
-        <v>28</v>
-      </c>
-      <c r="AC20" s="226">
+        <v>17</v>
+      </c>
+      <c r="AB20" s="225">
+        <f>SUMPRODUCT(BO_Barracks[Barracks2],$H9:$H18)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="225">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks3],$H9:$H18)</f>
-        <v>66</v>
-      </c>
-      <c r="AD20" s="226">
+        <v>32</v>
+      </c>
+      <c r="AD20" s="225">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks4],$H9:$H18)</f>
-        <v>70</v>
-      </c>
-      <c r="AE20" s="227">
+        <v>73</v>
+      </c>
+      <c r="AE20" s="226">
         <f ca="1">SUMPRODUCT(BO_Barracks[Left],$H9:$H18)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="114"/>
     </row>
-    <row r="21" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="160" t="s">
         <v>96</v>
       </c>
@@ -15638,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="112"/>
-      <c r="M21" s="233" t="s">
+      <c r="M21" s="232" t="s">
         <v>96</v>
       </c>
       <c r="N21" s="159"/>
@@ -15650,7 +16601,7 @@
       <c r="T21" s="159"/>
       <c r="U21" s="159"/>
       <c r="V21" s="159"/>
-      <c r="W21" s="222"/>
+      <c r="W21" s="221"/>
       <c r="X21" s="114"/>
       <c r="Y21" s="114"/>
       <c r="Z21" s="114"/>
@@ -15661,7 +16612,7 @@
       <c r="AE21" s="114"/>
       <c r="AF21" s="114"/>
     </row>
-    <row r="22" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="160" t="s">
         <v>92</v>
       </c>
@@ -15706,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="112"/>
-      <c r="M22" s="233" t="s">
+      <c r="M22" s="232" t="s">
         <v>92</v>
       </c>
       <c r="N22" s="159"/>
@@ -15718,22 +16669,22 @@
       <c r="T22" s="159"/>
       <c r="U22" s="159"/>
       <c r="V22" s="159"/>
-      <c r="W22" s="222">
+      <c r="W22" s="221">
         <v>2</v>
       </c>
       <c r="X22" s="114"/>
-      <c r="Y22" s="317" t="s">
+      <c r="Y22" s="316" t="s">
         <v>19</v>
       </c>
-      <c r="Z22" s="318"/>
-      <c r="AA22" s="318"/>
-      <c r="AB22" s="318"/>
-      <c r="AC22" s="319"/>
+      <c r="Z22" s="317"/>
+      <c r="AA22" s="317"/>
+      <c r="AB22" s="317"/>
+      <c r="AC22" s="318"/>
       <c r="AD22" s="114"/>
       <c r="AE22" s="114"/>
       <c r="AF22" s="114"/>
     </row>
-    <row r="23" spans="1:32" ht="16" customHeight="1" thickTop="1">
+    <row r="23" spans="1:38" ht="16" customHeight="1" thickTop="1">
       <c r="A23" s="160" t="s">
         <v>93</v>
       </c>
@@ -15778,7 +16729,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="112"/>
-      <c r="M23" s="233" t="s">
+      <c r="M23" s="232" t="s">
         <v>93</v>
       </c>
       <c r="N23" s="159">
@@ -15798,18 +16749,18 @@
       <c r="T23" s="159"/>
       <c r="U23" s="159"/>
       <c r="V23" s="159"/>
-      <c r="W23" s="222">
+      <c r="W23" s="221">
         <v>1</v>
       </c>
       <c r="X23" s="114"/>
       <c r="Y23" s="220"/>
-      <c r="Z23" s="185" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA23" s="221" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="221" t="b">
+      <c r="Z23" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA23" s="372" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="373" t="b">
         <v>0</v>
       </c>
       <c r="AC23" s="216"/>
@@ -15817,7 +16768,7 @@
       <c r="AE23" s="114"/>
       <c r="AF23" s="114"/>
     </row>
-    <row r="24" spans="1:32" ht="16" customHeight="1">
+    <row r="24" spans="1:38" ht="16" customHeight="1" thickBot="1">
       <c r="A24" s="160" t="s">
         <v>99</v>
       </c>
@@ -15862,7 +16813,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="112"/>
-      <c r="M24" s="233" t="s">
+      <c r="M24" s="232" t="s">
         <v>99</v>
       </c>
       <c r="N24" s="159"/>
@@ -15874,30 +16825,26 @@
       <c r="T24" s="159"/>
       <c r="U24" s="159"/>
       <c r="V24" s="159"/>
-      <c r="W24" s="222">
+      <c r="W24" s="221">
         <v>1</v>
       </c>
       <c r="X24" s="114"/>
-      <c r="Y24" s="217" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z24" s="160" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA24" s="160" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB24" s="160" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC24" s="218" t="s">
-        <v>165</v>
-      </c>
+      <c r="Y24" s="214"/>
+      <c r="Z24" s="203" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA24" s="374" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="375" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="216"/>
       <c r="AD24" s="114"/>
       <c r="AE24" s="114"/>
       <c r="AF24" s="114"/>
     </row>
-    <row r="25" spans="1:32" ht="16" customHeight="1">
+    <row r="25" spans="1:38" ht="16" customHeight="1" thickTop="1">
       <c r="A25" s="160" t="s">
         <v>101</v>
       </c>
@@ -15942,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="112"/>
-      <c r="M25" s="233" t="s">
+      <c r="M25" s="232" t="s">
         <v>101</v>
       </c>
       <c r="N25" s="159"/>
@@ -15954,61 +16901,30 @@
       <c r="T25" s="159"/>
       <c r="U25" s="159"/>
       <c r="V25" s="159"/>
-      <c r="W25" s="222">
+      <c r="W25" s="221">
         <v>1</v>
       </c>
       <c r="X25" s="114"/>
       <c r="Y25" s="217" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z25" s="215"/>
-      <c r="AA25" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B24-IF(NOT(ISNUMBER(Z25)),0,SUM($Z25:Z25)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AA24)),0,SUMPRODUCT(AA$24:AA25,$H$23:$H24))),
-  ROUND(
-    ((($J$33-SUM($Z$30:Z$30))
-      * IF(AA$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AA$23:$AC$23,TRUE))-COLUMNS($Z$30:Z$30)+1))
-    -IF(NOT(ISNUMBER(AA24)),
-        0,
-        SUMPRODUCT(AA$24:AA25,$G$23:$G24)
-      )
-    )/$G24+10^-10,
-    0))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B24-IF(NOT(ISNUMBER(AA25)),0,SUM($Z25:AA25)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AB24)),0,SUMPRODUCT(AB$24:AB25,$H$23:$H24))),
-  ROUND(
-    ((($J$33-SUM($Z$30:AA$30))
-      * IF(AB$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AB$23:$AC$23,TRUE))-COLUMNS($Z$30:AA$30)+1))
-    -IF(NOT(ISNUMBER(AB24)),
-        0,
-        SUMPRODUCT(AB$24:AB25,$G$23:$G24)
-      )
-    )/$G24+10^-10,
-    0))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="218">
-        <f ca="1">B24-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="Z25" s="160" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA25" s="160" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB25" s="160" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC25" s="218" t="s">
+        <v>165</v>
       </c>
       <c r="AD25" s="114"/>
       <c r="AE25" s="114"/>
       <c r="AF25" s="114"/>
     </row>
-    <row r="26" spans="1:32" ht="16" customHeight="1">
+    <row r="26" spans="1:38" ht="16" customHeight="1">
       <c r="A26" s="160" t="s">
         <v>100</v>
       </c>
@@ -16053,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="112"/>
-      <c r="M26" s="233" t="s">
+      <c r="M26" s="232" t="s">
         <v>100</v>
       </c>
       <c r="N26" s="159"/>
@@ -16065,61 +16981,71 @@
       <c r="T26" s="159"/>
       <c r="U26" s="159"/>
       <c r="V26" s="159"/>
-      <c r="W26" s="222">
+      <c r="W26" s="221">
         <v>1</v>
       </c>
       <c r="X26" s="114"/>
       <c r="Y26" s="217" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z26" s="215"/>
       <c r="AA26" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B25-IF(NOT(ISNUMBER(Z26)),0,SUM($Z26:Z26)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AA25)),0,SUMPRODUCT(AA$25:AA25,$H$24:$H24))),
-  ROUND(
-    ((($J$33-SUM($Z$30:Z$30))
-      * IF(AA$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AA$23:$AC$23,TRUE))-COLUMNS($Z$30:Z$30)+1))
-    -IF(NOT(ISNUMBER(AA25)),
-        0,
-        SUMPRODUCT(AA$25:AA25,$G$24:$G24)
-      )
-    )/$G25+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$23,0,
+IFERROR(MAX(0,
+  MIN($B24-IF(NOT(ISNUMBER(Z26)),0,SUM($Z26:Z26)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AA25)),0,SUMPRODUCT(AA25:AA$26,$H23:$H$24))),
+    ROUND(
+      ((($J$33-SUM($Z$31:Z$31))
+        * IF(AA$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:Z$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA25)),
+          0,
+          SUMPRODUCT(AA25:AA$26,$G23:$G$24)
+        )
+      )/$G24+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB26" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B25-IF(NOT(ISNUMBER(AA26)),0,SUM($Z26:AA26)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AB25)),0,SUMPRODUCT(AB$25:AB25,$H$24:$H24))),
-  ROUND(
-    ((($J$33-SUM($Z$30:AA$30))
-      * IF(AB$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AB$23:$AC$23,TRUE))-COLUMNS($Z$30:AA$30)+1))
-    -IF(NOT(ISNUMBER(AB25)),
-        0,
-        SUMPRODUCT(AB$25:AB25,$G$24:$G24)
-      )
-    )/$G25+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AB$23,0,
+IFERROR(MAX(0,
+  MIN($B24-IF(NOT(ISNUMBER(AA26)),0,SUM($Z26:AA26)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AB25)),0,SUMPRODUCT(AB25:AB$26,$H23:$H$24))),
+    ROUND(
+      ((($J$33-SUM($Z$31:AA$31))
+        * IF(AB$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:AA$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB25)),
+          0,
+          SUMPRODUCT(AB25:AB$26,$G23:$G$24)
+        )
+      )/$G24+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC26" s="218">
-        <f ca="1">B25-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
+        <f ca="1">B24-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
         <v>0</v>
       </c>
       <c r="AD26" s="114"/>
       <c r="AE26" s="114"/>
       <c r="AF26" s="114"/>
     </row>
-    <row r="27" spans="1:32" ht="16" customHeight="1">
+    <row r="27" spans="1:38" ht="16" customHeight="1">
       <c r="A27" s="160" t="s">
         <v>98</v>
       </c>
@@ -16164,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="112"/>
-      <c r="M27" s="233" t="s">
+      <c r="M27" s="232" t="s">
         <v>98</v>
       </c>
       <c r="N27" s="159"/>
@@ -16176,61 +17102,71 @@
       <c r="T27" s="159"/>
       <c r="U27" s="159"/>
       <c r="V27" s="159"/>
-      <c r="W27" s="222">
+      <c r="W27" s="221">
         <v>2</v>
       </c>
       <c r="X27" s="114"/>
       <c r="Y27" s="217" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z27" s="215"/>
       <c r="AA27" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B26-IF(NOT(ISNUMBER(Z27)),0,SUM($Z27:Z27)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AA26)),0,SUMPRODUCT(AA$25:AA26,$H$24:$H25))),
-  ROUND(
-    ((($J$33-SUM($Z$30:Z$30))
-      * IF(AA$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AA$23:$AC$23,TRUE))-COLUMNS($Z$30:Z$30)+1))
-    -IF(NOT(ISNUMBER(AA26)),
-        0,
-        SUMPRODUCT(AA$25:AA26,$G$24:$G25)
-      )
-    )/$G26+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$23,0,
+IFERROR(MAX(0,
+  MIN($B25-IF(NOT(ISNUMBER(Z27)),0,SUM($Z27:Z27)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AA26)),0,SUMPRODUCT(AA26:AA$26,$H24:$H$24))),
+    ROUND(
+      ((($J$33-SUM($Z$31:Z$31))
+        * IF(AA$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:Z$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA26)),
+          0,
+          SUMPRODUCT(AA26:AA$26,$G24:$G$24)
+        )
+      )/$G25+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B26-IF(NOT(ISNUMBER(AA27)),0,SUM($Z27:AA27)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AB26)),0,SUMPRODUCT(AB$25:AB26,$H$24:$H25))),
-  ROUND(
-    ((($J$33-SUM($Z$30:AA$30))
-      * IF(AB$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AB$23:$AC$23,TRUE))-COLUMNS($Z$30:AA$30)+1))
-    -IF(NOT(ISNUMBER(AB26)),
-        0,
-        SUMPRODUCT(AB$25:AB26,$G$24:$G25)
-      )
-    )/$G26+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AB$23,0,
+IFERROR(MAX(0,
+  MIN($B25-IF(NOT(ISNUMBER(AA27)),0,SUM($Z27:AA27)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AB26)),0,SUMPRODUCT(AB26:AB$26,$H24:$H$24))),
+    ROUND(
+      ((($J$33-SUM($Z$31:AA$31))
+        * IF(AB$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:AA$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB26)),
+          0,
+          SUMPRODUCT(AB26:AB$26,$G24:$G$24)
+        )
+      )/$G25+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC27" s="218">
-        <f ca="1">B26-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
+        <f ca="1">B25-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
         <v>0</v>
       </c>
       <c r="AD27" s="114"/>
       <c r="AE27" s="114"/>
       <c r="AF27" s="114"/>
     </row>
-    <row r="28" spans="1:32" ht="16" customHeight="1">
+    <row r="28" spans="1:38" ht="16" customHeight="1">
       <c r="A28" s="160" t="s">
         <v>97</v>
       </c>
@@ -16275,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="112"/>
-      <c r="M28" s="234" t="s">
+      <c r="M28" s="233" t="s">
         <v>97</v>
       </c>
       <c r="N28" s="159"/>
@@ -16287,61 +17223,71 @@
       <c r="T28" s="159"/>
       <c r="U28" s="159"/>
       <c r="V28" s="159"/>
-      <c r="W28" s="222">
+      <c r="W28" s="221">
         <v>3</v>
       </c>
       <c r="X28" s="114"/>
       <c r="Y28" s="217" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z28" s="215"/>
       <c r="AA28" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B27-IF(NOT(ISNUMBER(Z28)),0,SUM($Z28:Z28)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AA27)),0,SUMPRODUCT(AA25:AA$27,$H24:$H$26))),
-  ROUND(
-    ((($J$33-SUM($Z$30:Z$30))
-      * IF(AA$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AA$23:$AC$23,TRUE))-COLUMNS($Z$30:Z$30)+1))
-    -IF(NOT(ISNUMBER(AA27)),
-        0,
-        SUMPRODUCT(AA25:AA$27,$G24:$G$26)
-      )
-    )/$G27+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$23,0,
+IFERROR(MAX(0,
+  MIN($B26-IF(NOT(ISNUMBER(Z28)),0,SUM($Z28:Z28)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AA27)),0,SUMPRODUCT(AA$26:AA27,$H$24:$H25))),
+    ROUND(
+      ((($J$33-SUM($Z$31:Z$31))
+        * IF(AA$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:Z$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA27)),
+          0,
+          SUMPRODUCT(AA$26:AA27,$G$24:$G25)
+        )
+      )/$G26+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB28" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B27-IF(NOT(ISNUMBER(AA28)),0,SUM($Z28:AA28)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AB27)),0,SUMPRODUCT(AB25:AB$27,$H24:$H$26))),
-  ROUND(
-    ((($J$33-SUM($Z$30:AA$30))
-      * IF(AB$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AB$23:$AC$23,TRUE))-COLUMNS($Z$30:AA$30)+1))
-    -IF(NOT(ISNUMBER(AB27)),
-        0,
-        SUMPRODUCT(AB25:AB$27,$G24:$G$26)
-      )
-    )/$G27+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AB$23,0,
+IFERROR(MAX(0,
+  MIN($B26-IF(NOT(ISNUMBER(AA28)),0,SUM($Z28:AA28)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AB27)),0,SUMPRODUCT(AB$26:AB27,$H$24:$H25))),
+    ROUND(
+      ((($J$33-SUM($Z$31:AA$31))
+        * IF(AB$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:AA$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB27)),
+          0,
+          SUMPRODUCT(AB$26:AB27,$G$24:$G25)
+        )
+      )/$G26+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC28" s="218">
-        <f ca="1">B27-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
+        <f ca="1">B26-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
         <v>0</v>
       </c>
       <c r="AD28" s="114"/>
       <c r="AE28" s="114"/>
       <c r="AF28" s="114"/>
     </row>
-    <row r="29" spans="1:32" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="1:38" ht="16" customHeight="1" thickBot="1">
       <c r="A29" s="114"/>
       <c r="B29" s="114"/>
       <c r="C29" s="114"/>
@@ -16354,118 +17300,128 @@
       <c r="J29" s="114"/>
       <c r="K29" s="114"/>
       <c r="L29" s="112"/>
-      <c r="M29" s="230" t="s">
+      <c r="M29" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="N29" s="231">
+      <c r="N29" s="230">
         <f t="array" aca="1" ref="N29" ca="1">SUMPRODUCT(N$9:N$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>68200</v>
       </c>
-      <c r="O29" s="231">
+      <c r="O29" s="230">
         <f t="array" aca="1" ref="O29" ca="1">SUMPRODUCT(O$9:O$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>52320</v>
       </c>
-      <c r="P29" s="231">
+      <c r="P29" s="230">
         <f t="array" aca="1" ref="P29" ca="1">SUMPRODUCT(P$9:P$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>83560</v>
       </c>
-      <c r="Q29" s="231">
+      <c r="Q29" s="230">
         <f t="array" aca="1" ref="Q29" ca="1">SUMPRODUCT(Q$9:Q$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>88960</v>
       </c>
-      <c r="R29" s="231">
+      <c r="R29" s="230">
         <f t="array" aca="1" ref="R29" ca="1">SUMPRODUCT(R$9:R$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>82760</v>
       </c>
-      <c r="S29" s="231">
+      <c r="S29" s="230">
         <f t="array" aca="1" ref="S29" ca="1">SUMPRODUCT(S$9:S$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>0</v>
       </c>
-      <c r="T29" s="231">
+      <c r="T29" s="230">
         <f t="array" aca="1" ref="T29" ca="1">SUMPRODUCT(T$9:T$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>46340</v>
       </c>
-      <c r="U29" s="231">
+      <c r="U29" s="230">
         <f t="array" aca="1" ref="U29" ca="1">SUMPRODUCT(U$9:U$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>24800</v>
       </c>
-      <c r="V29" s="231">
+      <c r="V29" s="230">
         <f t="array" aca="1" ref="V29" ca="1">SUMPRODUCT(V$9:V$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>0</v>
       </c>
-      <c r="W29" s="232">
+      <c r="W29" s="231">
         <f t="array" aca="1" ref="W29" ca="1">SUMPRODUCT(W$9:W$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
         <v>64920</v>
       </c>
       <c r="X29" s="114"/>
       <c r="Y29" s="217" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z29" s="215"/>
       <c r="AA29" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B28-IF(NOT(ISNUMBER(Z29)),0,SUM($Z29:Z29)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AA28)),0,SUMPRODUCT(AA25:AA$28,$H24:$H$27))),
-  ROUND(
-    ((($J$33-SUM($Z$30:Z$30))
-      * IF(AA$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AA$23:$AC$23,TRUE))-COLUMNS($Z$30:Z$30)+1))
-    -IF(NOT(ISNUMBER(AA28)),
-        0,
-        SUMPRODUCT(AA25:AA$28,$G24:$G$27)
-      )
-    )/$G28+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AA$23,0,
+IFERROR(MAX(0,
+  MIN($B27-IF(NOT(ISNUMBER(Z29)),0,SUM($Z29:Z29)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AA28)),0,SUMPRODUCT(AA$26:AA28,$H$24:$H26))),
+    ROUND(
+      ((($J$33-SUM($Z$31:Z$31))
+        * IF(AA$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:Z$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA28)),
+          0,
+          SUMPRODUCT(AA$26:AA28,$G$24:$G26)
+        )
+      )/$G27+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AB29" s="160">
-        <f ca="1">IFERROR(MAX(0,
-MIN($B28-IF(NOT(ISNUMBER(AA29)),0,SUM($Z29:AA29)),
-  IF($AB$4,
-    {FALSE},
-    VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_DarkBar[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
-      -IF(NOT(ISNUMBER(AB28)),0,SUMPRODUCT(AB25:AB$28,$H24:$H$27))),
-  ROUND(
-    ((($J$33-SUM($Z$30:AA$30))
-      * IF(AB$23,4,1)
-      / (NumDarkBarracks+(3*COUNTIF(AB$23:$AC$23,TRUE))-COLUMNS($Z$30:AA$30)+1))
-    -IF(NOT(ISNUMBER(AB28)),
-        0,
-        SUMPRODUCT(AB25:AB$28,$G24:$G$27)
-      )
-    )/$G28+10^-10,
-    0))),0)</f>
+        <f ca="1">IF(AB$23,0,
+IFERROR(MAX(0,
+  MIN($B27-IF(NOT(ISNUMBER(AA29)),0,SUM($Z29:AA29)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AB28)),0,SUMPRODUCT(AB$26:AB28,$H$24:$H26))),
+    ROUND(
+      ((($J$33-SUM($Z$31:AA$31))
+        * IF(AB$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:AA$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB28)),
+          0,
+          SUMPRODUCT(AB$26:AB28,$G$24:$G26)
+        )
+      )/$G27+10^-10,
+      0))),0))</f>
         <v>0</v>
       </c>
       <c r="AC29" s="218">
-        <f ca="1">B28-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
+        <f ca="1">B27-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
         <v>0</v>
       </c>
       <c r="AD29" s="114"/>
       <c r="AE29" s="114"/>
       <c r="AF29" s="114"/>
     </row>
-    <row r="30" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="317" t="s">
+    <row r="30" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A30" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="249"/>
-      <c r="C30" s="250"/>
+      <c r="B30" s="248"/>
+      <c r="C30" s="249"/>
       <c r="D30" s="114"/>
-      <c r="E30" s="317" t="s">
+      <c r="E30" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="318"/>
-      <c r="G30" s="319"/>
+      <c r="F30" s="317"/>
+      <c r="G30" s="318"/>
       <c r="H30" s="114"/>
-      <c r="I30" s="317" t="s">
-        <v>293</v>
-      </c>
-      <c r="J30" s="249"/>
-      <c r="K30" s="250"/>
+      <c r="I30" s="316" t="s">
+        <v>292</v>
+      </c>
+      <c r="J30" s="248"/>
+      <c r="K30" s="249"/>
       <c r="L30" s="112"/>
       <c r="M30" s="108" t="s">
         <v>186</v>
@@ -16511,30 +17467,67 @@
         <v>60000</v>
       </c>
       <c r="X30" s="114"/>
-      <c r="Y30" s="219" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z30" s="223">
-        <f>SUMPRODUCT(BO_DarkBar[Already Built],$G24:$G28)</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="223">
-        <f ca="1">SUMPRODUCT(BO_DarkBar[DB1],$G24:$G28)</f>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="223">
-        <f ca="1">SUMPRODUCT(BO_DarkBar[DB2],$G24:$G28)</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="224">
-        <f ca="1">COUNTIF(BO_DarkBar[Left],"&lt;&gt;0")</f>
+      <c r="Y30" s="217" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z30" s="215"/>
+      <c r="AA30" s="160">
+        <f ca="1">IF(AA$23,0,
+IFERROR(MAX(0,
+  MIN($B28-IF(NOT(ISNUMBER(Z30)),0,SUM($Z30:Z30)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AA29)),0,SUMPRODUCT(AA$26:AA29,$H$24:$H27))),
+    ROUND(
+      ((($J$33-SUM($Z$31:Z$31))
+        * IF(AA$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AA$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:Z$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AB$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AA29)),
+          0,
+          SUMPRODUCT(AA$26:AA29,$G$24:$G27)
+        )
+      )/$G28+10^-10,
+      0))),0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="160">
+        <f ca="1">IF(AB$23,0,
+IFERROR(MAX(0,
+  MIN($B28-IF(NOT(ISNUMBER(AA30)),0,SUM($Z30:AA30)),
+    IF($AB$3,
+      {FALSE},
+      VLOOKUP(INDEX(Calculations!$E$4:$E$9,MATCH(BO_Barracks[#Headers],Calculations!$D$4:$D$9,0)),Cap_DB[],2)
+        -IF(NOT(ISNUMBER(AB29)),0,SUMPRODUCT(AB$26:AB29,$H$24:$H27))),
+    ROUND(
+      ((($J$33-SUM($Z$31:AA$31))
+        * IF(AB$24,4,1)
+        / (NumBarracks
+            + (3*COUNTIF(AB$24:$AB$24,TRUE)) +N("Account for boosted dark barracks")
+            - COLUMNS($Z$31:AA$31) + N("This is the N-cols()'th barrack")
+            +1 +N("Cols counts the current cell, so add 1")
+            - COUNTIF(AC$23:$AC$23,TRUE) +N("Future disabled barracks don't count")))
+      -IF(NOT(ISNUMBER(AB29)),
+          0,
+          SUMPRODUCT(AB$26:AB29,$G$24:$G27)
+        )
+      )/$G28+10^-10,
+      0))),0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="218">
+        <f ca="1">B28-SUM(BO_DarkBar[[#This Row],[Already Built]:[DB2]])</f>
         <v>0</v>
       </c>
       <c r="AD30" s="114"/>
       <c r="AE30" s="114"/>
       <c r="AF30" s="114"/>
     </row>
-    <row r="31" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="60" t="s">
         <v>138</v>
       </c>
@@ -16609,36 +17602,36 @@
         <v>124920</v>
       </c>
       <c r="X31" s="114"/>
-      <c r="Y31" s="225" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z31" s="226">
-        <f>SUMPRODUCT(BO_DarkBar[Already Built],$H24:$H28)</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="226">
-        <f ca="1">SUMPRODUCT(BO_DarkBar[DB1],$H24:$H28)</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="226">
-        <f ca="1">SUMPRODUCT(BO_DarkBar[DB2],$H24:$H28)</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="227">
-        <f ca="1">SUMPRODUCT(BO_DarkBar[Left],$H24:$H28)</f>
+      <c r="Y31" s="219" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z31" s="222">
+        <f>SUMPRODUCT(BO_DarkBar[Already Built],$G24:$G28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="222">
+        <f ca="1">SUMPRODUCT(BO_DarkBar[DB1],$G24:$G28)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="222">
+        <f ca="1">SUMPRODUCT(BO_DarkBar[DB2],$G24:$G28)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="223">
+        <f ca="1">COUNTIF(BO_DarkBar[Left],"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="AD31" s="114"/>
       <c r="AE31" s="114"/>
       <c r="AF31" s="114"/>
     </row>
-    <row r="32" spans="1:32" ht="16" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="61" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="13">
         <f ca="1">SUMIFS(ArmyState[Total Cost],ArmyState[Resource],B$31,ArmyState[Type],$A32)</f>
-        <v>83560</v>
+        <v>82760</v>
       </c>
       <c r="C32" s="78">
         <f ca="1">SUMIFS(ArmyState[Total Cost],ArmyState[Resource],C$31,ArmyState[Type],$A32)</f>
@@ -16652,7 +17645,7 @@
         <f>ArmyCap</f>
         <v>200</v>
       </c>
-      <c r="G32" s="228">
+      <c r="G32" s="227">
         <f>F32-SUMIFS(ArmyState[Total Space],ArmyState[Type],E32)</f>
         <v>0</v>
       </c>
@@ -16662,11 +17655,11 @@
       </c>
       <c r="J32" s="75">
         <f>SUMIFS(ArmyState[Total Time],ArmyState[Type],"Unit",ArmyState[Resource],"Elixir")</f>
-        <v>136</v>
+        <v>140.16666666666669</v>
       </c>
       <c r="K32" s="179">
         <f ca="1">J32/NumBarracks</f>
-        <v>34</v>
+        <v>35.041666666666671</v>
       </c>
       <c r="L32" s="112"/>
       <c r="M32" s="108" t="s">
@@ -16713,11 +17706,25 @@
         <v>868</v>
       </c>
       <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="114"/>
-      <c r="AA32" s="114"/>
-      <c r="AB32" s="114"/>
-      <c r="AC32" s="114"/>
+      <c r="Y32" s="224" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z32" s="225">
+        <f>SUMPRODUCT(BO_DarkBar[Already Built],$H24:$H28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="225">
+        <f ca="1">SUMPRODUCT(BO_DarkBar[DB1],$H24:$H28)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="225">
+        <f ca="1">SUMPRODUCT(BO_DarkBar[DB2],$H24:$H28)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="226">
+        <f ca="1">SUMPRODUCT(BO_DarkBar[Left],$H24:$H28)</f>
+        <v>0</v>
+      </c>
       <c r="AD32" s="114"/>
       <c r="AE32" s="114"/>
       <c r="AF32" s="114"/>
@@ -16742,7 +17749,7 @@
         <f ca="1">SpellCap</f>
         <v>3</v>
       </c>
-      <c r="G33" s="229">
+      <c r="G33" s="228">
         <f ca="1">F33-SUMIFS(ArmyState[Total Space],ArmyState[Type],E33)</f>
         <v>0</v>
       </c>
@@ -16786,7 +17793,7 @@
       </c>
       <c r="B34" s="25">
         <f ca="1">SUM(B32:B33)</f>
-        <v>153560</v>
+        <v>152760</v>
       </c>
       <c r="C34" s="80">
         <f ca="1">SUM(C32:C33)</f>
@@ -16877,9 +17884,9 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="Y1:AE2"/>
-    <mergeCell ref="Y6:AE6"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AC3:AE3"/>
     <mergeCell ref="N3:W4"/>
     <mergeCell ref="H1:K2"/>
     <mergeCell ref="I3:K3"/>
@@ -16887,34 +17894,54 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I5:K5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B32:C34 J32:K34 I9:K28 N29:W32 AA9:AD18 B9:B28 AA25:AC29 F32:G33">
-    <cfRule type="cellIs" dxfId="258" priority="97" operator="equal">
+  <conditionalFormatting sqref="B32:C34 J32:K34 I9:K28 N29:W32 B9:B28 F32:G33 AA9:AD18 AA26:AC30">
+    <cfRule type="cellIs" dxfId="73" priority="102" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A48 A41:B46 A39:A40 A7:K28 N46:S46 A36:AI37 A3 A1 G1:L6 M6:W32 Q41:S42 H35:L35 A38:S38 AF9:AI32 R39:S40 P43:S45 E30 A29:D35 E29:G29 L7:L34 M1:M5 N3:W5 N1:X2 X3:X32 M33:AI35 Y1:AE32 AG1:AH6 AG7:AI8 AF1:AF8 H29:K34 E31:G35 AA38:AI38 AA46:AI48 T39:AA45">
-    <cfRule type="containsErrors" dxfId="257" priority="17">
+  <conditionalFormatting sqref="A47:A48 A41:B46 A39:A40 A7:K28 N46:S46 A36:AI37 A3 A1 G1:L6 M6:W32 Q41:S42 H35:L35 A38:S38 AF9:AI32 R39:S40 P43:S45 E30 A29:D35 E29:G29 L7:L34 M1:M5 N3:W5 X3:X32 M33:AI35 N1:AE2 AG1:AH6 AG7:AI8 AF1:AF8 H29:K34 E31:G35 AA38:AI38 AD46:AI48 T39:AA39 Y3:AE5 T40:X45 Y7:AE21 AD22:AE32 Y22:AC22 Y24:AC32">
+    <cfRule type="containsErrors" dxfId="72" priority="22">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G33 AE9:AE18 AC25:AC29">
-    <cfRule type="cellIs" dxfId="256" priority="95" operator="greaterThan">
+  <conditionalFormatting sqref="G32:G33 AE9:AE18 AC26:AC30">
+    <cfRule type="cellIs" dxfId="71" priority="100" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE9:AE18 AC25:AC29 G32:G33">
-    <cfRule type="cellIs" dxfId="255" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="AE9:AE18 AC26:AC30 G32:G33">
+    <cfRule type="cellIs" dxfId="70" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:W8">
-    <cfRule type="expression" dxfId="254" priority="273">
+    <cfRule type="expression" dxfId="69" priority="278">
       <formula>$P$6=N$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:W28">
-    <cfRule type="expression" dxfId="253" priority="274">
+    <cfRule type="expression" dxfId="68" priority="279">
       <formula>$P$6=N$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6:AD6">
+    <cfRule type="containsErrors" dxfId="67" priority="5">
+      <formula>ISERROR(Z6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="containsErrors" dxfId="66" priority="4">
+      <formula>ISERROR(Y6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE6">
+    <cfRule type="containsErrors" dxfId="65" priority="3">
+      <formula>ISERROR(AE6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23:AC23">
+    <cfRule type="containsErrors" dxfId="64" priority="1">
+      <formula>ISERROR(Y23)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -16924,14 +17951,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
       <formula1>UnitSetNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AD7 AB4 AA23:AB23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AD7 AB3 AA23:AB24">
       <formula1>Booleans</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="AA9:AA18 AA25:AA29" calculatedColumn="1"/>
+    <ignoredError sqref="AA9:AA18 AA26:AA30" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
@@ -16964,97 +17991,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickTop="1">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="352" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="355"/>
+      <c r="B1" s="353"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="353"/>
+      <c r="F1" s="354"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="356"/>
-      <c r="B2" s="357"/>
-      <c r="C2" s="357"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="358"/>
+      <c r="A2" s="355"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="357"/>
     </row>
     <row r="3" spans="1:6" ht="16" thickTop="1"/>
     <row r="4" spans="1:6">
-      <c r="A4" s="359" t="s">
+      <c r="A4" s="358" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="360"/>
-      <c r="C4" s="360"/>
-      <c r="D4" s="360"/>
-      <c r="E4" s="360"/>
-      <c r="F4" s="360"/>
+      <c r="B4" s="359"/>
+      <c r="C4" s="359"/>
+      <c r="D4" s="359"/>
+      <c r="E4" s="359"/>
+      <c r="F4" s="359"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="360"/>
-      <c r="B5" s="360"/>
-      <c r="C5" s="360"/>
-      <c r="D5" s="360"/>
-      <c r="E5" s="360"/>
-      <c r="F5" s="360"/>
+      <c r="A5" s="359"/>
+      <c r="B5" s="359"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="360"/>
-      <c r="B6" s="360"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
+      <c r="A6" s="359"/>
+      <c r="B6" s="359"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="360"/>
-      <c r="B7" s="360"/>
-      <c r="C7" s="360"/>
-      <c r="D7" s="360"/>
-      <c r="E7" s="360"/>
-      <c r="F7" s="360"/>
+      <c r="A7" s="359"/>
+      <c r="B7" s="359"/>
+      <c r="C7" s="359"/>
+      <c r="D7" s="359"/>
+      <c r="E7" s="359"/>
+      <c r="F7" s="359"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="360"/>
-      <c r="B8" s="360"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="A8" s="359"/>
+      <c r="B8" s="359"/>
+      <c r="C8" s="359"/>
+      <c r="D8" s="359"/>
+      <c r="E8" s="359"/>
+      <c r="F8" s="359"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="360"/>
-      <c r="B9" s="360"/>
-      <c r="C9" s="360"/>
-      <c r="D9" s="360"/>
-      <c r="E9" s="360"/>
-      <c r="F9" s="360"/>
+      <c r="A9" s="359"/>
+      <c r="B9" s="359"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="361"/>
-      <c r="B10" s="361"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="A10" s="360"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="360"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="361"/>
-      <c r="B11" s="361"/>
-      <c r="C11" s="361"/>
-      <c r="D11" s="361"/>
-      <c r="E11" s="361"/>
-      <c r="F11" s="361"/>
+      <c r="A11" s="360"/>
+      <c r="B11" s="360"/>
+      <c r="C11" s="360"/>
+      <c r="D11" s="360"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="361"/>
-      <c r="B12" s="361"/>
-      <c r="C12" s="361"/>
-      <c r="D12" s="361"/>
-      <c r="E12" s="361"/>
-      <c r="F12" s="361"/>
+      <c r="A12" s="360"/>
+      <c r="B12" s="360"/>
+      <c r="C12" s="360"/>
+      <c r="D12" s="360"/>
+      <c r="E12" s="360"/>
+      <c r="F12" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17076,10 +18103,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17092,10 +18119,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1"/>
     <row r="2" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B2" s="362" t="s">
+      <c r="B2" s="361" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="363"/>
+      <c r="C2" s="362"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickTop="1">
       <c r="B3" s="89"/>
@@ -17193,10 +18220,10 @@
       <c r="C19" s="28"/>
     </row>
     <row r="20" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B20" s="362" t="s">
+      <c r="B20" s="361" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="363"/>
+      <c r="C20" s="362"/>
     </row>
     <row r="21" spans="2:3" ht="16" thickTop="1">
       <c r="B21" s="89"/>
@@ -17212,10 +18239,10 @@
       <c r="B23" s="100"/>
     </row>
     <row r="24" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B24" s="362" t="s">
+      <c r="B24" s="361" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="363"/>
+      <c r="C24" s="362"/>
     </row>
     <row r="25" spans="2:3" ht="46" thickTop="1">
       <c r="B25" s="92"/>
@@ -17251,10 +18278,10 @@
       <c r="B30" s="100"/>
     </row>
     <row r="31" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B31" s="362" t="s">
+      <c r="B31" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="363"/>
+      <c r="C31" s="362"/>
     </row>
     <row r="32" spans="2:3" ht="16" thickTop="1">
       <c r="B32" s="148"/>
@@ -17286,10 +18313,10 @@
     </row>
     <row r="37" spans="1:3" ht="17" thickTop="1" thickBot="1"/>
     <row r="38" spans="1:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B38" s="362" t="s">
+      <c r="B38" s="361" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="363"/>
+      <c r="C38" s="362"/>
     </row>
     <row r="39" spans="1:3" ht="16" thickTop="1">
       <c r="B39" s="141" t="s">
@@ -17380,49 +18407,50 @@
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="30">
       <c r="A49" s="100"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="101"/>
-    </row>
-    <row r="50" spans="1:3" ht="16" thickBot="1">
+      <c r="B49" s="103">
+        <v>41853</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="100"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="102"/>
-    </row>
-    <row r="51" spans="1:3" ht="17" thickTop="1" thickBot="1">
+      <c r="B50" s="103"/>
+      <c r="C50" s="101"/>
+    </row>
+    <row r="51" spans="1:3" ht="16" thickBot="1">
       <c r="A51" s="100"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="102"/>
     </row>
     <row r="52" spans="1:3" ht="17" thickTop="1" thickBot="1">
       <c r="A52" s="100"/>
-      <c r="B52" s="362" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="17" thickTop="1" thickBot="1">
+      <c r="A53" s="100"/>
+      <c r="B53" s="361" t="s">
         <v>282</v>
       </c>
-      <c r="C52" s="363"/>
-    </row>
-    <row r="53" spans="1:3" ht="16" thickTop="1">
-      <c r="A53" s="100"/>
-      <c r="B53" s="141" t="s">
+      <c r="C53" s="362"/>
+    </row>
+    <row r="54" spans="1:3" ht="16" thickTop="1">
+      <c r="A54" s="100"/>
+      <c r="B54" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="142" t="s">
+      <c r="C54" s="142" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="94" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="101" t="s">
-        <v>281</v>
+      <c r="C55" s="94" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -17430,34 +18458,42 @@
         <v>140</v>
       </c>
       <c r="C56" s="101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="138"/>
-      <c r="C57" s="101"/>
-    </row>
     <row r="58" spans="1:3">
-      <c r="B58" s="139"/>
-      <c r="C58" s="140"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="101"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="B59" s="103"/>
-      <c r="C59" s="101"/>
-    </row>
-    <row r="60" spans="1:3" ht="16" thickBot="1">
-      <c r="B60" s="104"/>
-      <c r="C60" s="102"/>
-    </row>
-    <row r="61" spans="1:3" ht="16" thickTop="1"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="140"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="103"/>
+      <c r="C60" s="101"/>
+    </row>
+    <row r="61" spans="1:3" ht="16" thickBot="1">
+      <c r="B61" s="104"/>
+      <c r="C61" s="102"/>
+    </row>
+    <row r="62" spans="1:3" ht="16" thickTop="1"/>
   </sheetData>
-  <sheetProtection password="9AF0" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection password="9AF0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -17501,35 +18537,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="366" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
-      <c r="P1" s="368"/>
-      <c r="Q1" s="368"/>
-      <c r="R1" s="368"/>
-      <c r="S1" s="368"/>
-      <c r="T1" s="368"/>
-      <c r="U1" s="368"/>
-      <c r="V1" s="368"/>
-      <c r="W1" s="368"/>
-      <c r="X1" s="368"/>
-      <c r="Y1" s="368"/>
-      <c r="Z1" s="368"/>
-      <c r="AA1" s="369"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
+      <c r="N1" s="367"/>
+      <c r="O1" s="367"/>
+      <c r="P1" s="367"/>
+      <c r="Q1" s="367"/>
+      <c r="R1" s="367"/>
+      <c r="S1" s="367"/>
+      <c r="T1" s="367"/>
+      <c r="U1" s="367"/>
+      <c r="V1" s="367"/>
+      <c r="W1" s="367"/>
+      <c r="X1" s="367"/>
+      <c r="Y1" s="367"/>
+      <c r="Z1" s="367"/>
+      <c r="AA1" s="368"/>
     </row>
     <row r="2" spans="1:27" ht="16" customHeight="1" thickTop="1">
       <c r="A2" s="11" t="s">
@@ -21711,35 +22747,35 @@
       <c r="AA52" s="67"/>
     </row>
     <row r="53" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A53" s="364" t="s">
+      <c r="A53" s="363" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="365"/>
-      <c r="C53" s="365"/>
-      <c r="D53" s="365"/>
-      <c r="E53" s="365"/>
-      <c r="F53" s="365"/>
-      <c r="G53" s="365"/>
-      <c r="H53" s="365"/>
-      <c r="I53" s="365"/>
-      <c r="J53" s="365"/>
-      <c r="K53" s="365"/>
-      <c r="L53" s="365"/>
-      <c r="M53" s="365"/>
-      <c r="N53" s="365"/>
-      <c r="O53" s="365"/>
-      <c r="P53" s="365"/>
-      <c r="Q53" s="365"/>
-      <c r="R53" s="365"/>
-      <c r="S53" s="365"/>
-      <c r="T53" s="365"/>
-      <c r="U53" s="365"/>
-      <c r="V53" s="365"/>
-      <c r="W53" s="365"/>
-      <c r="X53" s="365"/>
-      <c r="Y53" s="365"/>
-      <c r="Z53" s="365"/>
-      <c r="AA53" s="366"/>
+      <c r="B53" s="364"/>
+      <c r="C53" s="364"/>
+      <c r="D53" s="364"/>
+      <c r="E53" s="364"/>
+      <c r="F53" s="364"/>
+      <c r="G53" s="364"/>
+      <c r="H53" s="364"/>
+      <c r="I53" s="364"/>
+      <c r="J53" s="364"/>
+      <c r="K53" s="364"/>
+      <c r="L53" s="364"/>
+      <c r="M53" s="364"/>
+      <c r="N53" s="364"/>
+      <c r="O53" s="364"/>
+      <c r="P53" s="364"/>
+      <c r="Q53" s="364"/>
+      <c r="R53" s="364"/>
+      <c r="S53" s="364"/>
+      <c r="T53" s="364"/>
+      <c r="U53" s="364"/>
+      <c r="V53" s="364"/>
+      <c r="W53" s="364"/>
+      <c r="X53" s="364"/>
+      <c r="Y53" s="364"/>
+      <c r="Z53" s="364"/>
+      <c r="AA53" s="365"/>
     </row>
     <row r="54" spans="1:27" ht="17" thickTop="1" thickBot="1">
       <c r="A54" s="50"/>
@@ -21771,13 +22807,13 @@
       <c r="AA54" s="67"/>
     </row>
     <row r="55" spans="1:27" ht="19" thickTop="1">
-      <c r="A55" s="370" t="s">
+      <c r="A55" s="369" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="371"/>
-      <c r="C55" s="371"/>
-      <c r="D55" s="371"/>
-      <c r="E55" s="372"/>
+      <c r="B55" s="370"/>
+      <c r="C55" s="370"/>
+      <c r="D55" s="370"/>
+      <c r="E55" s="371"/>
       <c r="H55" s="65"/>
       <c r="I55" s="65"/>
       <c r="J55" s="65"/>
@@ -23064,35 +24100,35 @@
     </row>
     <row r="97" spans="1:27" ht="16" thickBot="1"/>
     <row r="98" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A98" s="364" t="s">
+      <c r="A98" s="363" t="s">
         <v>274</v>
       </c>
-      <c r="B98" s="365"/>
-      <c r="C98" s="365"/>
-      <c r="D98" s="365"/>
-      <c r="E98" s="365"/>
-      <c r="F98" s="365"/>
-      <c r="G98" s="365"/>
-      <c r="H98" s="365"/>
-      <c r="I98" s="365"/>
-      <c r="J98" s="365"/>
-      <c r="K98" s="365"/>
-      <c r="L98" s="365"/>
-      <c r="M98" s="365"/>
-      <c r="N98" s="365"/>
-      <c r="O98" s="365"/>
-      <c r="P98" s="365"/>
-      <c r="Q98" s="365"/>
-      <c r="R98" s="365"/>
-      <c r="S98" s="365"/>
-      <c r="T98" s="365"/>
-      <c r="U98" s="365"/>
-      <c r="V98" s="365"/>
-      <c r="W98" s="365"/>
-      <c r="X98" s="365"/>
-      <c r="Y98" s="365"/>
-      <c r="Z98" s="365"/>
-      <c r="AA98" s="366"/>
+      <c r="B98" s="364"/>
+      <c r="C98" s="364"/>
+      <c r="D98" s="364"/>
+      <c r="E98" s="364"/>
+      <c r="F98" s="364"/>
+      <c r="G98" s="364"/>
+      <c r="H98" s="364"/>
+      <c r="I98" s="364"/>
+      <c r="J98" s="364"/>
+      <c r="K98" s="364"/>
+      <c r="L98" s="364"/>
+      <c r="M98" s="364"/>
+      <c r="N98" s="364"/>
+      <c r="O98" s="364"/>
+      <c r="P98" s="364"/>
+      <c r="Q98" s="364"/>
+      <c r="R98" s="364"/>
+      <c r="S98" s="364"/>
+      <c r="T98" s="364"/>
+      <c r="U98" s="364"/>
+      <c r="V98" s="364"/>
+      <c r="W98" s="364"/>
+      <c r="X98" s="364"/>
+      <c r="Y98" s="364"/>
+      <c r="Z98" s="364"/>
+      <c r="AA98" s="365"/>
     </row>
     <row r="99" spans="1:27" ht="16" thickTop="1"/>
     <row r="100" spans="1:27">
@@ -23286,35 +24322,35 @@
     </row>
     <row r="112" spans="1:27" ht="16" thickBot="1"/>
     <row r="113" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A113" s="367" t="s">
+      <c r="A113" s="366" t="s">
         <v>152</v>
       </c>
-      <c r="B113" s="368"/>
-      <c r="C113" s="368"/>
-      <c r="D113" s="368"/>
-      <c r="E113" s="368"/>
-      <c r="F113" s="368"/>
-      <c r="G113" s="368"/>
-      <c r="H113" s="368"/>
-      <c r="I113" s="368"/>
-      <c r="J113" s="368"/>
-      <c r="K113" s="368"/>
-      <c r="L113" s="368"/>
-      <c r="M113" s="368"/>
-      <c r="N113" s="368"/>
-      <c r="O113" s="368"/>
-      <c r="P113" s="368"/>
-      <c r="Q113" s="368"/>
-      <c r="R113" s="368"/>
-      <c r="S113" s="368"/>
-      <c r="T113" s="368"/>
-      <c r="U113" s="368"/>
-      <c r="V113" s="368"/>
-      <c r="W113" s="368"/>
-      <c r="X113" s="368"/>
-      <c r="Y113" s="368"/>
-      <c r="Z113" s="368"/>
-      <c r="AA113" s="369"/>
+      <c r="B113" s="367"/>
+      <c r="C113" s="367"/>
+      <c r="D113" s="367"/>
+      <c r="E113" s="367"/>
+      <c r="F113" s="367"/>
+      <c r="G113" s="367"/>
+      <c r="H113" s="367"/>
+      <c r="I113" s="367"/>
+      <c r="J113" s="367"/>
+      <c r="K113" s="367"/>
+      <c r="L113" s="367"/>
+      <c r="M113" s="367"/>
+      <c r="N113" s="367"/>
+      <c r="O113" s="367"/>
+      <c r="P113" s="367"/>
+      <c r="Q113" s="367"/>
+      <c r="R113" s="367"/>
+      <c r="S113" s="367"/>
+      <c r="T113" s="367"/>
+      <c r="U113" s="367"/>
+      <c r="V113" s="367"/>
+      <c r="W113" s="367"/>
+      <c r="X113" s="367"/>
+      <c r="Y113" s="367"/>
+      <c r="Z113" s="367"/>
+      <c r="AA113" s="368"/>
     </row>
     <row r="114" spans="1:27" ht="16" thickTop="1">
       <c r="A114" s="11" t="s">
@@ -24053,35 +25089,35 @@
     </row>
     <row r="136" spans="1:27" ht="16" thickBot="1"/>
     <row r="137" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A137" s="364" t="s">
+      <c r="A137" s="363" t="s">
         <v>103</v>
       </c>
-      <c r="B137" s="365"/>
-      <c r="C137" s="365"/>
-      <c r="D137" s="365"/>
-      <c r="E137" s="365"/>
-      <c r="F137" s="365"/>
-      <c r="G137" s="365"/>
-      <c r="H137" s="365"/>
-      <c r="I137" s="365"/>
-      <c r="J137" s="365"/>
-      <c r="K137" s="365"/>
-      <c r="L137" s="365"/>
-      <c r="M137" s="365"/>
-      <c r="N137" s="365"/>
-      <c r="O137" s="365"/>
-      <c r="P137" s="365"/>
-      <c r="Q137" s="365"/>
-      <c r="R137" s="365"/>
-      <c r="S137" s="365"/>
-      <c r="T137" s="365"/>
-      <c r="U137" s="365"/>
-      <c r="V137" s="365"/>
-      <c r="W137" s="365"/>
-      <c r="X137" s="365"/>
-      <c r="Y137" s="365"/>
-      <c r="Z137" s="365"/>
-      <c r="AA137" s="366"/>
+      <c r="B137" s="364"/>
+      <c r="C137" s="364"/>
+      <c r="D137" s="364"/>
+      <c r="E137" s="364"/>
+      <c r="F137" s="364"/>
+      <c r="G137" s="364"/>
+      <c r="H137" s="364"/>
+      <c r="I137" s="364"/>
+      <c r="J137" s="364"/>
+      <c r="K137" s="364"/>
+      <c r="L137" s="364"/>
+      <c r="M137" s="364"/>
+      <c r="N137" s="364"/>
+      <c r="O137" s="364"/>
+      <c r="P137" s="364"/>
+      <c r="Q137" s="364"/>
+      <c r="R137" s="364"/>
+      <c r="S137" s="364"/>
+      <c r="T137" s="364"/>
+      <c r="U137" s="364"/>
+      <c r="V137" s="364"/>
+      <c r="W137" s="364"/>
+      <c r="X137" s="364"/>
+      <c r="Y137" s="364"/>
+      <c r="Z137" s="364"/>
+      <c r="AA137" s="365"/>
     </row>
     <row r="138" spans="1:27" ht="16" thickTop="1">
       <c r="A138" s="11" t="s">
@@ -25905,35 +26941,35 @@
     </row>
     <row r="190" spans="1:27" ht="16" thickBot="1"/>
     <row r="191" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A191" s="364" t="s">
+      <c r="A191" s="363" t="s">
         <v>127</v>
       </c>
-      <c r="B191" s="365"/>
-      <c r="C191" s="365"/>
-      <c r="D191" s="365"/>
-      <c r="E191" s="365"/>
-      <c r="F191" s="365"/>
-      <c r="G191" s="365"/>
-      <c r="H191" s="365"/>
-      <c r="I191" s="365"/>
-      <c r="J191" s="365"/>
-      <c r="K191" s="365"/>
-      <c r="L191" s="365"/>
-      <c r="M191" s="365"/>
-      <c r="N191" s="365"/>
-      <c r="O191" s="365"/>
-      <c r="P191" s="365"/>
-      <c r="Q191" s="365"/>
-      <c r="R191" s="365"/>
-      <c r="S191" s="365"/>
-      <c r="T191" s="365"/>
-      <c r="U191" s="365"/>
-      <c r="V191" s="365"/>
-      <c r="W191" s="365"/>
-      <c r="X191" s="365"/>
-      <c r="Y191" s="365"/>
-      <c r="Z191" s="365"/>
-      <c r="AA191" s="366"/>
+      <c r="B191" s="364"/>
+      <c r="C191" s="364"/>
+      <c r="D191" s="364"/>
+      <c r="E191" s="364"/>
+      <c r="F191" s="364"/>
+      <c r="G191" s="364"/>
+      <c r="H191" s="364"/>
+      <c r="I191" s="364"/>
+      <c r="J191" s="364"/>
+      <c r="K191" s="364"/>
+      <c r="L191" s="364"/>
+      <c r="M191" s="364"/>
+      <c r="N191" s="364"/>
+      <c r="O191" s="364"/>
+      <c r="P191" s="364"/>
+      <c r="Q191" s="364"/>
+      <c r="R191" s="364"/>
+      <c r="S191" s="364"/>
+      <c r="T191" s="364"/>
+      <c r="U191" s="364"/>
+      <c r="V191" s="364"/>
+      <c r="W191" s="364"/>
+      <c r="X191" s="364"/>
+      <c r="Y191" s="364"/>
+      <c r="Z191" s="364"/>
+      <c r="AA191" s="365"/>
     </row>
     <row r="192" spans="1:27" ht="16" thickTop="1">
       <c r="A192" s="11" t="s">
@@ -27757,35 +28793,35 @@
     </row>
     <row r="245" spans="1:27" ht="16" thickBot="1"/>
     <row r="246" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A246" s="364" t="s">
+      <c r="A246" s="363" t="s">
         <v>209</v>
       </c>
-      <c r="B246" s="365"/>
-      <c r="C246" s="365"/>
-      <c r="D246" s="365"/>
-      <c r="E246" s="365"/>
-      <c r="F246" s="365"/>
-      <c r="G246" s="365"/>
-      <c r="H246" s="365"/>
-      <c r="I246" s="365"/>
-      <c r="J246" s="365"/>
-      <c r="K246" s="365"/>
-      <c r="L246" s="365"/>
-      <c r="M246" s="365"/>
-      <c r="N246" s="365"/>
-      <c r="O246" s="365"/>
-      <c r="P246" s="365"/>
-      <c r="Q246" s="365"/>
-      <c r="R246" s="365"/>
-      <c r="S246" s="365"/>
-      <c r="T246" s="365"/>
-      <c r="U246" s="365"/>
-      <c r="V246" s="365"/>
-      <c r="W246" s="365"/>
-      <c r="X246" s="365"/>
-      <c r="Y246" s="365"/>
-      <c r="Z246" s="365"/>
-      <c r="AA246" s="366"/>
+      <c r="B246" s="364"/>
+      <c r="C246" s="364"/>
+      <c r="D246" s="364"/>
+      <c r="E246" s="364"/>
+      <c r="F246" s="364"/>
+      <c r="G246" s="364"/>
+      <c r="H246" s="364"/>
+      <c r="I246" s="364"/>
+      <c r="J246" s="364"/>
+      <c r="K246" s="364"/>
+      <c r="L246" s="364"/>
+      <c r="M246" s="364"/>
+      <c r="N246" s="364"/>
+      <c r="O246" s="364"/>
+      <c r="P246" s="364"/>
+      <c r="Q246" s="364"/>
+      <c r="R246" s="364"/>
+      <c r="S246" s="364"/>
+      <c r="T246" s="364"/>
+      <c r="U246" s="364"/>
+      <c r="V246" s="364"/>
+      <c r="W246" s="364"/>
+      <c r="X246" s="364"/>
+      <c r="Y246" s="364"/>
+      <c r="Z246" s="364"/>
+      <c r="AA246" s="365"/>
     </row>
     <row r="247" spans="1:27" ht="20" thickTop="1" thickBot="1">
       <c r="A247" s="83" t="s">
@@ -28088,277 +29124,277 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D3:AA52 J65:T96 D56:D96 H55:I96 D54:AA54 J55:X64">
-    <cfRule type="containsErrors" dxfId="204" priority="61">
+    <cfRule type="containsErrors" dxfId="62" priority="61">
       <formula>ISERROR(D3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:W23 P22:Q22 T22 P27:W27 P24:T26 P28:T29 P21:W21 P20:U20 P16:AA17 P15:V15 P19:X19 P18:Z18 P32:T52 P30:P31">
-    <cfRule type="containsErrors" dxfId="203" priority="60">
+    <cfRule type="containsErrors" dxfId="61" priority="60">
       <formula>ISERROR(P15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:T11 P10:U10 P8:Z8 P7:U7">
-    <cfRule type="containsErrors" dxfId="202" priority="59">
+    <cfRule type="containsErrors" dxfId="60" priority="59">
       <formula>ISERROR(P7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:AA6">
-    <cfRule type="containsErrors" dxfId="201" priority="56">
+    <cfRule type="containsErrors" dxfId="59" priority="56">
       <formula>ISERROR(P6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:N9">
-    <cfRule type="containsErrors" dxfId="200" priority="55">
+    <cfRule type="containsErrors" dxfId="58" priority="55">
       <formula>ISERROR(D9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:Z9">
-    <cfRule type="containsErrors" dxfId="199" priority="54">
+    <cfRule type="containsErrors" dxfId="57" priority="54">
       <formula>ISERROR(P9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsErrors" dxfId="198" priority="53">
+    <cfRule type="containsErrors" dxfId="56" priority="53">
       <formula>ISERROR(E41)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="containsErrors" dxfId="197" priority="52">
+    <cfRule type="containsErrors" dxfId="55" priority="52">
       <formula>ISERROR(J33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I41">
-    <cfRule type="containsErrors" dxfId="196" priority="51">
+    <cfRule type="containsErrors" dxfId="54" priority="51">
       <formula>ISERROR(I39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J41">
-    <cfRule type="containsErrors" dxfId="195" priority="50">
+    <cfRule type="containsErrors" dxfId="53" priority="50">
       <formula>ISERROR(J39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:K38 K42:K46">
-    <cfRule type="containsErrors" dxfId="194" priority="49">
+    <cfRule type="containsErrors" dxfId="52" priority="49">
       <formula>ISERROR(K34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="containsErrors" dxfId="193" priority="48">
+    <cfRule type="containsErrors" dxfId="51" priority="48">
       <formula>ISERROR(K33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K41">
-    <cfRule type="containsErrors" dxfId="192" priority="47">
+    <cfRule type="containsErrors" dxfId="50" priority="47">
       <formula>ISERROR(K39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:L38 L42:L46">
-    <cfRule type="containsErrors" dxfId="191" priority="46">
+    <cfRule type="containsErrors" dxfId="49" priority="46">
       <formula>ISERROR(L34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="containsErrors" dxfId="190" priority="45">
+    <cfRule type="containsErrors" dxfId="48" priority="45">
       <formula>ISERROR(L33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L41">
-    <cfRule type="containsErrors" dxfId="189" priority="44">
+    <cfRule type="containsErrors" dxfId="47" priority="44">
       <formula>ISERROR(L39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M38 M42:M46">
-    <cfRule type="containsErrors" dxfId="188" priority="43">
+    <cfRule type="containsErrors" dxfId="46" priority="43">
       <formula>ISERROR(M34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="containsErrors" dxfId="187" priority="42">
+    <cfRule type="containsErrors" dxfId="45" priority="42">
       <formula>ISERROR(M33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:M41">
-    <cfRule type="containsErrors" dxfId="186" priority="41">
+    <cfRule type="containsErrors" dxfId="44" priority="41">
       <formula>ISERROR(M39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N38 N42:N46">
-    <cfRule type="containsErrors" dxfId="185" priority="40">
+    <cfRule type="containsErrors" dxfId="43" priority="40">
       <formula>ISERROR(N34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsErrors" dxfId="184" priority="39">
+    <cfRule type="containsErrors" dxfId="42" priority="39">
       <formula>ISERROR(N33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:N41">
-    <cfRule type="containsErrors" dxfId="183" priority="38">
+    <cfRule type="containsErrors" dxfId="41" priority="38">
       <formula>ISERROR(N39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O38 O42:O46">
-    <cfRule type="containsErrors" dxfId="182" priority="37">
+    <cfRule type="containsErrors" dxfId="40" priority="37">
       <formula>ISERROR(O34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33">
-    <cfRule type="containsErrors" dxfId="181" priority="36">
+    <cfRule type="containsErrors" dxfId="39" priority="36">
       <formula>ISERROR(O33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:O41">
-    <cfRule type="containsErrors" dxfId="180" priority="35">
+    <cfRule type="containsErrors" dxfId="38" priority="35">
       <formula>ISERROR(O39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33:W52">
-    <cfRule type="containsErrors" dxfId="179" priority="34">
+    <cfRule type="containsErrors" dxfId="37" priority="34">
       <formula>ISERROR(W33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:X52">
-    <cfRule type="containsErrors" dxfId="178" priority="33">
+    <cfRule type="containsErrors" dxfId="36" priority="33">
       <formula>ISERROR(X33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:Y52">
-    <cfRule type="containsErrors" dxfId="177" priority="32">
+    <cfRule type="containsErrors" dxfId="35" priority="32">
       <formula>ISERROR(Y33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z52">
-    <cfRule type="containsErrors" dxfId="176" priority="31">
+    <cfRule type="containsErrors" dxfId="34" priority="31">
       <formula>ISERROR(Z33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA33:AA52">
-    <cfRule type="containsErrors" dxfId="175" priority="30">
+    <cfRule type="containsErrors" dxfId="33" priority="30">
       <formula>ISERROR(AA33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsErrors" dxfId="174" priority="28">
+    <cfRule type="containsErrors" dxfId="32" priority="28">
       <formula>ISERROR(D41)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D40 D42:D52 D54 D56:D96">
-    <cfRule type="containsErrors" dxfId="173" priority="29">
+    <cfRule type="containsErrors" dxfId="31" priority="29">
       <formula>ISERROR(D32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30:R31">
-    <cfRule type="containsErrors" dxfId="172" priority="27">
+    <cfRule type="containsErrors" dxfId="30" priority="27">
       <formula>ISERROR(Q30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="containsErrors" dxfId="171" priority="26">
+    <cfRule type="containsErrors" dxfId="29" priority="26">
       <formula>ISERROR(J123)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123">
-    <cfRule type="containsErrors" dxfId="170" priority="25">
+    <cfRule type="containsErrors" dxfId="28" priority="25">
       <formula>ISERROR(J123)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="containsErrors" dxfId="169" priority="4">
+    <cfRule type="containsErrors" dxfId="27" priority="4">
       <formula>ISERROR(H134)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129">
-    <cfRule type="containsErrors" dxfId="168" priority="3">
+    <cfRule type="containsErrors" dxfId="26" priority="3">
       <formula>ISERROR(K129)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122">
-    <cfRule type="containsErrors" dxfId="167" priority="22">
+    <cfRule type="containsErrors" dxfId="25" priority="22">
       <formula>ISERROR(J122)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122">
-    <cfRule type="containsErrors" dxfId="166" priority="20">
+    <cfRule type="containsErrors" dxfId="24" priority="20">
       <formula>ISERROR(K122)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123">
-    <cfRule type="containsErrors" dxfId="165" priority="19">
+    <cfRule type="containsErrors" dxfId="23" priority="19">
       <formula>ISERROR(K123)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="containsErrors" dxfId="164" priority="18">
+    <cfRule type="containsErrors" dxfId="22" priority="18">
       <formula>ISERROR(K124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124">
-    <cfRule type="containsErrors" dxfId="163" priority="17">
+    <cfRule type="containsErrors" dxfId="21" priority="17">
       <formula>ISERROR(J124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127">
-    <cfRule type="containsErrors" dxfId="162" priority="16">
+    <cfRule type="containsErrors" dxfId="20" priority="16">
       <formula>ISERROR(K127)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K128">
-    <cfRule type="containsErrors" dxfId="161" priority="15">
+    <cfRule type="containsErrors" dxfId="19" priority="15">
       <formula>ISERROR(K128)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="containsErrors" dxfId="160" priority="14">
+    <cfRule type="containsErrors" dxfId="18" priority="14">
       <formula>ISERROR(J128)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="containsErrors" dxfId="159" priority="13">
+    <cfRule type="containsErrors" dxfId="17" priority="13">
       <formula>ISERROR(I128)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="containsErrors" dxfId="158" priority="12">
+    <cfRule type="containsErrors" dxfId="16" priority="12">
       <formula>ISERROR(H128)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131">
-    <cfRule type="containsErrors" dxfId="157" priority="11">
+    <cfRule type="containsErrors" dxfId="15" priority="11">
       <formula>ISERROR(K131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132">
-    <cfRule type="containsErrors" dxfId="156" priority="10">
+    <cfRule type="containsErrors" dxfId="14" priority="10">
       <formula>ISERROR(K132)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132">
-    <cfRule type="containsErrors" dxfId="155" priority="9">
+    <cfRule type="containsErrors" dxfId="13" priority="9">
       <formula>ISERROR(J132)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K133">
-    <cfRule type="containsErrors" dxfId="154" priority="8">
+    <cfRule type="containsErrors" dxfId="12" priority="8">
       <formula>ISERROR(K133)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K134">
-    <cfRule type="containsErrors" dxfId="153" priority="7">
+    <cfRule type="containsErrors" dxfId="11" priority="7">
       <formula>ISERROR(K134)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134">
-    <cfRule type="containsErrors" dxfId="152" priority="6">
+    <cfRule type="containsErrors" dxfId="10" priority="6">
       <formula>ISERROR(J134)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="containsErrors" dxfId="151" priority="5">
+    <cfRule type="containsErrors" dxfId="9" priority="5">
       <formula>ISERROR(I134)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193:K243 B139:K189">
-    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28396,7 +29432,7 @@
   <dimension ref="A1:AA122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28408,35 +29444,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="363" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="365"/>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
-      <c r="N1" s="365"/>
-      <c r="O1" s="365"/>
-      <c r="P1" s="365"/>
-      <c r="Q1" s="365"/>
-      <c r="R1" s="365"/>
-      <c r="S1" s="365"/>
-      <c r="T1" s="365"/>
-      <c r="U1" s="365"/>
-      <c r="V1" s="365"/>
-      <c r="W1" s="365"/>
-      <c r="X1" s="365"/>
-      <c r="Y1" s="365"/>
-      <c r="Z1" s="365"/>
-      <c r="AA1" s="366"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="364"/>
+      <c r="P1" s="364"/>
+      <c r="Q1" s="364"/>
+      <c r="R1" s="364"/>
+      <c r="S1" s="364"/>
+      <c r="T1" s="364"/>
+      <c r="U1" s="364"/>
+      <c r="V1" s="364"/>
+      <c r="W1" s="364"/>
+      <c r="X1" s="364"/>
+      <c r="Y1" s="364"/>
+      <c r="Z1" s="364"/>
+      <c r="AA1" s="365"/>
     </row>
     <row r="2" spans="1:27" ht="17" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:27" ht="17" thickTop="1" thickBot="1">
@@ -28743,35 +29779,35 @@
     </row>
     <row r="10" spans="1:27" ht="17" thickTop="1" thickBot="1"/>
     <row r="11" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A11" s="364" t="s">
+      <c r="A11" s="363" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="365"/>
-      <c r="C11" s="365"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
-      <c r="F11" s="365"/>
-      <c r="G11" s="365"/>
-      <c r="H11" s="365"/>
-      <c r="I11" s="365"/>
-      <c r="J11" s="365"/>
-      <c r="K11" s="365"/>
-      <c r="L11" s="365"/>
-      <c r="M11" s="365"/>
-      <c r="N11" s="365"/>
-      <c r="O11" s="365"/>
-      <c r="P11" s="365"/>
-      <c r="Q11" s="365"/>
-      <c r="R11" s="365"/>
-      <c r="S11" s="365"/>
-      <c r="T11" s="365"/>
-      <c r="U11" s="365"/>
-      <c r="V11" s="365"/>
-      <c r="W11" s="365"/>
-      <c r="X11" s="365"/>
-      <c r="Y11" s="365"/>
-      <c r="Z11" s="365"/>
-      <c r="AA11" s="366"/>
+      <c r="B11" s="364"/>
+      <c r="C11" s="364"/>
+      <c r="D11" s="364"/>
+      <c r="E11" s="364"/>
+      <c r="F11" s="364"/>
+      <c r="G11" s="364"/>
+      <c r="H11" s="364"/>
+      <c r="I11" s="364"/>
+      <c r="J11" s="364"/>
+      <c r="K11" s="364"/>
+      <c r="L11" s="364"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="364"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="364"/>
+      <c r="Q11" s="364"/>
+      <c r="R11" s="364"/>
+      <c r="S11" s="364"/>
+      <c r="T11" s="364"/>
+      <c r="U11" s="364"/>
+      <c r="V11" s="364"/>
+      <c r="W11" s="364"/>
+      <c r="X11" s="364"/>
+      <c r="Y11" s="364"/>
+      <c r="Z11" s="364"/>
+      <c r="AA11" s="365"/>
     </row>
     <row r="12" spans="1:27" ht="16" thickTop="1"/>
     <row r="13" spans="1:27">
@@ -28888,35 +29924,35 @@
     </row>
     <row r="16" spans="1:27" ht="16" thickBot="1"/>
     <row r="17" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A17" s="364" t="s">
+      <c r="A17" s="363" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="365"/>
-      <c r="C17" s="365"/>
-      <c r="D17" s="365"/>
-      <c r="E17" s="365"/>
-      <c r="F17" s="365"/>
-      <c r="G17" s="365"/>
-      <c r="H17" s="365"/>
-      <c r="I17" s="365"/>
-      <c r="J17" s="365"/>
-      <c r="K17" s="365"/>
-      <c r="L17" s="365"/>
-      <c r="M17" s="365"/>
-      <c r="N17" s="365"/>
-      <c r="O17" s="365"/>
-      <c r="P17" s="365"/>
-      <c r="Q17" s="365"/>
-      <c r="R17" s="365"/>
-      <c r="S17" s="365"/>
-      <c r="T17" s="365"/>
-      <c r="U17" s="365"/>
-      <c r="V17" s="365"/>
-      <c r="W17" s="365"/>
-      <c r="X17" s="365"/>
-      <c r="Y17" s="365"/>
-      <c r="Z17" s="365"/>
-      <c r="AA17" s="366"/>
+      <c r="B17" s="364"/>
+      <c r="C17" s="364"/>
+      <c r="D17" s="364"/>
+      <c r="E17" s="364"/>
+      <c r="F17" s="364"/>
+      <c r="G17" s="364"/>
+      <c r="H17" s="364"/>
+      <c r="I17" s="364"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="364"/>
+      <c r="L17" s="364"/>
+      <c r="M17" s="364"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="364"/>
+      <c r="P17" s="364"/>
+      <c r="Q17" s="364"/>
+      <c r="R17" s="364"/>
+      <c r="S17" s="364"/>
+      <c r="T17" s="364"/>
+      <c r="U17" s="364"/>
+      <c r="V17" s="364"/>
+      <c r="W17" s="364"/>
+      <c r="X17" s="364"/>
+      <c r="Y17" s="364"/>
+      <c r="Z17" s="364"/>
+      <c r="AA17" s="365"/>
     </row>
     <row r="18" spans="1:27" ht="16" thickTop="1">
       <c r="A18" s="11"/>
@@ -32573,35 +33609,35 @@
     </row>
     <row r="70" spans="1:27" ht="16" thickBot="1"/>
     <row r="71" spans="1:27" ht="32" thickTop="1" thickBot="1">
-      <c r="A71" s="364" t="s">
+      <c r="A71" s="363" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="365"/>
-      <c r="C71" s="365"/>
-      <c r="D71" s="365"/>
-      <c r="E71" s="365"/>
-      <c r="F71" s="365"/>
-      <c r="G71" s="365"/>
-      <c r="H71" s="365"/>
-      <c r="I71" s="365"/>
-      <c r="J71" s="365"/>
-      <c r="K71" s="365"/>
-      <c r="L71" s="365"/>
-      <c r="M71" s="365"/>
-      <c r="N71" s="365"/>
-      <c r="O71" s="365"/>
-      <c r="P71" s="365"/>
-      <c r="Q71" s="365"/>
-      <c r="R71" s="365"/>
-      <c r="S71" s="365"/>
-      <c r="T71" s="365"/>
-      <c r="U71" s="365"/>
-      <c r="V71" s="365"/>
-      <c r="W71" s="365"/>
-      <c r="X71" s="365"/>
-      <c r="Y71" s="365"/>
-      <c r="Z71" s="365"/>
-      <c r="AA71" s="366"/>
+      <c r="B71" s="364"/>
+      <c r="C71" s="364"/>
+      <c r="D71" s="364"/>
+      <c r="E71" s="364"/>
+      <c r="F71" s="364"/>
+      <c r="G71" s="364"/>
+      <c r="H71" s="364"/>
+      <c r="I71" s="364"/>
+      <c r="J71" s="364"/>
+      <c r="K71" s="364"/>
+      <c r="L71" s="364"/>
+      <c r="M71" s="364"/>
+      <c r="N71" s="364"/>
+      <c r="O71" s="364"/>
+      <c r="P71" s="364"/>
+      <c r="Q71" s="364"/>
+      <c r="R71" s="364"/>
+      <c r="S71" s="364"/>
+      <c r="T71" s="364"/>
+      <c r="U71" s="364"/>
+      <c r="V71" s="364"/>
+      <c r="W71" s="364"/>
+      <c r="X71" s="364"/>
+      <c r="Y71" s="364"/>
+      <c r="Z71" s="364"/>
+      <c r="AA71" s="365"/>
     </row>
     <row r="72" spans="1:27" ht="16" thickTop="1">
       <c r="A72" s="11"/>
@@ -36264,7 +37300,7 @@
     <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD2 R9:XFD9 U3:XFD8 G5:O5 R5:T5 A3:F8 A9:O9">
-    <cfRule type="containsErrors" dxfId="61" priority="13">
+    <cfRule type="containsErrors" dxfId="7" priority="13">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36289,37 +37325,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:T4">
-    <cfRule type="containsErrors" dxfId="60" priority="10">
+    <cfRule type="containsErrors" dxfId="6" priority="10">
       <formula>ISERROR(G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:T3">
-    <cfRule type="containsErrors" dxfId="59" priority="9">
+    <cfRule type="containsErrors" dxfId="5" priority="9">
       <formula>ISERROR(G3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="containsErrors" dxfId="58" priority="2">
+    <cfRule type="containsErrors" dxfId="4" priority="2">
       <formula>ISERROR(P6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="containsErrors" dxfId="57" priority="5">
+    <cfRule type="containsErrors" dxfId="3" priority="5">
       <formula>ISERROR(P5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="containsErrors" dxfId="56" priority="4">
+    <cfRule type="containsErrors" dxfId="2" priority="4">
       <formula>ISERROR(Q5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:O6 R6:T6">
-    <cfRule type="containsErrors" dxfId="55" priority="3">
+    <cfRule type="containsErrors" dxfId="1" priority="3">
       <formula>ISERROR(H6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="containsErrors" dxfId="54" priority="1">
+    <cfRule type="containsErrors" dxfId="0" priority="1">
       <formula>ISERROR(Q6)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ClashOfClans-Calculator.xlsx
+++ b/ClashOfClans-Calculator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <workbookProtection workbookPassword="9AF0" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="669"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="669"/>
   </bookViews>
   <sheets>
     <sheet name="Construction Dashboard" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="320">
   <si>
     <t>Time</t>
   </si>
@@ -760,9 +760,6 @@
     </r>
   </si>
   <si>
-    <t>The top donors will have their name or COC handle included in "Acknowledgements."</t>
-  </si>
-  <si>
     <t>Special thanks to:</t>
   </si>
   <si>
@@ -1043,6 +1040,12 @@
   </si>
   <si>
     <t>Fixed errors In Skeleton Trap data</t>
+  </si>
+  <si>
+    <t>The top donors will have a name of their choice included in "Acknowledgements."</t>
+  </si>
+  <si>
+    <t>COC Updates: 2014-12-11 (v6.407) and 2015-02-24 (v7.1.1)</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2470,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1558">
+  <cellStyleXfs count="1559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3255,6 +3258,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4542,60 +4546,51 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4653,15 +4648,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4680,7 +4666,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
@@ -4691,42 +4677,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -4735,13 +4801,6 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="82" xfId="786" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4774,61 +4833,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4883,7 +4887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1558">
+  <cellStyles count="1559">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6088,6 +6092,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1555" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -9676,7 +9681,6 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HeroUpgrades" displayName="HeroUpgrades" ref="A58:E98" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" tableBorderDxfId="79">
-  <autoFilter ref="A58:E98"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Level" dataDxfId="78"/>
     <tableColumn id="2" name="BK-Cost" dataDxfId="77"/>
@@ -9720,7 +9724,6 @@
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Remaining_Cost" displayName="Remaining_Cost" ref="A19:T70" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A19:T70"/>
   <tableColumns count="20">
     <tableColumn id="1" name="Name" dataDxfId="48"/>
     <tableColumn id="15" name="Kind" dataDxfId="47">
@@ -9787,7 +9790,6 @@
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Remaining_Time" displayName="Remaining_Time" ref="A75:T126" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A75:T126"/>
   <tableColumns count="20">
     <tableColumn id="1" name="Name" dataDxfId="26"/>
     <tableColumn id="15" name="Kind" dataDxfId="25">
@@ -10077,7 +10079,6 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QuantAvail" displayName="QuantAvail" ref="A141:K194" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <autoFilter ref="A141:K194"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Quantity Available" dataDxfId="105"/>
     <tableColumn id="2" name="L1" dataDxfId="104"/>
@@ -10097,7 +10098,6 @@
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MaxLevel" displayName="MaxLevel" ref="A198:K251" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
-  <autoFilter ref="A198:K251"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Max Level" dataDxfId="92"/>
     <tableColumn id="2" name="L1" dataDxfId="91"/>
@@ -10442,8 +10442,8 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10458,48 +10458,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" thickTop="1">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="295" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
-      <c r="P1" s="295"/>
-      <c r="Q1" s="295"/>
-      <c r="R1" s="295"/>
-      <c r="S1" s="296"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="298"/>
+      <c r="S1" s="299"/>
     </row>
     <row r="2" spans="1:20" ht="16" thickBot="1">
-      <c r="A2" s="297"/>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
-      <c r="N2" s="300"/>
-      <c r="O2" s="300"/>
-      <c r="P2" s="300"/>
-      <c r="Q2" s="300"/>
-      <c r="R2" s="300"/>
-      <c r="S2" s="301"/>
+      <c r="A2" s="300"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="303"/>
+      <c r="K2" s="303"/>
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
+      <c r="Q2" s="303"/>
+      <c r="R2" s="303"/>
+      <c r="S2" s="304"/>
     </row>
     <row r="3" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A3" s="108"/>
@@ -10522,23 +10522,23 @@
       <c r="S3" s="108"/>
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="295" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
       <c r="G4" s="308"/>
       <c r="H4" s="108"/>
-      <c r="I4" s="264" t="s">
+      <c r="I4" s="316" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="316"/>
-      <c r="K4" s="316"/>
-      <c r="L4" s="316"/>
-      <c r="M4" s="316"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="271"/>
+      <c r="L4" s="271"/>
+      <c r="M4" s="271"/>
       <c r="N4" s="317"/>
       <c r="O4" s="108"/>
       <c r="P4" s="313" t="s">
@@ -10590,26 +10590,26 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="283" t="s">
+      <c r="A6" s="286" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="285"/>
+      <c r="B6" s="287"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="288"/>
       <c r="H6" s="108"/>
       <c r="I6" s="171" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="11">
         <f ca="1">SUMIFS(Remaining_Cost[Sum],Remaining_Cost[Resource],J$5,Remaining_Cost[Kind],$I6)</f>
-        <v>4250</v>
+        <v>46247500</v>
       </c>
       <c r="K6" s="12">
         <f ca="1">SUMIFS(Remaining_Cost[Sum],Remaining_Cost[Resource],K$5,Remaining_Cost[Kind],$I6)</f>
-        <v>4700</v>
+        <v>4400000</v>
       </c>
       <c r="L6" s="12">
         <f ca="1">SUMIFS(Remaining_Cost[Sum],Remaining_Cost[Resource],L$5,Remaining_Cost[Kind],$I6)</f>
@@ -10617,11 +10617,11 @@
       </c>
       <c r="M6" s="126">
         <f ca="1">SUMIF(Remaining_Time[Kind],$I6,Remaining_Time[Sum])</f>
-        <v>0.13333333333333333</v>
+        <v>131.25</v>
       </c>
       <c r="N6" s="107">
         <f ca="1">M6/IF(I6="Building",NumBuilders,1)</f>
-        <v>2.6666666666666665E-2</v>
+        <v>26.25</v>
       </c>
       <c r="O6" s="108"/>
       <c r="P6" s="171" t="s">
@@ -10629,35 +10629,35 @@
       </c>
       <c r="Q6" s="14" t="str">
         <f t="array" aca="1" ref="Q6" ca="1">IFERROR(INDEX(Remaining_Cost[Name],MATCH(R6,IF(Remaining_Cost[MatchStr]=Q$5&amp;"-"&amp;P6,Remaining_Cost[Next]),0)),0)</f>
-        <v>Elixir Collector</v>
+        <v>Giant Bomb</v>
       </c>
       <c r="R6" s="12">
         <f t="array" aca="1" ref="R6" ca="1">MIN(IF(Remaining_Cost[MatchStr]=Q$5&amp;"-"&amp;P6,Remaining_Cost[Next]))</f>
-        <v>150</v>
+        <v>12500</v>
       </c>
       <c r="S6" s="13">
         <f ca="1">IFERROR(IF(VLOOKUP(Q6,Remaining_Time[],MATCH("Next",Remaining_Time[#Headers],0),FALSE)="",0,VLOOKUP(Q6,Remaining_Time[],MATCH("Next",Remaining_Time[#Headers],0),FALSE)),0)</f>
-        <v>6.9444444444444436E-4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" thickTop="1">
-      <c r="A7" s="286"/>
-      <c r="B7" s="287"/>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="288"/>
+      <c r="A7" s="289"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="291"/>
       <c r="H7" s="108"/>
       <c r="I7" s="171" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="15">
         <f ca="1">SUMIFS(Remaining_Cost[Sum],Remaining_Cost[Resource],J$5,Remaining_Cost[Kind],$I7)</f>
-        <v>0</v>
+        <v>141525000</v>
       </c>
       <c r="K7" s="263" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L7" s="131"/>
       <c r="M7" s="180" t="s">
@@ -10672,25 +10672,25 @@
       </c>
       <c r="Q7" s="18" t="str">
         <f t="array" aca="1" ref="Q7" ca="1">IFERROR(INDEX(Remaining_Cost[Name],MATCH(R7,IF(Remaining_Cost[MatchStr]=Q$5&amp;"-"&amp;P7,Remaining_Cost[Next]),0)),0)</f>
-        <v>Gold Mine</v>
+        <v>Barracks</v>
       </c>
       <c r="R7" s="16">
         <f t="array" aca="1" ref="R7" ca="1">MIN(IF(Remaining_Cost[MatchStr]=Q$5&amp;"-"&amp;P7,Remaining_Cost[Next]))</f>
-        <v>150</v>
+        <v>2000000</v>
       </c>
       <c r="S7" s="17">
         <f ca="1">IFERROR(IF(VLOOKUP(Q7,Remaining_Time[],MATCH("Next",Remaining_Time[#Headers],0),FALSE)="",0,VLOOKUP(Q7,Remaining_Time[],MATCH("Next",Remaining_Time[#Headers],0),FALSE)),0)</f>
-        <v>6.9444444444444436E-4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" thickBot="1">
-      <c r="A8" s="286"/>
-      <c r="B8" s="287"/>
-      <c r="C8" s="287"/>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="288"/>
+      <c r="A8" s="289"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="291"/>
       <c r="H8" s="108"/>
       <c r="I8" s="171" t="s">
         <v>71</v>
@@ -10698,19 +10698,19 @@
       <c r="J8" s="132"/>
       <c r="K8" s="16">
         <f ca="1">SUMIFS(Remaining_Cost[Sum],Remaining_Cost[Resource],K$5,Remaining_Cost[Kind],$I8)</f>
-        <v>0</v>
+        <v>18850000</v>
       </c>
       <c r="L8" s="128">
         <f ca="1">SUMIFS(Remaining_Cost[Sum],Remaining_Cost[Resource],L$5,Remaining_Cost[Kind],$I8)+SUM(HeroNextUpgrade[Cost to Max])</f>
-        <v>0</v>
+        <v>412500</v>
       </c>
       <c r="M8" s="127">
         <f ca="1">SUMIF(Remaining_Time[Kind],$I8,Remaining_Time[Sum])</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N8" s="125">
         <f ca="1">SUM(HeroNextUpgrade[Time to Max])</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="O8" s="108"/>
       <c r="P8" s="172" t="s">
@@ -10730,28 +10730,28 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="20" thickTop="1" thickBot="1">
-      <c r="A9" s="286"/>
-      <c r="B9" s="287"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="288"/>
+      <c r="A9" s="289"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="291"/>
       <c r="H9" s="108"/>
       <c r="I9" s="22" t="s">
         <v>108</v>
       </c>
       <c r="J9" s="23">
         <f ca="1">SUM(J6:J8)</f>
-        <v>4250</v>
+        <v>187772500</v>
       </c>
       <c r="K9" s="24">
         <f ca="1">SUM(K6:K8)</f>
-        <v>4700</v>
+        <v>23250000</v>
       </c>
       <c r="L9" s="76">
         <f ca="1">SUM(L6:L8)</f>
-        <v>0</v>
+        <v>412500</v>
       </c>
       <c r="M9" s="161"/>
       <c r="N9" s="161"/>
@@ -10762,13 +10762,13 @@
       <c r="S9" s="108"/>
     </row>
     <row r="10" spans="1:20" ht="17" thickTop="1" thickBot="1">
-      <c r="A10" s="286"/>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="288"/>
+      <c r="A10" s="289"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="291"/>
       <c r="H10" s="108"/>
       <c r="I10" s="108"/>
       <c r="J10" s="108"/>
@@ -10783,22 +10783,22 @@
       <c r="S10" s="108"/>
     </row>
     <row r="11" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="289"/>
-      <c r="B11" s="290"/>
-      <c r="C11" s="290"/>
-      <c r="D11" s="290"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="291"/>
+      <c r="A11" s="292"/>
+      <c r="B11" s="293"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="293"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="293"/>
+      <c r="G11" s="294"/>
       <c r="H11" s="108"/>
-      <c r="I11" s="302" t="s">
+      <c r="I11" s="305" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="303"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="304"/>
+      <c r="J11" s="306"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="272"/>
+      <c r="N11" s="307"/>
       <c r="O11" s="108"/>
       <c r="P11" s="313" t="s">
         <v>211</v>
@@ -10815,21 +10815,21 @@
       <c r="F12" s="109"/>
       <c r="G12" s="108"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="274" t="s">
-        <v>290</v>
-      </c>
-      <c r="J12" s="275"/>
+      <c r="I12" s="329" t="s">
+        <v>289</v>
+      </c>
+      <c r="J12" s="330"/>
       <c r="K12" s="155">
         <f t="array" ref="K12">SUM(IF(ConstructionState[Kind]="Building",ConstructionState[[1]:[12]]))</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="274" t="s">
-        <v>234</v>
-      </c>
-      <c r="M12" s="276"/>
+        <v>81</v>
+      </c>
+      <c r="L12" s="329" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" s="331"/>
       <c r="N12" s="155">
         <f t="array" aca="1" ref="N12" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Building",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Building",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O12" s="108"/>
       <c r="P12" s="10" t="s">
@@ -10847,88 +10847,88 @@
     </row>
     <row r="13" spans="1:20" ht="19" customHeight="1" thickTop="1">
       <c r="A13" s="108"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="295" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
       <c r="F13" s="308"/>
       <c r="G13" s="108"/>
       <c r="H13" s="108"/>
-      <c r="I13" s="279" t="s">
+      <c r="I13" s="334" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="280"/>
+      <c r="J13" s="335"/>
       <c r="K13" s="158">
         <f t="array" ref="K13">SUM(H27:O27*TRANSPOSE(Cap_AC[Capacity]))</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="279" t="s">
-        <v>236</v>
-      </c>
-      <c r="M13" s="280"/>
+        <v>200</v>
+      </c>
+      <c r="L13" s="334" t="s">
+        <v>235</v>
+      </c>
+      <c r="M13" s="335"/>
       <c r="N13" s="156">
         <f t="array" aca="1" ref="N13" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Wall",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Wall",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="O13" s="108"/>
       <c r="P13" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="14" t="str">
         <f t="array" aca="1" ref="Q13" ca="1">IFERROR(INDEX(Remaining_Cost[Name],MATCH(R13,IF(Remaining_Cost[MatchStr]=Q$12&amp;"-"&amp;P13,Remaining_Cost[Next]),0)),0)</f>
-        <v>0</v>
+        <v>Balloon</v>
       </c>
       <c r="R13" s="16">
         <f t="array" aca="1" ref="R13" ca="1">MIN(IF(Remaining_Cost[MatchStr]=Q$12&amp;"-"&amp;P13,Remaining_Cost[Next]))</f>
-        <v>0</v>
+        <v>1350000</v>
       </c>
       <c r="S13" s="13">
         <f ca="1">IFERROR(IF(VLOOKUP(Q13,Remaining_Time[],MATCH("Next",Remaining_Time[#Headers],0),FALSE)="",0,VLOOKUP(Q13,Remaining_Time[],MATCH("Next",Remaining_Time[#Headers],0),FALSE)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="108"/>
-      <c r="B14" s="297"/>
-      <c r="C14" s="298"/>
-      <c r="D14" s="298"/>
-      <c r="E14" s="298"/>
+      <c r="B14" s="300"/>
+      <c r="C14" s="301"/>
+      <c r="D14" s="301"/>
+      <c r="E14" s="301"/>
       <c r="F14" s="312"/>
       <c r="G14" s="108"/>
       <c r="H14" s="108"/>
-      <c r="I14" s="277" t="s">
-        <v>237</v>
-      </c>
-      <c r="J14" s="278"/>
+      <c r="I14" s="332" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" s="333"/>
       <c r="K14" s="8">
         <f ca="1">K9/J9</f>
-        <v>1.1058823529411765</v>
-      </c>
-      <c r="L14" s="281" t="s">
-        <v>235</v>
-      </c>
-      <c r="M14" s="282"/>
+        <v>0.12382004819662092</v>
+      </c>
+      <c r="L14" s="336" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" s="337"/>
       <c r="N14" s="157">
         <f t="array" aca="1" ref="N14" ca="1">SUM(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Upgrade",(ConstructionState[Available]*ConstructionState[Maximum Level]))))-SUMPRODUCT(IF(COUNTIF(Skips,ConstructionState[Building or Upgrade])=0,IF(ConstructionState[Kind]="Upgrade",ConstructionState[[1]:[12]]*ConstructionState[[#Headers],[1]:[12]])))</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O14" s="108"/>
       <c r="P14" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="19" t="str">
         <f t="array" aca="1" ref="Q14" ca="1">IFERROR(INDEX(HeroNextUpgrade[Hero],MATCH(R14,HeroNextUpgrade[Next Cost],0)),IFERROR(INDEX(Remaining_Cost[Name],MATCH(R14,IF(Remaining_Cost[MatchStr]=Q$12&amp;"-"&amp;P14,Remaining_Cost[Next]),0)),0))</f>
-        <v>0</v>
+        <v>Minion</v>
       </c>
       <c r="R14" s="20">
         <f t="array" aca="1" ref="R14" ca="1">MIN(IF(Remaining_Cost[MatchStr]=Q$12&amp;"-"&amp;P14,Remaining_Cost[Next]),IF(HeroNextUpgrade[Upgradeable],HeroNextUpgrade[Next Cost]))</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S14" s="21">
         <f ca="1">IFERROR(VLOOKUP(Q14,HeroNextUpgrade[],MATCH("Next Time",HeroNextUpgrade[#Headers],0),FALSE),IFERROR(IF(VLOOKUP(Q14,Remaining_Time[],MATCH("Next",Remaining_Time[#Headers],0),FALSE)="",0,VLOOKUP(Q14,Remaining_Time[],MATCH("Next",Remaining_Time[#Headers],0),FALSE)),0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
@@ -10961,90 +10961,90 @@
       <c r="B16" s="27">
         <v>0</v>
       </c>
-      <c r="C16" s="305" t="s">
+      <c r="C16" s="264" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="306"/>
-      <c r="E16" s="306"/>
-      <c r="F16" s="307"/>
+      <c r="D16" s="265"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="266"/>
       <c r="G16" s="108"/>
-      <c r="H16" s="267" t="s">
+      <c r="H16" s="322" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="268"/>
-      <c r="J16" s="268"/>
-      <c r="K16" s="268"/>
-      <c r="L16" s="268"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="268"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="268"/>
-      <c r="T16" s="269"/>
+      <c r="I16" s="323"/>
+      <c r="J16" s="323"/>
+      <c r="K16" s="323"/>
+      <c r="L16" s="323"/>
+      <c r="M16" s="323"/>
+      <c r="N16" s="323"/>
+      <c r="O16" s="323"/>
+      <c r="P16" s="323"/>
+      <c r="Q16" s="323"/>
+      <c r="R16" s="323"/>
+      <c r="S16" s="323"/>
+      <c r="T16" s="324"/>
     </row>
     <row r="17" spans="1:20" ht="19" thickBot="1">
       <c r="A17" s="108"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="305" t="s">
+      <c r="C17" s="264" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="306"/>
-      <c r="E17" s="306"/>
-      <c r="F17" s="307"/>
+      <c r="D17" s="265"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="266"/>
       <c r="G17" s="108"/>
-      <c r="H17" s="270"/>
-      <c r="I17" s="271"/>
-      <c r="J17" s="271"/>
-      <c r="K17" s="271"/>
-      <c r="L17" s="271"/>
-      <c r="M17" s="271"/>
-      <c r="N17" s="271"/>
-      <c r="O17" s="272"/>
-      <c r="P17" s="271"/>
-      <c r="Q17" s="271"/>
-      <c r="R17" s="271"/>
-      <c r="S17" s="271"/>
-      <c r="T17" s="273"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="326"/>
+      <c r="J17" s="326"/>
+      <c r="K17" s="326"/>
+      <c r="L17" s="326"/>
+      <c r="M17" s="326"/>
+      <c r="N17" s="326"/>
+      <c r="O17" s="327"/>
+      <c r="P17" s="326"/>
+      <c r="Q17" s="326"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="328"/>
     </row>
     <row r="18" spans="1:20" ht="20" thickTop="1" thickBot="1">
       <c r="A18" s="108"/>
       <c r="B18" s="133"/>
-      <c r="C18" s="305" t="s">
+      <c r="C18" s="264" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="306"/>
-      <c r="E18" s="306"/>
-      <c r="F18" s="307"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="266"/>
       <c r="G18" s="108"/>
-      <c r="H18" s="324" t="s">
+      <c r="H18" s="270" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="316"/>
-      <c r="J18" s="316"/>
-      <c r="K18" s="316"/>
-      <c r="L18" s="316"/>
-      <c r="M18" s="265"/>
-      <c r="N18" s="325"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="271"/>
+      <c r="K18" s="271"/>
+      <c r="L18" s="271"/>
+      <c r="M18" s="272"/>
+      <c r="N18" s="273"/>
       <c r="O18" s="181"/>
-      <c r="P18" s="264" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q18" s="265"/>
-      <c r="R18" s="265"/>
-      <c r="S18" s="265"/>
-      <c r="T18" s="266"/>
+      <c r="P18" s="316" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q18" s="272"/>
+      <c r="R18" s="272"/>
+      <c r="S18" s="272"/>
+      <c r="T18" s="321"/>
     </row>
     <row r="19" spans="1:20" ht="19" thickTop="1">
       <c r="A19" s="108"/>
       <c r="B19" s="130"/>
-      <c r="C19" s="305" t="s">
+      <c r="C19" s="264" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="306"/>
-      <c r="E19" s="306"/>
-      <c r="F19" s="307"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="266"/>
       <c r="G19" s="108"/>
       <c r="H19" s="182" t="s">
         <v>109</v>
@@ -11052,20 +11052,16 @@
       <c r="I19" s="54">
         <v>5</v>
       </c>
-      <c r="J19" s="321" t="s">
+      <c r="J19" s="267" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="322"/>
-      <c r="L19" s="322"/>
-      <c r="M19" s="322"/>
-      <c r="N19" s="323"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="268"/>
+      <c r="M19" s="268"/>
+      <c r="N19" s="269"/>
       <c r="O19" s="181"/>
-      <c r="P19" s="236" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="237" t="s">
-        <v>97</v>
-      </c>
+      <c r="P19" s="236"/>
+      <c r="Q19" s="237"/>
       <c r="R19" s="237"/>
       <c r="S19" s="237"/>
       <c r="T19" s="252"/>
@@ -11075,12 +11071,12 @@
       <c r="B20" s="162">
         <v>-1</v>
       </c>
-      <c r="C20" s="332" t="s">
+      <c r="C20" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="333"/>
-      <c r="E20" s="333"/>
-      <c r="F20" s="334"/>
+      <c r="D20" s="281"/>
+      <c r="E20" s="281"/>
+      <c r="F20" s="282"/>
       <c r="G20" s="108"/>
       <c r="H20" s="183" t="s">
         <v>125</v>
@@ -11088,18 +11084,16 @@
       <c r="I20" s="117" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="326" t="s">
+      <c r="J20" s="274" t="s">
         <v>183</v>
       </c>
-      <c r="K20" s="327"/>
-      <c r="L20" s="327"/>
-      <c r="M20" s="327"/>
-      <c r="N20" s="328"/>
+      <c r="K20" s="275"/>
+      <c r="L20" s="275"/>
+      <c r="M20" s="275"/>
+      <c r="N20" s="276"/>
       <c r="O20" s="181"/>
       <c r="P20" s="238"/>
-      <c r="Q20" s="239" t="s">
-        <v>294</v>
-      </c>
+      <c r="Q20" s="239"/>
       <c r="R20" s="239"/>
       <c r="S20" s="239"/>
       <c r="T20" s="253"/>
@@ -11109,12 +11103,12 @@
       <c r="B21" s="163">
         <v>30</v>
       </c>
-      <c r="C21" s="335" t="s">
+      <c r="C21" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="336"/>
-      <c r="E21" s="336"/>
-      <c r="F21" s="337"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="284"/>
+      <c r="F21" s="285"/>
       <c r="G21" s="108"/>
       <c r="H21" s="183" t="s">
         <v>189</v>
@@ -11122,13 +11116,13 @@
       <c r="I21" s="118">
         <v>5</v>
       </c>
-      <c r="J21" s="326" t="s">
-        <v>292</v>
-      </c>
-      <c r="K21" s="327"/>
-      <c r="L21" s="327"/>
-      <c r="M21" s="327"/>
-      <c r="N21" s="328"/>
+      <c r="J21" s="274" t="s">
+        <v>291</v>
+      </c>
+      <c r="K21" s="275"/>
+      <c r="L21" s="275"/>
+      <c r="M21" s="275"/>
+      <c r="N21" s="276"/>
       <c r="O21" s="181"/>
       <c r="P21" s="240"/>
       <c r="Q21" s="241"/>
@@ -11149,13 +11143,13 @@
       <c r="I22" s="55">
         <v>0</v>
       </c>
-      <c r="J22" s="329" t="s">
-        <v>291</v>
-      </c>
-      <c r="K22" s="330"/>
-      <c r="L22" s="330"/>
-      <c r="M22" s="330"/>
-      <c r="N22" s="331"/>
+      <c r="J22" s="277" t="s">
+        <v>290</v>
+      </c>
+      <c r="K22" s="278"/>
+      <c r="L22" s="278"/>
+      <c r="M22" s="278"/>
+      <c r="N22" s="279"/>
       <c r="O22" s="181"/>
       <c r="P22" s="147"/>
       <c r="Q22" s="148"/>
@@ -11222,7 +11216,7 @@
         <v>43</v>
       </c>
       <c r="T23" s="256" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="18">
@@ -11247,22 +11241,22 @@
       </c>
       <c r="F24" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G24" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
         <v>0</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -11287,11 +11281,11 @@
       </c>
       <c r="E25" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11302,7 +11296,9 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -11329,15 +11325,15 @@
       </c>
       <c r="E26" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G26" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
@@ -11347,15 +11343,19 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="2"/>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>3</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="257"/>
     </row>
     <row r="27" spans="1:20" ht="18">
       <c r="A27" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="38" t="str">
         <f>VLOOKUP(ConstructionState[[#This Row],[Building or Upgrade]],Upgrades[],MATCH(ConstructionState[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
@@ -11371,22 +11371,24 @@
       </c>
       <c r="E27" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G27" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2">
+        <v>4</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="3"/>
@@ -11413,15 +11415,15 @@
       </c>
       <c r="E28" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G28" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
@@ -11434,7 +11436,9 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
+      <c r="S28" s="2">
+        <v>6</v>
+      </c>
       <c r="T28" s="257"/>
     </row>
     <row r="29" spans="1:20" ht="18">
@@ -11455,15 +11459,15 @@
       </c>
       <c r="E29" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F29" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G29" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>
@@ -11476,7 +11480,9 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
+      <c r="S29" s="2">
+        <v>6</v>
+      </c>
       <c r="T29" s="257"/>
     </row>
     <row r="30" spans="1:20" ht="18">
@@ -11497,11 +11503,11 @@
       </c>
       <c r="E30" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11509,7 +11515,9 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -11539,15 +11547,15 @@
       </c>
       <c r="E31" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G31" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2"/>
@@ -11559,7 +11567,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="R31" s="2">
+        <v>3</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="257"/>
     </row>
@@ -11581,15 +11591,15 @@
       </c>
       <c r="E32" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G32" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
@@ -11601,7 +11611,9 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="R32" s="2">
+        <v>3</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="257"/>
     </row>
@@ -11623,11 +11635,11 @@
       </c>
       <c r="E33" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11635,7 +11647,9 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -11665,11 +11679,11 @@
       </c>
       <c r="E34" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11678,7 +11692,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -11707,11 +11723,11 @@
       </c>
       <c r="E35" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11719,7 +11735,9 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -11749,11 +11767,11 @@
       </c>
       <c r="E36" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11762,7 +11780,9 @@
       <c r="H36" s="1"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -11791,15 +11811,15 @@
       </c>
       <c r="E37" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F37" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G37" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="2"/>
@@ -11810,7 +11830,9 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="2">
+        <v>5</v>
+      </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="257"/>
@@ -11833,11 +11855,11 @@
       </c>
       <c r="E38" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11851,8 +11873,12 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="P38" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="257"/>
@@ -11875,11 +11901,11 @@
       </c>
       <c r="E39" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="F39" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G39" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11889,9 +11915,15 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="L39" s="2">
+        <v>35</v>
+      </c>
+      <c r="M39" s="2">
+        <v>97</v>
+      </c>
+      <c r="N39" s="2">
+        <v>93</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -11917,11 +11949,11 @@
       </c>
       <c r="E40" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G40" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11932,7 +11964,9 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="2">
+        <v>4</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -11959,11 +11993,11 @@
       </c>
       <c r="E41" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F41" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -11972,7 +12006,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>6</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -12001,11 +12037,11 @@
       </c>
       <c r="E42" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G42" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12015,7 +12051,9 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2">
+        <v>3</v>
+      </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -12043,7 +12081,7 @@
       </c>
       <c r="E43" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F43" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
@@ -12053,7 +12091,9 @@
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
         <v>0</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>6</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -12085,11 +12125,11 @@
       </c>
       <c r="E44" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G44" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12099,8 +12139,12 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>2</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -12127,19 +12171,23 @@
       </c>
       <c r="E45" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -12169,11 +12217,11 @@
       </c>
       <c r="E46" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F46" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12181,7 +12229,9 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2">
+        <v>4</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -12211,17 +12261,19 @@
       </c>
       <c r="E47" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
         <v>0</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -12237,7 +12289,7 @@
     </row>
     <row r="48" spans="1:20" ht="18">
       <c r="A48" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B48" s="34" t="str">
         <f>VLOOKUP(ConstructionState[[#This Row],[Building or Upgrade]],Upgrades[],MATCH(ConstructionState[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
@@ -12253,18 +12305,20 @@
       </c>
       <c r="E48" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
         <v>0</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -12295,11 +12349,11 @@
       </c>
       <c r="E49" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" s="36">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G49" s="36">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12308,7 +12362,9 @@
       <c r="H49" s="1"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="2">
+        <v>3</v>
+      </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -12421,17 +12477,19 @@
       </c>
       <c r="E52" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
         <v>0</v>
       </c>
-      <c r="H52" s="4"/>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -12505,11 +12563,11 @@
       </c>
       <c r="E54" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12519,7 +12577,9 @@
       <c r="I54" s="3"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -12547,11 +12607,11 @@
       </c>
       <c r="E55" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12561,7 +12621,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -12589,11 +12651,11 @@
       </c>
       <c r="E56" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12603,7 +12665,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -12631,11 +12695,11 @@
       </c>
       <c r="E57" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12645,7 +12709,9 @@
       <c r="I57" s="3"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -12673,11 +12739,11 @@
       </c>
       <c r="E58" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G58" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12687,7 +12753,9 @@
       <c r="I58" s="3"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -12711,15 +12779,15 @@
       </c>
       <c r="D59" s="35" t="str">
         <f>IF(COUNTIF(Skips,ConstructionState[[#This Row],[Building or Upgrade]]),"IGNORE",ConstructionState[Kind]&amp;"-"&amp;ConstructionState[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="E59" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G59" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12727,7 +12795,9 @@
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -12757,11 +12827,11 @@
       </c>
       <c r="E60" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12771,7 +12841,9 @@
       <c r="I60" s="3"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -12799,11 +12871,11 @@
       </c>
       <c r="E61" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12811,7 +12883,9 @@
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -12841,18 +12915,20 @@
       </c>
       <c r="E62" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
         <v>0</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -12883,15 +12959,15 @@
       </c>
       <c r="E63" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G63" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="3"/>
@@ -12925,11 +13001,11 @@
       </c>
       <c r="E64" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G64" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12939,7 +13015,9 @@
       <c r="I64" s="3"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -12967,11 +13045,11 @@
       </c>
       <c r="E65" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -12981,7 +13059,9 @@
       <c r="I65" s="3"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -13009,11 +13089,11 @@
       </c>
       <c r="E66" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -13022,7 +13102,9 @@
       <c r="H66" s="4"/>
       <c r="I66" s="3"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -13055,7 +13137,7 @@
       </c>
       <c r="F67" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
@@ -13131,19 +13213,19 @@
       </c>
       <c r="D69" s="35" t="str">
         <f>IF(COUNTIF(Skips,ConstructionState[[#This Row],[Building or Upgrade]]),"IGNORE",ConstructionState[Kind]&amp;"-"&amp;ConstructionState[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Dark Elixir</v>
       </c>
       <c r="E69" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="3"/>
@@ -13177,15 +13259,15 @@
       </c>
       <c r="E70" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G70" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="3"/>
@@ -13219,15 +13301,15 @@
       </c>
       <c r="E71" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="3"/>
@@ -13261,15 +13343,15 @@
       </c>
       <c r="E72" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],QuantAvail[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="40">
         <f ca="1">IF(AND(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel=0),0,VLOOKUP(ConstructionState[Building or Upgrade],MaxLevel[],1+IF(ConstructionState[[#This Row],[Kind]]="Upgrade",LabLevel,THLevel),FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" s="40">
         <f ca="1">ConstructionState[[#This Row],[Available]]-SUM(ConstructionState[[#This Row],[1]:[12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="3"/>
@@ -13329,7 +13411,7 @@
     </row>
     <row r="74" spans="1:20" ht="19" thickBot="1">
       <c r="A74" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B74" s="261" t="str">
         <f>VLOOKUP(ConstructionState[[#This Row],[Building or Upgrade]],Upgrades[],MATCH(ConstructionState[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
@@ -13392,15 +13474,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="28">
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="H16:T17"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="A6:G11"/>
     <mergeCell ref="A1:S2"/>
     <mergeCell ref="I11:N11"/>
@@ -13412,14 +13493,15 @@
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="C15:F15"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="H16:T17"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="J6:N6 Q6:S8 Q13:S14 I21:I22 K8:N8 J7">
@@ -13524,21 +13606,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16" customHeight="1" thickTop="1">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="295" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="358"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="339"/>
       <c r="G1" s="110"/>
-      <c r="H1" s="292" t="s">
+      <c r="H1" s="295" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="362"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="346"/>
       <c r="L1" s="110"/>
       <c r="M1" s="110"/>
       <c r="N1" s="110"/>
@@ -13552,29 +13634,29 @@
       <c r="V1" s="110"/>
       <c r="W1" s="110"/>
       <c r="X1" s="110"/>
-      <c r="Y1" s="292" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="362"/>
+      <c r="Y1" s="295" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z1" s="296"/>
+      <c r="AA1" s="296"/>
+      <c r="AB1" s="296"/>
+      <c r="AC1" s="296"/>
+      <c r="AD1" s="296"/>
+      <c r="AE1" s="346"/>
       <c r="AF1" s="110"/>
     </row>
     <row r="2" spans="1:38" ht="16" customHeight="1" thickBot="1">
-      <c r="A2" s="359"/>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="361"/>
+      <c r="A2" s="340"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="342"/>
       <c r="G2" s="110"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="363"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="347"/>
       <c r="L2" s="110"/>
       <c r="M2" s="110"/>
       <c r="N2" s="110"/>
@@ -13588,91 +13670,91 @@
       <c r="V2" s="110"/>
       <c r="W2" s="110"/>
       <c r="X2" s="110"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="363"/>
+      <c r="Y2" s="300"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="347"/>
       <c r="AF2" s="110"/>
     </row>
     <row r="3" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="348" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="350"/>
+      <c r="A3" s="369" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="370"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="371"/>
       <c r="G3" s="110"/>
       <c r="H3" s="78">
         <v>2</v>
       </c>
-      <c r="I3" s="369" t="s">
+      <c r="I3" s="356" t="s">
         <v>170</v>
       </c>
-      <c r="J3" s="370"/>
-      <c r="K3" s="371"/>
+      <c r="J3" s="357"/>
+      <c r="K3" s="358"/>
       <c r="L3" s="110"/>
       <c r="M3" s="110"/>
-      <c r="N3" s="267" t="s">
-        <v>282</v>
-      </c>
-      <c r="O3" s="365"/>
-      <c r="P3" s="365"/>
-      <c r="Q3" s="365"/>
-      <c r="R3" s="365"/>
-      <c r="S3" s="365"/>
-      <c r="T3" s="365"/>
-      <c r="U3" s="365"/>
-      <c r="V3" s="365"/>
-      <c r="W3" s="269"/>
+      <c r="N3" s="322" t="s">
+        <v>281</v>
+      </c>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="352"/>
+      <c r="T3" s="352"/>
+      <c r="U3" s="352"/>
+      <c r="V3" s="352"/>
+      <c r="W3" s="324"/>
       <c r="X3" s="110"/>
-      <c r="Y3" s="364" t="s">
+      <c r="Y3" s="348" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z3" s="349"/>
+      <c r="AA3" s="349"/>
+      <c r="AB3" s="202" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="350" t="s">
         <v>280</v>
       </c>
-      <c r="Z3" s="342"/>
-      <c r="AA3" s="342"/>
-      <c r="AB3" s="202" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="341" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="343"/>
+      <c r="AD3" s="349"/>
+      <c r="AE3" s="351"/>
       <c r="AF3" s="110"/>
     </row>
     <row r="4" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="351"/>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352"/>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352"/>
-      <c r="F4" s="353"/>
+      <c r="A4" s="372"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="374"/>
       <c r="G4" s="110"/>
       <c r="H4" s="27">
         <v>0</v>
       </c>
-      <c r="I4" s="372" t="s">
+      <c r="I4" s="359" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="373"/>
-      <c r="K4" s="374"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="361"/>
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
-      <c r="N4" s="366"/>
-      <c r="O4" s="367"/>
-      <c r="P4" s="367"/>
-      <c r="Q4" s="367"/>
-      <c r="R4" s="367"/>
-      <c r="S4" s="367"/>
-      <c r="T4" s="367"/>
-      <c r="U4" s="367"/>
-      <c r="V4" s="367"/>
-      <c r="W4" s="368"/>
+      <c r="N4" s="353"/>
+      <c r="O4" s="354"/>
+      <c r="P4" s="354"/>
+      <c r="Q4" s="354"/>
+      <c r="R4" s="354"/>
+      <c r="S4" s="354"/>
+      <c r="T4" s="354"/>
+      <c r="U4" s="354"/>
+      <c r="V4" s="354"/>
+      <c r="W4" s="355"/>
       <c r="X4" s="110"/>
       <c r="Y4" s="110"/>
       <c r="Z4" s="110"/>
@@ -13684,21 +13766,21 @@
       <c r="AF4" s="110"/>
     </row>
     <row r="5" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="351"/>
-      <c r="B5" s="352"/>
-      <c r="C5" s="352"/>
-      <c r="D5" s="352"/>
-      <c r="E5" s="352"/>
-      <c r="F5" s="353"/>
+      <c r="A5" s="372"/>
+      <c r="B5" s="373"/>
+      <c r="C5" s="373"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="374"/>
       <c r="G5" s="110"/>
       <c r="H5" s="29">
         <v>-1</v>
       </c>
-      <c r="I5" s="372" t="s">
+      <c r="I5" s="359" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="373"/>
-      <c r="K5" s="374"/>
+      <c r="J5" s="360"/>
+      <c r="K5" s="361"/>
       <c r="L5" s="110"/>
       <c r="M5" s="110"/>
       <c r="N5" s="110"/>
@@ -13712,53 +13794,53 @@
       <c r="V5" s="110"/>
       <c r="W5" s="110"/>
       <c r="X5" s="110"/>
-      <c r="Y5" s="338" t="s">
+      <c r="Y5" s="343" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="265"/>
-      <c r="AA5" s="265"/>
-      <c r="AB5" s="265"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="272"/>
       <c r="AC5" s="344"/>
       <c r="AD5" s="344"/>
       <c r="AE5" s="345"/>
       <c r="AF5" s="110"/>
     </row>
     <row r="6" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="354"/>
-      <c r="B6" s="355"/>
-      <c r="C6" s="355"/>
-      <c r="D6" s="355"/>
-      <c r="E6" s="355"/>
-      <c r="F6" s="356"/>
+      <c r="A6" s="375"/>
+      <c r="B6" s="376"/>
+      <c r="C6" s="376"/>
+      <c r="D6" s="376"/>
+      <c r="E6" s="376"/>
+      <c r="F6" s="377"/>
       <c r="G6" s="110"/>
       <c r="H6" s="77"/>
-      <c r="I6" s="375" t="s">
+      <c r="I6" s="362" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="376"/>
-      <c r="K6" s="377"/>
+      <c r="J6" s="363"/>
+      <c r="K6" s="364"/>
       <c r="L6" s="110"/>
       <c r="M6" s="110"/>
-      <c r="N6" s="339" t="s">
-        <v>244</v>
-      </c>
-      <c r="O6" s="340"/>
-      <c r="P6" s="346" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q6" s="347"/>
-      <c r="R6" s="341" t="s">
-        <v>247</v>
-      </c>
-      <c r="S6" s="342"/>
-      <c r="T6" s="342"/>
-      <c r="U6" s="343"/>
+      <c r="N6" s="365" t="s">
+        <v>243</v>
+      </c>
+      <c r="O6" s="366"/>
+      <c r="P6" s="367" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q6" s="368"/>
+      <c r="R6" s="350" t="s">
+        <v>246</v>
+      </c>
+      <c r="S6" s="349"/>
+      <c r="T6" s="349"/>
+      <c r="U6" s="351"/>
       <c r="V6" s="110"/>
       <c r="W6" s="110"/>
       <c r="X6" s="110"/>
       <c r="Y6" s="203"/>
       <c r="Z6" s="230" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA6" s="233" t="b">
         <v>0</v>
@@ -13802,7 +13884,7 @@
       <c r="X7" s="110"/>
       <c r="Y7" s="203"/>
       <c r="Z7" s="68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA7" s="234" t="b">
         <v>0</v>
@@ -13824,7 +13906,7 @@
         <v>146</v>
       </c>
       <c r="B8" s="152" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="152" t="s">
         <v>138</v>
@@ -13858,22 +13940,22 @@
         <v>177</v>
       </c>
       <c r="N8" s="224" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O8" s="224" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P8" s="224" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q8" s="224" t="s">
         <v>283</v>
       </c>
-      <c r="Q8" s="224" t="s">
+      <c r="R8" s="224" t="s">
         <v>284</v>
       </c>
-      <c r="R8" s="224" t="s">
-        <v>285</v>
-      </c>
       <c r="S8" s="224" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T8" s="224" t="s">
         <v>188</v>
@@ -13882,29 +13964,29 @@
         <v>187</v>
       </c>
       <c r="V8" s="224" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W8" s="225" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X8" s="110"/>
       <c r="Y8" s="206" t="s">
         <v>143</v>
       </c>
       <c r="Z8" s="152" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA8" s="152" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB8" s="152" t="s">
         <v>248</v>
       </c>
-      <c r="AB8" s="152" t="s">
+      <c r="AC8" s="152" t="s">
         <v>249</v>
       </c>
-      <c r="AC8" s="152" t="s">
+      <c r="AD8" s="185" t="s">
         <v>250</v>
-      </c>
-      <c r="AD8" s="185" t="s">
-        <v>251</v>
       </c>
       <c r="AE8" s="207" t="s">
         <v>165</v>
@@ -13940,7 +14022,7 @@
       </c>
       <c r="D9" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -13948,7 +14030,7 @@
       </c>
       <c r="F9" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G9" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -13960,7 +14042,7 @@
       </c>
       <c r="I9" s="15">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="J9" s="153">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
@@ -14316,7 +14398,7 @@
       </c>
       <c r="D11" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14324,7 +14406,7 @@
       </c>
       <c r="F11" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14498,7 +14580,7 @@
       </c>
       <c r="D12" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14506,7 +14588,7 @@
       </c>
       <c r="F12" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G12" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14678,7 +14760,7 @@
       </c>
       <c r="D13" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14686,7 +14768,7 @@
       </c>
       <c r="F13" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G13" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14864,7 +14946,7 @@
       </c>
       <c r="D14" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14872,7 +14954,7 @@
       </c>
       <c r="F14" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G14" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -14884,7 +14966,7 @@
       </c>
       <c r="I14" s="15">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="J14" s="153">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
@@ -15064,7 +15146,7 @@
       </c>
       <c r="D15" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15072,7 +15154,7 @@
       </c>
       <c r="F15" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G15" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15084,7 +15166,7 @@
       </c>
       <c r="I15" s="15">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J15" s="153">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
@@ -15151,7 +15233,7 @@
         )
       )/$G15+10^-10,
       0))),0))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB15" s="152">
         <f ca="1">IF(AB$6,0,
@@ -15227,7 +15309,7 @@
       </c>
       <c r="AE15" s="207">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="110"/>
       <c r="AH15" s="56">
@@ -15260,7 +15342,7 @@
       </c>
       <c r="D16" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15268,7 +15350,7 @@
       </c>
       <c r="F16" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G16" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15280,7 +15362,7 @@
       </c>
       <c r="I16" s="15">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>1700</v>
+        <v>6800</v>
       </c>
       <c r="J16" s="153">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
@@ -15351,7 +15433,7 @@
         )
       )/$G16+10^-10,
       0))),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="152">
         <f ca="1">IF(AB$6,0,
@@ -15375,7 +15457,7 @@
         )
       )/$G16+10^-10,
       0))),0))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC16" s="152">
         <f ca="1">IF(AC$6,0,
@@ -15399,7 +15481,7 @@
         )
       )/$G16+10^-10,
       0))),0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD16" s="152">
         <f ca="1">IF(AD$6,0,
@@ -15427,7 +15509,7 @@
       </c>
       <c r="AE16" s="207">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="110"/>
       <c r="AH16" s="56">
@@ -15460,7 +15542,7 @@
       </c>
       <c r="D17" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15468,7 +15550,7 @@
       </c>
       <c r="F17" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G17" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15480,7 +15562,7 @@
       </c>
       <c r="I17" s="15">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="J17" s="153">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
@@ -15601,7 +15683,7 @@
         )
       )/$G17+10^-10,
       0))),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="152">
         <f ca="1">IF(AD$6,0,
@@ -15629,7 +15711,7 @@
       </c>
       <c r="AE17" s="207">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="110"/>
       <c r="AH17" s="56">
@@ -15662,7 +15744,7 @@
       </c>
       <c r="D18" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15670,7 +15752,7 @@
       </c>
       <c r="F18" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G18" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15682,7 +15764,7 @@
       </c>
       <c r="I18" s="15">
         <f ca="1">ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Cost]]</f>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="J18" s="153">
         <f>ArmyState[[#This Row],[Count]]*ArmyState[[#This Row],[Time]]</f>
@@ -15801,7 +15883,7 @@
         )
       )/$G18+10^-10,
       0))),0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD18" s="152">
         <f ca="1">IF(AD$6,0,
@@ -15825,11 +15907,11 @@
         )
       )/$G18+10^-10,
       0))),0))</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE18" s="207">
         <f ca="1">ArmyState[[#This Row],[Count]]-SUM(BO_Barracks[[#This Row],[Already Built]:[Barracks4]])</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="110"/>
       <c r="AH18" s="56">
@@ -15862,7 +15944,7 @@
       </c>
       <c r="D19" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15870,7 +15952,7 @@
       </c>
       <c r="F19" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="G19" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -15924,23 +16006,23 @@
       </c>
       <c r="AA19" s="211">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks1],$G9:$G18)</f>
-        <v>0</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="AB19" s="211">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks2],$G9:$G18)</f>
-        <v>0</v>
+        <v>10.416666666666668</v>
       </c>
       <c r="AC19" s="211">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks3],$G9:$G18)</f>
-        <v>0</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="AD19" s="211">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks4],$G9:$G18)</f>
-        <v>0</v>
+        <v>10.333333333333332</v>
       </c>
       <c r="AE19" s="235">
         <f ca="1">SUMPRODUCT(BO_Barracks[Left],$G9:$G18)</f>
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="110"/>
       <c r="AH19" s="56">
@@ -16027,23 +16109,23 @@
       </c>
       <c r="AA20" s="214">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks1],$H9:$H18)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB20" s="214">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks2],$H9:$H18)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC20" s="214">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks3],$H9:$H18)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AD20" s="214">
         <f ca="1">SUMPRODUCT(BO_Barracks[Barracks4],$H9:$H18)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE20" s="215">
         <f ca="1">SUMPRODUCT(BO_Barracks[Left],$H9:$H18)</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="110"/>
     </row>
@@ -16129,7 +16211,7 @@
       </c>
       <c r="D22" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -16137,7 +16219,7 @@
       </c>
       <c r="F22" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="G22" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -16176,7 +16258,7 @@
         <v>2</v>
       </c>
       <c r="X22" s="110"/>
-      <c r="Y22" s="338" t="s">
+      <c r="Y22" s="343" t="s">
         <v>19</v>
       </c>
       <c r="Z22" s="344"/>
@@ -16201,7 +16283,7 @@
       </c>
       <c r="D23" s="152">
         <f ca="1">IFERROR(MATCH(1,OFFSET(ConstructionState[],MATCH(ArmyState[[#This Row],[Name]],ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="153" t="str">
         <f>INDEX(UnitCosts[Resource],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -16209,7 +16291,7 @@
       </c>
       <c r="F23" s="15">
         <f ca="1">VLOOKUP(ArmyState[[#This Row],[Name]],UnitCosts[],MATCH(TEXT(ArmyState[[#This Row],[Level]],"#"),UnitCosts[#Headers],0),FALSE)</f>
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="G23" s="153">
         <f>INDEX(UnitCosts[Train Time],MATCH(ArmyState[[#This Row],[Name]],UnitCosts[Name],0))</f>
@@ -16258,7 +16340,7 @@
       <c r="X23" s="110"/>
       <c r="Y23" s="209"/>
       <c r="Z23" s="191" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA23" s="226" t="b">
         <v>0</v>
@@ -16334,7 +16416,7 @@
       <c r="X24" s="110"/>
       <c r="Y24" s="203"/>
       <c r="Z24" s="193" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA24" s="228" t="b">
         <v>0</v>
@@ -16412,13 +16494,13 @@
         <v>143</v>
       </c>
       <c r="Z25" s="152" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA25" s="152" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB25" s="152" t="s">
         <v>253</v>
-      </c>
-      <c r="AB25" s="152" t="s">
-        <v>254</v>
       </c>
       <c r="AC25" s="207" t="s">
         <v>165</v>
@@ -16810,43 +16892,43 @@
       </c>
       <c r="N29" s="219">
         <f t="array" aca="1" ref="N29" ca="1">SUMPRODUCT(N$9:N$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>30200</v>
+        <v>91800</v>
       </c>
       <c r="O29" s="219">
         <f t="array" aca="1" ref="O29" ca="1">SUMPRODUCT(O$9:O$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>17100</v>
+        <v>64400</v>
       </c>
       <c r="P29" s="219">
         <f t="array" aca="1" ref="P29" ca="1">SUMPRODUCT(P$9:P$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>37475</v>
+        <v>106400</v>
       </c>
       <c r="Q29" s="219">
         <f t="array" aca="1" ref="Q29" ca="1">SUMPRODUCT(Q$9:Q$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>30800</v>
+        <v>103200</v>
       </c>
       <c r="R29" s="219">
         <f t="array" aca="1" ref="R29" ca="1">SUMPRODUCT(R$9:R$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>32425</v>
+        <v>88700</v>
       </c>
       <c r="S29" s="219">
         <f t="array" aca="1" ref="S29" ca="1">SUMPRODUCT(S$9:S$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>30200</v>
+        <v>91800</v>
       </c>
       <c r="T29" s="219">
         <f t="array" aca="1" ref="T29" ca="1">SUMPRODUCT(T$9:T$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>16200</v>
+        <v>56800</v>
       </c>
       <c r="U29" s="219">
         <f t="array" aca="1" ref="U29" ca="1">SUMPRODUCT(U$9:U$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>7500</v>
+        <v>31000</v>
       </c>
       <c r="V29" s="219">
         <f t="array" aca="1" ref="V29" ca="1">SUMPRODUCT(V$9:V$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>36125</v>
+        <v>106500</v>
       </c>
       <c r="W29" s="220">
         <f t="array" aca="1" ref="W29" ca="1">SUMPRODUCT(W$9:W$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Unit",1,0))</f>
-        <v>38725</v>
+        <v>80400</v>
       </c>
       <c r="X29" s="110"/>
       <c r="Y29" s="206" t="s">
@@ -16910,23 +16992,23 @@
       <c r="AF29" s="110"/>
     </row>
     <row r="30" spans="1:38" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="338" t="s">
+      <c r="A30" s="343" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="265"/>
-      <c r="C30" s="325"/>
+      <c r="B30" s="272"/>
+      <c r="C30" s="273"/>
       <c r="D30" s="110"/>
-      <c r="E30" s="338" t="s">
+      <c r="E30" s="343" t="s">
         <v>168</v>
       </c>
       <c r="F30" s="344"/>
       <c r="G30" s="345"/>
       <c r="H30" s="110"/>
-      <c r="I30" s="338" t="s">
-        <v>287</v>
-      </c>
-      <c r="J30" s="265"/>
-      <c r="K30" s="325"/>
+      <c r="I30" s="343" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" s="272"/>
+      <c r="K30" s="273"/>
       <c r="L30" s="108"/>
       <c r="M30" s="104" t="s">
         <v>186</v>
@@ -16941,15 +17023,15 @@
       </c>
       <c r="P30" s="106">
         <f t="array" aca="1" ref="P30" ca="1">SUMPRODUCT(P$9:P$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Spell",1,0))</f>
-        <v>53000</v>
+        <v>74000</v>
       </c>
       <c r="Q30" s="106">
         <f t="array" aca="1" ref="Q30" ca="1">SUMPRODUCT(Q$9:Q$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Spell",1,0))</f>
-        <v>38000</v>
+        <v>52000</v>
       </c>
       <c r="R30" s="106">
         <f t="array" aca="1" ref="R30" ca="1">SUMPRODUCT(R$9:R$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Spell",1,0))</f>
-        <v>53000</v>
+        <v>74000</v>
       </c>
       <c r="S30" s="106">
         <f t="array" aca="1" ref="S30" ca="1">SUMPRODUCT(S$9:S$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Spell",1,0))</f>
@@ -16957,7 +17039,7 @@
       </c>
       <c r="T30" s="106">
         <f t="array" aca="1" ref="T30" ca="1">SUMPRODUCT(T$9:T$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Spell",1,0))</f>
-        <v>69000</v>
+        <v>90000</v>
       </c>
       <c r="U30" s="106">
         <f t="array" aca="1" ref="U30" ca="1">SUMPRODUCT(U$9:U$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Spell",1,0))</f>
@@ -16965,11 +17047,11 @@
       </c>
       <c r="V30" s="106">
         <f t="array" aca="1" ref="V30" ca="1">SUMPRODUCT(V$9:V$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Spell",1,0))</f>
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="W30" s="115">
         <f t="array" aca="1" ref="W30" ca="1">SUMPRODUCT(W$9:W$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0),IF(ArmyState[Type]="Spell",1,0))</f>
-        <v>45000</v>
+        <v>66000</v>
       </c>
       <c r="X30" s="110"/>
       <c r="Y30" s="206" t="s">
@@ -17057,10 +17139,10 @@
         <v>138</v>
       </c>
       <c r="J31" s="175" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K31" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L31" s="108"/>
       <c r="M31" s="103" t="s">
@@ -17068,47 +17150,47 @@
       </c>
       <c r="N31" s="105">
         <f t="array" aca="1" ref="N31" ca="1">SUMPRODUCT(N$9:N$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>30200</v>
+        <v>91800</v>
       </c>
       <c r="O31" s="105">
         <f t="array" aca="1" ref="O31" ca="1">SUMPRODUCT(O$9:O$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>17100</v>
+        <v>64400</v>
       </c>
       <c r="P31" s="105">
         <f t="array" aca="1" ref="P31" ca="1">SUMPRODUCT(P$9:P$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>90475</v>
+        <v>180400</v>
       </c>
       <c r="Q31" s="105">
         <f t="array" aca="1" ref="Q31" ca="1">SUMPRODUCT(Q$9:Q$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>68800</v>
+        <v>155200</v>
       </c>
       <c r="R31" s="105">
         <f t="array" aca="1" ref="R31" ca="1">SUMPRODUCT(R$9:R$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>85425</v>
+        <v>162700</v>
       </c>
       <c r="S31" s="105">
         <f t="array" aca="1" ref="S31" ca="1">SUMPRODUCT(S$9:S$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>30200</v>
+        <v>91800</v>
       </c>
       <c r="T31" s="105">
         <f t="array" aca="1" ref="T31" ca="1">SUMPRODUCT(T$9:T$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>85200</v>
+        <v>146800</v>
       </c>
       <c r="U31" s="105">
         <f t="array" aca="1" ref="U31" ca="1">SUMPRODUCT(U$9:U$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>7500</v>
+        <v>31000</v>
       </c>
       <c r="V31" s="105">
         <f t="array" aca="1" ref="V31" ca="1">SUMPRODUCT(V$9:V$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>51125</v>
+        <v>128500</v>
       </c>
       <c r="W31" s="116">
         <f t="array" aca="1" ref="W31" ca="1">SUMPRODUCT(W$9:W$28,ArmyState[Cost],IF(ArmyState[Resource]="Elixir",1,0))</f>
-        <v>83725</v>
+        <v>146400</v>
       </c>
       <c r="X31" s="110"/>
       <c r="Y31" s="208" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z31" s="211">
         <f>SUMPRODUCT(BO_DarkBar[Already Built],$G24:$G28)</f>
@@ -17136,7 +17218,7 @@
       </c>
       <c r="B32" s="11">
         <f ca="1">SUMIFS(ArmyState[Total Cost],ArmyState[Resource],B$31,ArmyState[Type],$A32)</f>
-        <v>30200</v>
+        <v>91800</v>
       </c>
       <c r="C32" s="74">
         <f ca="1">SUMIFS(ArmyState[Total Cost],ArmyState[Resource],C$31,ArmyState[Type],$A32)</f>
@@ -17148,11 +17230,11 @@
       </c>
       <c r="F32" s="101">
         <f>ArmyCap</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G32" s="216">
         <f>F32-SUMIFS(ArmyState[Total Space],ArmyState[Type],E32)</f>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="58" t="s">
@@ -17162,9 +17244,9 @@
         <f>SUMIFS(ArmyState[Total Time],ArmyState[Type],"Unit",ArmyState[Resource],"Elixir")</f>
         <v>161.5</v>
       </c>
-      <c r="K32" s="169" t="e">
+      <c r="K32" s="169">
         <f ca="1">J32/NumBarracks</f>
-        <v>#DIV/0!</v>
+        <v>40.375</v>
       </c>
       <c r="L32" s="108"/>
       <c r="M32" s="104" t="s">
@@ -17252,11 +17334,11 @@
       </c>
       <c r="F33" s="102">
         <f ca="1">SpellCap</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="217">
         <f ca="1">F33-SUMIFS(ArmyState[Total Space],ArmyState[Type],E33)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="110"/>
       <c r="I33" s="58" t="s">
@@ -17266,9 +17348,9 @@
         <f>SUMIFS(ArmyState[Total Time],ArmyState[Type],"Unit",ArmyState[Resource],"Dark Elixir")</f>
         <v>0</v>
       </c>
-      <c r="K33" s="168" t="e">
+      <c r="K33" s="168">
         <f ca="1">J33/NumDarkBarracks</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L33" s="108"/>
       <c r="M33" s="108"/>
@@ -17298,7 +17380,7 @@
       </c>
       <c r="B34" s="23">
         <f ca="1">SUM(B32:B33)</f>
-        <v>30200</v>
+        <v>91800</v>
       </c>
       <c r="C34" s="76">
         <f ca="1">SUM(C32:C33)</f>
@@ -17379,6 +17461,13 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="19">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A3:F6"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="Y1:AE2"/>
@@ -17391,13 +17480,6 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A3:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="B32:C34 J32:K34 I9:K28 N29:W32 B9:B28 F32:G33 AA9:AD18 AA26:AC30">
     <cfRule type="cellIs" dxfId="222" priority="102" operator="equal">
@@ -17674,40 +17756,40 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" ht="30">
       <c r="B11" s="88"/>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="30">
+      <c r="B12" s="88"/>
+      <c r="C12" s="93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="88"/>
+      <c r="C13" s="94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="135"/>
+      <c r="C14" s="141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="135"/>
+      <c r="C15" s="139" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="75">
-      <c r="B12" s="88"/>
-      <c r="C12" s="92" t="s">
+    <row r="16" spans="2:3" ht="75">
+      <c r="B16" s="135"/>
+      <c r="C16" s="92" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="30">
-      <c r="B13" s="88"/>
-      <c r="C13" s="91" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="30">
-      <c r="B14" s="88"/>
-      <c r="C14" s="93" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="88"/>
-      <c r="C15" s="94" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="135"/>
-      <c r="C16" s="141" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -17717,7 +17799,7 @@
     <row r="18" spans="2:3" ht="16" thickBot="1">
       <c r="B18" s="142"/>
       <c r="C18" s="143" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="17" thickTop="1" thickBot="1">
@@ -17807,13 +17889,13 @@
     <row r="35" spans="1:3">
       <c r="B35" s="135"/>
       <c r="C35" s="136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" thickBot="1">
       <c r="B36" s="142"/>
       <c r="C36" s="146" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" thickTop="1" thickBot="1"/>
@@ -17873,7 +17955,7 @@
         <v>41824</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60">
@@ -17882,7 +17964,7 @@
         <v>41830</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17891,7 +17973,7 @@
         <v>41832</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
@@ -17900,7 +17982,7 @@
         <v>41836</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -17909,7 +17991,7 @@
         <v>41851</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30">
@@ -17918,7 +18000,7 @@
         <v>41853</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -17927,7 +18009,7 @@
         <v>41868</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17936,7 +18018,7 @@
         <v>41945</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -17945,13 +18027,17 @@
         <v>41962</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="96"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="97"/>
+      <c r="B53" s="99">
+        <v>42102</v>
+      </c>
+      <c r="C53" s="97" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="16" thickBot="1">
       <c r="A54" s="96"/>
@@ -17961,13 +18047,13 @@
     <row r="55" spans="1:4" ht="17" thickTop="1" thickBot="1">
       <c r="A55" s="96"/>
       <c r="D55" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" thickTop="1" thickBot="1">
       <c r="A56" s="96"/>
       <c r="B56" s="387" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C56" s="388"/>
     </row>
@@ -17993,7 +18079,7 @@
         <v>140</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -18006,10 +18092,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="B61" s="134" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -18039,7 +18125,7 @@
   <hyperlinks>
     <hyperlink ref="C33" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C14" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18058,8 +18144,8 @@
   </sheetPr>
   <dimension ref="A1:AD321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="K213" sqref="K213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18115,7 +18201,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>30</v>
@@ -18157,7 +18243,7 @@
         <v>55</v>
       </c>
       <c r="Q2" s="250" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>56</v>
@@ -18196,7 +18282,7 @@
         <v>67</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -18207,7 +18293,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -18299,7 +18385,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>1</v>
@@ -18391,7 +18477,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>1</v>
@@ -18429,8 +18515,8 @@
       <c r="O5" s="61">
         <v>168000</v>
       </c>
-      <c r="P5" s="61" t="e">
-        <v>#N/A</v>
+      <c r="P5" s="61">
+        <v>336000</v>
       </c>
       <c r="Q5" s="251" t="e">
         <v>#N/A</v>
@@ -18468,8 +18554,8 @@
       <c r="AB5" s="63">
         <v>4</v>
       </c>
-      <c r="AC5" s="63" t="e">
-        <v>#N/A</v>
+      <c r="AC5" s="63">
+        <v>5</v>
       </c>
       <c r="AD5" s="242" t="e">
         <v>#N/A</v>
@@ -18483,7 +18569,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>29</v>
@@ -18521,8 +18607,8 @@
       <c r="O6" s="61">
         <v>168000</v>
       </c>
-      <c r="P6" s="61" t="e">
-        <v>#N/A</v>
+      <c r="P6" s="61">
+        <v>336000</v>
       </c>
       <c r="Q6" s="251" t="e">
         <v>#N/A</v>
@@ -18560,8 +18646,8 @@
       <c r="AB6" s="63">
         <v>4</v>
       </c>
-      <c r="AC6" s="63" t="e">
-        <v>#N/A</v>
+      <c r="AC6" s="63">
+        <v>5</v>
       </c>
       <c r="AD6" s="242" t="e">
         <v>#N/A</v>
@@ -18575,7 +18661,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>1</v>
@@ -18667,7 +18753,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>1</v>
@@ -18759,7 +18845,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>29</v>
@@ -18851,7 +18937,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>1</v>
@@ -18943,7 +19029,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>1</v>
@@ -19035,7 +19121,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>1</v>
@@ -19121,13 +19207,13 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>1</v>
@@ -19219,7 +19305,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>1</v>
@@ -19311,7 +19397,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>29</v>
@@ -19403,7 +19489,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>29</v>
@@ -19444,8 +19530,8 @@
       <c r="P16" s="61">
         <v>6400000</v>
       </c>
-      <c r="Q16" s="251" t="e">
-        <v>#N/A</v>
+      <c r="Q16" s="251">
+        <v>7500000</v>
       </c>
       <c r="R16" s="62">
         <v>6.9444444444444436E-4</v>
@@ -19483,8 +19569,8 @@
       <c r="AC16" s="63">
         <v>6</v>
       </c>
-      <c r="AD16" s="242" t="e">
-        <v>#N/A</v>
+      <c r="AD16" s="242">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -19495,7 +19581,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>29</v>
@@ -19679,7 +19765,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>29</v>
@@ -19771,7 +19857,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>29</v>
@@ -19863,7 +19949,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>29</v>
@@ -19955,7 +20041,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>29</v>
@@ -20047,7 +20133,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>29</v>
@@ -20139,7 +20225,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>29</v>
@@ -20231,7 +20317,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>29</v>
@@ -20323,7 +20409,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>29</v>
@@ -20409,13 +20495,13 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>29</v>
@@ -20507,7 +20593,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>29</v>
@@ -20599,7 +20685,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>29</v>
@@ -20691,7 +20777,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>29</v>
@@ -20783,7 +20869,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>102</v>
@@ -20875,7 +20961,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>102</v>
@@ -20967,7 +21053,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>1</v>
@@ -21059,7 +21145,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D34" s="47" t="s">
         <v>1</v>
@@ -21151,7 +21237,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>1</v>
@@ -21243,7 +21329,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>1</v>
@@ -21266,8 +21352,8 @@
       <c r="J36" s="61">
         <v>6000000</v>
       </c>
-      <c r="K36" s="61" t="e">
-        <v>#N/A</v>
+      <c r="K36" s="61">
+        <v>7000000</v>
       </c>
       <c r="L36" s="61" t="e">
         <v>#N/A</v>
@@ -21305,8 +21391,8 @@
       <c r="W36" s="63">
         <v>10</v>
       </c>
-      <c r="X36" s="63" t="e">
-        <v>#N/A</v>
+      <c r="X36" s="63">
+        <v>14</v>
       </c>
       <c r="Y36" s="63" t="e">
         <v>#N/A</v>
@@ -21335,7 +21421,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D37" s="47" t="s">
         <v>1</v>
@@ -21427,7 +21513,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>1</v>
@@ -21519,7 +21605,7 @@
         <v>71</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>1</v>
@@ -21611,7 +21697,7 @@
         <v>71</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>1</v>
@@ -21703,7 +21789,7 @@
         <v>71</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>1</v>
@@ -21795,7 +21881,7 @@
         <v>71</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>1</v>
@@ -21887,7 +21973,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D43" s="47" t="s">
         <v>1</v>
@@ -21979,7 +22065,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>1</v>
@@ -22071,7 +22157,7 @@
         <v>71</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45" s="47" t="s">
         <v>1</v>
@@ -22163,7 +22249,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D46" s="47" t="s">
         <v>1</v>
@@ -22255,7 +22341,7 @@
         <v>71</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D47" s="47" t="s">
         <v>1</v>
@@ -22347,7 +22433,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D48" s="47" t="s">
         <v>102</v>
@@ -22439,7 +22525,7 @@
         <v>71</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D49" s="47" t="s">
         <v>102</v>
@@ -22531,7 +22617,7 @@
         <v>71</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D50" s="47" t="s">
         <v>102</v>
@@ -22623,7 +22709,7 @@
         <v>71</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>102</v>
@@ -22715,7 +22801,7 @@
         <v>71</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>102</v>
@@ -22801,13 +22887,13 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D53" s="47" t="s">
         <v>102</v>
@@ -24320,7 +24406,7 @@
     <row r="99" spans="1:28" ht="16" thickBot="1"/>
     <row r="100" spans="1:28" ht="32" thickTop="1" thickBot="1">
       <c r="A100" s="389" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B100" s="390"/>
       <c r="C100" s="390"/>
@@ -24353,7 +24439,7 @@
     <row r="101" spans="1:28" ht="16" thickTop="1"/>
     <row r="102" spans="1:28">
       <c r="A102" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>2</v>
@@ -24765,8 +24851,8 @@
       <c r="K120" s="44">
         <v>3000</v>
       </c>
-      <c r="L120" s="245" t="e">
-        <v>#N/A</v>
+      <c r="L120" s="245">
+        <v>3500</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -25379,7 +25465,7 @@
     </row>
     <row r="137" spans="1:28">
       <c r="A137" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B137" s="47" t="s">
         <v>143</v>
@@ -25646,10 +25732,10 @@
         <v>0</v>
       </c>
       <c r="H146" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" s="9">
         <v>2</v>
@@ -25835,7 +25921,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B152" s="9">
         <v>1</v>
@@ -26325,7 +26411,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B166" s="9">
         <v>0</v>
@@ -27305,7 +27391,7 @@
     </row>
     <row r="194" spans="1:28">
       <c r="A194" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B194" s="47">
         <v>0</v>
@@ -27467,13 +27553,13 @@
         <v>11</v>
       </c>
       <c r="I200" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J200" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K200" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -27502,13 +27588,13 @@
         <v>11</v>
       </c>
       <c r="I201" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J201" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K201" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -27534,7 +27620,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I202" s="9">
         <v>3</v>
@@ -27723,7 +27809,7 @@
     </row>
     <row r="208" spans="1:28">
       <c r="A208" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B208" s="9">
         <v>1</v>
@@ -27893,7 +27979,7 @@
         <v>11</v>
       </c>
       <c r="K212" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -28248,7 +28334,7 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B223" s="9">
         <v>0</v>
@@ -28657,7 +28743,7 @@
         <v>6</v>
       </c>
       <c r="I234" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J234" s="9">
         <v>0</v>
@@ -29228,7 +29314,7 @@
     </row>
     <row r="251" spans="1:28">
       <c r="A251" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B251" s="47">
         <v>0</v>
@@ -29337,7 +29423,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -29432,7 +29518,7 @@
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="281" spans="1:1">
@@ -29547,7 +29633,7 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -29592,47 +29678,47 @@
     </row>
     <row r="312" spans="1:1" ht="16" thickTop="1">
       <c r="A312" s="84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="16" thickBot="1">
       <c r="A320" s="81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="321" ht="16" thickTop="1"/>
@@ -29696,8 +29782,8 @@
   </sheetPr>
   <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29712,7 +29798,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="32" thickTop="1" thickBot="1">
       <c r="A1" s="389" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="390"/>
       <c r="C1" s="390"/>
@@ -29744,78 +29830,78 @@
     <row r="2" spans="1:27" ht="17" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:27" ht="17" thickTop="1" thickBot="1">
       <c r="A3" s="160" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="159" t="s">
         <v>238</v>
-      </c>
-      <c r="B3" s="159" t="s">
-        <v>239</v>
       </c>
       <c r="D3" s="160" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="159" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="196" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H3" s="197"/>
       <c r="I3" s="186" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="186" t="s">
         <v>259</v>
       </c>
-      <c r="J3" s="186" t="s">
-        <v>257</v>
-      </c>
-      <c r="K3" s="186" t="s">
-        <v>260</v>
-      </c>
       <c r="L3" s="186" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" s="186" t="s">
         <v>262</v>
       </c>
-      <c r="M3" s="186" t="s">
+      <c r="N3" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="N3" s="186" t="s">
+      <c r="O3" s="186" t="s">
         <v>264</v>
       </c>
-      <c r="O3" s="186" t="s">
+      <c r="P3" s="186" t="s">
         <v>265</v>
       </c>
-      <c r="P3" s="186" t="s">
+      <c r="Q3" s="186" t="s">
         <v>266</v>
       </c>
-      <c r="Q3" s="186" t="s">
+      <c r="R3" s="186" t="s">
         <v>267</v>
       </c>
-      <c r="R3" s="186" t="s">
+      <c r="S3" s="186" t="s">
         <v>268</v>
       </c>
-      <c r="S3" s="186" t="s">
+      <c r="T3" s="187" t="s">
         <v>269</v>
-      </c>
-      <c r="T3" s="187" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" thickTop="1" thickBot="1">
       <c r="A4" s="164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="165">
         <f>MATCH("1",ConstructionState[#Headers],0)-1</f>
         <v>7</v>
       </c>
       <c r="D4" s="191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="165">
         <f ca="1">IFERROR(COLUMN(INDIRECT(MID($H$5,ROW()-3,1)&amp;"1")),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="188" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="189" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I4" s="189">
         <v>1</v>
@@ -29860,21 +29946,21 @@
       </c>
       <c r="B5" s="166">
         <f ca="1">IF(SetToMax,10,IFERROR(MATCH(TRUE,INDEX(OFFSET(ConstructionState[],MATCH("Town Hall",ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)&lt;&gt;"",),0),1))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="166">
         <f ca="1">IFERROR(COLUMN(INDIRECT(MID($H$5,ROW()-3,1)&amp;"1")),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="194" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="198" t="str">
         <f>CONCATENATE(T5,S5,R5,Q5,P5,O5,N5,M5,L5,K5,J5,I5)</f>
-        <v/>
+        <v>JJJI</v>
       </c>
       <c r="I5" s="198" t="str">
         <f>REPT(I$3,INDEX(ConstructionState[],MATCH($G5,ConstructionState[Building or Upgrade],0),MATCH(TEXT(I$4,"0"),ConstructionState[#Headers],0)))</f>
@@ -29910,11 +29996,11 @@
       </c>
       <c r="Q5" s="198" t="str">
         <f>REPT(Q$3,INDEX(ConstructionState[],MATCH($G5,ConstructionState[Building or Upgrade],0),MATCH(TEXT(Q$4,"0"),ConstructionState[#Headers],0)))</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="R5" s="198" t="str">
         <f>REPT(R$3,INDEX(ConstructionState[],MATCH($G5,ConstructionState[Building or Upgrade],0),MATCH(TEXT(R$4,"0"),ConstructionState[#Headers],0)))</f>
-        <v/>
+        <v>JJJ</v>
       </c>
       <c r="S5" s="198" t="str">
         <f>REPT(S$3,INDEX(ConstructionState[],MATCH($G5,ConstructionState[Building or Upgrade],0),MATCH(TEXT(S$4,"0"),ConstructionState[#Headers],0)))</f>
@@ -29927,25 +30013,25 @@
     </row>
     <row r="6" spans="1:27" ht="16" thickBot="1">
       <c r="A6" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="166">
         <f ca="1">IF(SetToMax,8,IFERROR(MATCH(TRUE,INDEX(OFFSET(ConstructionState[],MATCH("Laboratory",ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)&lt;&gt;"",),0),0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="192" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="166">
         <f ca="1">IFERROR(COLUMN(INDIRECT(MID($H$5,ROW()-3,1)&amp;"1")),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="195" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="200" t="str">
         <f>CONCATENATE(T6,S6,R6,Q6,P6,O6,N6,M6,L6,K6,J6,I6)</f>
-        <v/>
+        <v>DD</v>
       </c>
       <c r="I6" s="200" t="str">
         <f>REPT(I$3,INDEX(ConstructionState[],MATCH($G6,ConstructionState[Building or Upgrade],0),MATCH(TEXT(I$4,"0"),ConstructionState[#Headers],0)))</f>
@@ -29961,7 +30047,7 @@
       </c>
       <c r="L6" s="200" t="str">
         <f>REPT(L$3,INDEX(ConstructionState[],MATCH($G6,ConstructionState[Building or Upgrade],0),MATCH(TEXT(L$4,"0"),ConstructionState[#Headers],0)))</f>
-        <v/>
+        <v>DD</v>
       </c>
       <c r="M6" s="200" t="str">
         <f>REPT(M$3,INDEX(ConstructionState[],MATCH($G6,ConstructionState[Building or Upgrade],0),MATCH(TEXT(M$4,"0"),ConstructionState[#Headers],0)))</f>
@@ -29998,18 +30084,18 @@
     </row>
     <row r="7" spans="1:27" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="166">
         <f ca="1">SUM(OFFSET(ConstructionState[],MATCH("Barracks",ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="192" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="166">
         <f ca="1">IFERROR(COLUMN(INDIRECT(MID($H$5,ROW()-3,1)&amp;"1")),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H7" s="198" t="str">
         <f>CONCATENATE(I7,J7,K7,L7,M7,N7,O7,P7,Q7,R7,S7,T7)</f>
@@ -30018,18 +30104,18 @@
     </row>
     <row r="8" spans="1:27" ht="16" thickTop="1">
       <c r="A8" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="166">
         <f ca="1">SUM(OFFSET(ConstructionState[],MATCH("Dark Barracks",ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="192" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" s="166">
         <f ca="1">IFERROR(COLUMN(INDIRECT(MID($H$6,ROW()-7,1)&amp;"1")),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="198" t="str">
         <f>CONCATENATE(T8,S8,R8,Q8,P8,O8,N8,M8,L8,K8,J8,I8)</f>
@@ -30042,14 +30128,14 @@
       </c>
       <c r="B9" s="167">
         <f ca="1">IFERROR(MATCH(TRUE,INDEX(OFFSET(ConstructionState[],MATCH("Spell Factory",ConstructionState[Building or Upgrade],0)-1,L1Offset,1,12)&lt;&gt;"",),0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="193" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="167">
         <f ca="1">IFERROR(COLUMN(INDIRECT(MID($H$6,ROW()-7,1)&amp;"1")),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="17" thickTop="1" thickBot="1"/>
@@ -30130,11 +30216,11 @@
       </c>
       <c r="D14">
         <f ca="1">VLOOKUP(HeroNextUpgrade[[#This Row],[Hero]],MaxLevel[],MATCH("L"&amp;THLevel,MaxLevel[#Headers],0),FALSE)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" t="b">
         <f ca="1">AND(HeroNextUpgrade[[#This Row],[Level]]&lt;HeroNextUpgrade[[#This Row],[MaxLevel]],COUNTIF(Skips,HeroNextUpgrade[[#This Row],[Hero]])=0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>HeroNextUpgrade[[#This Row],[Level]]+1</f>
@@ -30150,11 +30236,11 @@
       </c>
       <c r="I14" s="124">
         <f ca="1">IF(HeroNextUpgrade[[#This Row],[Upgradeable]],SUM(OFFSET(HeroUpgrades[],HeroNextUpgrade[[#This Row],[Level]],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Cost",HeroUpgrades[#Headers],0)-1,HeroNextUpgrade[[#This Row],[MaxLevel]]-HeroNextUpgrade[[#This Row],[Level]],1)),0)</f>
-        <v>0</v>
+        <v>152500</v>
       </c>
       <c r="J14" s="123">
         <f ca="1">IF(HeroNextUpgrade[[#This Row],[Upgradeable]],SUM(OFFSET(HeroUpgrades[],HeroNextUpgrade[[#This Row],[Level]],MATCH(HeroNextUpgrade[[#This Row],[Lookup Key]]&amp;"-Time",HeroUpgrades[#Headers],0)-1,HeroNextUpgrade[[#This Row],[MaxLevel]]-HeroNextUpgrade[[#This Row],[Level]],1)),0)</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -30257,7 +30343,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>30</v>
@@ -30305,7 +30391,7 @@
         <v>43</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T19" s="9" t="s">
         <v>68</v>
@@ -30333,7 +30419,7 @@
       </c>
       <c r="F20" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>1000</v>
+        <v>3000000</v>
       </c>
       <c r="G20" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:G24)),0)</f>
@@ -30341,7 +30427,7 @@
       </c>
       <c r="H20" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:H24)),0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:I24)),0)</f>
@@ -30369,7 +30455,7 @@
       </c>
       <c r="O20" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:O24)),0)</f>
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="P20" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:P24)),0)</f>
@@ -30389,7 +30475,7 @@
       </c>
       <c r="T20" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>1000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -30495,19 +30581,19 @@
       </c>
       <c r="F22" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>200</v>
+        <v>2000000</v>
       </c>
       <c r="G22" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:G26)),0)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:H26)),0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I22" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:I26)),0)</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J22" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:J26)),0)</f>
@@ -30535,7 +30621,7 @@
       </c>
       <c r="P22" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:P26)),0)</f>
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="Q22" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:Q26)),0)</f>
@@ -30551,12 +30637,12 @@
       </c>
       <c r="T22" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>3700</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="46" t="str">
         <f>VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH(Remaining_Cost[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
@@ -30574,13 +30660,13 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Elixir</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>250</v>
+        <v/>
       </c>
       <c r="G23" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F27,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G27:G27)),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H23" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F27,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G27:H27)),0)</f>
@@ -30632,7 +30718,7 @@
       </c>
       <c r="T23" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -30655,17 +30741,17 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Elixir</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>150</v>
+        <v/>
       </c>
       <c r="G24" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F28,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G28:G28)),0)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H24" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F28,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G28:H28)),0)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I24" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F28,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G28:I28)),0)</f>
@@ -30713,7 +30799,7 @@
       </c>
       <c r="T24" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -30736,17 +30822,17 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>150</v>
+        <v/>
       </c>
       <c r="G25" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F29,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G29:G29)),0)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H25" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F29,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G29:H29)),0)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I25" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F29,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G29:I29)),0)</f>
@@ -30794,7 +30880,7 @@
       </c>
       <c r="T25" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -30898,13 +30984,13 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Elixir</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>300</v>
+        <v/>
       </c>
       <c r="G27" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F31,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G31:G31)),0)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H27" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F31,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G31:H31)),0)</f>
@@ -30956,7 +31042,7 @@
       </c>
       <c r="T27" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -30979,13 +31065,13 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>300</v>
+        <v/>
       </c>
       <c r="G28" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F32,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G32:G32)),0)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H28" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F32,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G32:H32)),0)</f>
@@ -31037,7 +31123,7 @@
       </c>
       <c r="T28" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -31060,9 +31146,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Elixir</v>
       </c>
-      <c r="F29" s="44" t="str">
+      <c r="F29" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>2400000</v>
       </c>
       <c r="G29" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F33,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G33:G33)),0)</f>
@@ -31078,7 +31164,7 @@
       </c>
       <c r="J29" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F33,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G33:J33)),0)</f>
-        <v>0</v>
+        <v>2400000</v>
       </c>
       <c r="K29" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F33,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G33:K33)),0)</f>
@@ -31118,7 +31204,7 @@
       </c>
       <c r="T29" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -31384,17 +31470,17 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>250</v>
+        <v/>
       </c>
       <c r="G33" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F37,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G37:G37)),0)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H33" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F37,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G37:H37)),0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F37,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G37:I37)),0)</f>
@@ -31442,7 +31528,7 @@
       </c>
       <c r="T33" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -31465,9 +31551,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F34" s="44" t="str">
+      <c r="F34" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>2500000</v>
       </c>
       <c r="G34" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F38,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G38:G38)),0)</f>
@@ -31507,7 +31593,7 @@
       </c>
       <c r="P34" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F38,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G38:P38)),0)</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="Q34" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F38,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G38:Q38)),0)</f>
@@ -31523,7 +31609,7 @@
       </c>
       <c r="T34" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -31546,9 +31632,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Wall-Gold</v>
       </c>
-      <c r="F35" s="44" t="str">
+      <c r="F35" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>75000</v>
       </c>
       <c r="G35" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F39,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G39:G39)),0)</f>
@@ -31572,15 +31658,15 @@
       </c>
       <c r="L35" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F39,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G39:L39)),0)</f>
-        <v>0</v>
+        <v>2625000</v>
       </c>
       <c r="M35" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F39,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G39:M39)),0)</f>
-        <v>0</v>
+        <v>26400000</v>
       </c>
       <c r="N35" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F39,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G39:N39)),0)</f>
-        <v>0</v>
+        <v>112500000</v>
       </c>
       <c r="O35" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F39,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G39:O39)),0)</f>
@@ -31604,7 +31690,7 @@
       </c>
       <c r="T35" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>141525000</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -31708,9 +31794,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F37" s="44" t="str">
+      <c r="F37" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="G37" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F41,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G41:G41)),0)</f>
@@ -31730,7 +31816,7 @@
       </c>
       <c r="K37" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F41,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G41:K41)),0)</f>
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="L37" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F41,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G41:L41)),0)</f>
@@ -31766,7 +31852,7 @@
       </c>
       <c r="T37" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -31789,9 +31875,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F38" s="44" t="str">
+      <c r="F38" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>2160000</v>
       </c>
       <c r="G38" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F42,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G42:G42)),0)</f>
@@ -31815,7 +31901,7 @@
       </c>
       <c r="L38" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F42,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G42:L42)),0)</f>
-        <v>0</v>
+        <v>6480000</v>
       </c>
       <c r="M38" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F42,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G42:M42)),0)</f>
@@ -31847,7 +31933,7 @@
       </c>
       <c r="T38" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>6480000</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -31951,9 +32037,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F40" s="44" t="str">
+      <c r="F40" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>2680000</v>
       </c>
       <c r="G40" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F44,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G44:G44)),0)</f>
@@ -31977,7 +32063,7 @@
       </c>
       <c r="L40" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F44,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G44:L44)),0)</f>
-        <v>0</v>
+        <v>2680000</v>
       </c>
       <c r="M40" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F44,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G44:M44)),0)</f>
@@ -32009,7 +32095,7 @@
       </c>
       <c r="T40" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>2680000</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -32032,21 +32118,21 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F41" s="44" t="str">
+      <c r="F41" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>12500</v>
       </c>
       <c r="G41" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F45,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G45:G45)),0)</f>
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="H41" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F45,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G45:H45)),0)</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I41" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F45,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G45:I45)),0)</f>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="J41" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F45,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G45:J45)),0)</f>
@@ -32090,7 +32176,7 @@
       </c>
       <c r="T41" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>1587500</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -32257,7 +32343,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" s="9" t="str">
         <f>VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH(Remaining_Cost[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
@@ -32356,9 +32442,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F45" s="44" t="str">
+      <c r="F45" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>2500000</v>
       </c>
       <c r="G45" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F49,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G49:G49)),0)</f>
@@ -32378,11 +32464,11 @@
       </c>
       <c r="K45" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F49,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G49:K49)),0)</f>
-        <v>0</v>
+        <v>7500000</v>
       </c>
       <c r="L45" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F49,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G49:L49)),0)</f>
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="M45" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F49,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G49:M49)),0)</f>
@@ -32414,7 +32500,7 @@
       </c>
       <c r="T45" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -33164,11 +33250,11 @@
       </c>
       <c r="E55" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="F55" s="44" t="str">
+        <v>Upgrade-Elixir</v>
+      </c>
+      <c r="F55" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>1350000</v>
       </c>
       <c r="G55" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F59,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G59:G59)),0)</f>
@@ -33184,11 +33270,11 @@
       </c>
       <c r="J55" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F59,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G59:J59)),0)</f>
-        <v>0</v>
+        <v>1350000</v>
       </c>
       <c r="K55" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F59,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G59:K59)),0)</f>
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="L55" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F59,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G59:L59)),0)</f>
@@ -33223,8 +33309,8 @@
         <v>0</v>
       </c>
       <c r="T55" s="45">
-        <f>IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
+        <v>3850000</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -33409,9 +33495,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Upgrade-Elixir</v>
       </c>
-      <c r="F58" s="44" t="str">
+      <c r="F58" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="G58" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F62,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G62:G62)),0)</f>
@@ -33423,7 +33509,7 @@
       </c>
       <c r="I58" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F62,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G62:I62)),0)</f>
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J58" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F62,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G62:J62)),0)</f>
@@ -33467,7 +33553,7 @@
       </c>
       <c r="T58" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -33490,9 +33576,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Upgrade-Elixir</v>
       </c>
-      <c r="F59" s="44" t="str">
+      <c r="F59" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="G59" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F63,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G63:G63)),0)</f>
@@ -33500,11 +33586,11 @@
       </c>
       <c r="H59" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F63,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G63:H63)),0)</f>
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="I59" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F63,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G63:I63)),0)</f>
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="J59" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F63,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G63:J63)),0)</f>
@@ -33548,7 +33634,7 @@
       </c>
       <c r="T59" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -33569,7 +33655,7 @@
       </c>
       <c r="E60" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="F60" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
@@ -33628,7 +33714,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="45">
-        <f>IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
+        <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
         <v>0</v>
       </c>
     </row>
@@ -33650,7 +33736,7 @@
       </c>
       <c r="E61" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="F61" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
@@ -33709,7 +33795,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="45">
-        <f>IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
+        <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
         <v>0</v>
       </c>
     </row>
@@ -33731,11 +33817,11 @@
       </c>
       <c r="E62" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="F62" s="44" t="str">
+        <v>Upgrade-Elixir</v>
+      </c>
+      <c r="F62" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="G62" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F66,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G66:G66)),0)</f>
@@ -33755,7 +33841,7 @@
       </c>
       <c r="K62" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F66,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G66:K66)),0)</f>
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="L62" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F66,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G66:L66)),0)</f>
@@ -33790,8 +33876,8 @@
         <v>0</v>
       </c>
       <c r="T62" s="45">
-        <f>IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
+        <v>3000000</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -33812,7 +33898,7 @@
       </c>
       <c r="E63" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="F63" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
@@ -33871,7 +33957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="45">
-        <f>IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
+        <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
         <v>0</v>
       </c>
     </row>
@@ -33893,7 +33979,7 @@
       </c>
       <c r="E64" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="F64" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
@@ -33952,7 +34038,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="45">
-        <f>IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
+        <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
         <v>0</v>
       </c>
     </row>
@@ -33974,11 +34060,11 @@
       </c>
       <c r="E65" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="F65" s="44" t="str">
+        <v>Upgrade-Dark Elixir</v>
+      </c>
+      <c r="F65" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>10000</v>
       </c>
       <c r="G65" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:G69)),0)</f>
@@ -33986,15 +34072,15 @@
       </c>
       <c r="H65" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:H69)),0)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I65" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:I69)),0)</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J65" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:J69)),0)</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K65" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:K69)),0)</f>
@@ -34033,8 +34119,8 @@
         <v>0</v>
       </c>
       <c r="T65" s="45">
-        <f>IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
+        <v>60000</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -34057,9 +34143,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Upgrade-Dark Elixir</v>
       </c>
-      <c r="F66" s="44" t="str">
+      <c r="F66" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>20000</v>
       </c>
       <c r="G66" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:G70)),0)</f>
@@ -34067,15 +34153,15 @@
       </c>
       <c r="H66" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:H70)),0)</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I66" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:I70)),0)</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J66" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:J70)),0)</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="K66" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:K70)),0)</f>
@@ -34115,7 +34201,7 @@
       </c>
       <c r="T66" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -34138,9 +34224,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Upgrade-Dark Elixir</v>
       </c>
-      <c r="F67" s="44" t="str">
+      <c r="F67" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>50000</v>
       </c>
       <c r="G67" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F71,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G71:G71)),0)</f>
@@ -34148,7 +34234,7 @@
       </c>
       <c r="H67" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F71,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G71:H71)),0)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I67" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F71,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G71:I71)),0)</f>
@@ -34196,7 +34282,7 @@
       </c>
       <c r="T67" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -34219,9 +34305,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Cost[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Cost[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Cost[Kind]&amp;"-"&amp;Remaining_Cost[Resource])</f>
         <v>Upgrade-Dark Elixir</v>
       </c>
-      <c r="F68" s="44" t="str">
+      <c r="F68" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;MATCH(TRUE,INDEX(Remaining_Cost[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>60000</v>
       </c>
       <c r="G68" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F72,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G72:G72)),0)</f>
@@ -34229,7 +34315,7 @@
       </c>
       <c r="H68" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F72,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G72:H72)),0)</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I68" s="45">
         <f ca="1">IF(VALUE(Remaining_Cost[#Headers])&lt;='Construction Dashboard'!$F72,IFERROR(VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH("C"&amp;Remaining_Cost[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G72:I72)),0)</f>
@@ -34277,7 +34363,7 @@
       </c>
       <c r="T68" s="45">
         <f ca="1">IF(Remaining_Cost[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Cost[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -34363,7 +34449,7 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B70" s="48" t="str">
         <f>VLOOKUP(Remaining_Cost[[#This Row],[Name]],Upgrades[],MATCH(Remaining_Cost[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
@@ -34502,7 +34588,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>30</v>
@@ -34550,7 +34636,7 @@
         <v>43</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T75" s="9" t="s">
         <v>68</v>
@@ -34578,7 +34664,7 @@
       </c>
       <c r="F76" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>3.472222222222222E-3</v>
+        <v>10</v>
       </c>
       <c r="G76" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:G24)),0)</f>
@@ -34586,7 +34672,7 @@
       </c>
       <c r="H76" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:H24)),0)</f>
-        <v>3.472222222222222E-3</v>
+        <v>0</v>
       </c>
       <c r="I76" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:I24)),0)</f>
@@ -34614,7 +34700,7 @@
       </c>
       <c r="O76" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:O24)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P76" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F24,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G24:P24)),0)</f>
@@ -34634,7 +34720,7 @@
       </c>
       <c r="T76" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>3.472222222222222E-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -34740,19 +34826,19 @@
       </c>
       <c r="F78" s="52">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>6.9444444444444436E-4</v>
+        <v>6</v>
       </c>
       <c r="G78" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:G26)),0)</f>
-        <v>6.9444444444444436E-4</v>
+        <v>0</v>
       </c>
       <c r="H78" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:H26)),0)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="I78" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:I26)),0)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="J78" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:J26)),0)</f>
@@ -34780,7 +34866,7 @@
       </c>
       <c r="P78" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:P26)),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q78" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F26,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G26:Q26)),0)</f>
@@ -34796,12 +34882,12 @@
       </c>
       <c r="T78" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>9.4444444444444442E-2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B79" s="46" t="str">
         <f>VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH(Remaining_Time[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
@@ -34819,13 +34905,13 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Elixir</v>
       </c>
-      <c r="F79" s="52">
+      <c r="F79" s="52" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>3.472222222222222E-3</v>
+        <v/>
       </c>
       <c r="G79" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F27,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G27:G27)),0)</f>
-        <v>3.472222222222222E-3</v>
+        <v>0</v>
       </c>
       <c r="H79" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F27,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G27:H27)),0)</f>
@@ -34877,7 +34963,7 @@
       </c>
       <c r="T79" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>3.472222222222222E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -34900,17 +34986,17 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Elixir</v>
       </c>
-      <c r="F80" s="44">
+      <c r="F80" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>6.9444444444444436E-4</v>
+        <v/>
       </c>
       <c r="G80" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F28,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G28:G28)),0)</f>
-        <v>6.9444444444444436E-4</v>
+        <v>0</v>
       </c>
       <c r="H80" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F28,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G28:H28)),0)</f>
-        <v>3.472222222222222E-3</v>
+        <v>0</v>
       </c>
       <c r="I80" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F28,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G28:I28)),0)</f>
@@ -34958,7 +35044,7 @@
       </c>
       <c r="T80" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>4.1666666666666666E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -34981,17 +35067,17 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F81" s="44">
+      <c r="F81" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>6.9444444444444436E-4</v>
+        <v/>
       </c>
       <c r="G81" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F29,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G29:G29)),0)</f>
-        <v>6.9444444444444436E-4</v>
+        <v>0</v>
       </c>
       <c r="H81" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F29,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G29:H29)),0)</f>
-        <v>3.472222222222222E-3</v>
+        <v>0</v>
       </c>
       <c r="I81" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F29,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G29:I29)),0)</f>
@@ -35039,7 +35125,7 @@
       </c>
       <c r="T81" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>4.1666666666666666E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -35143,13 +35229,13 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Elixir</v>
       </c>
-      <c r="F83" s="44">
+      <c r="F83" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>6.9444444444444436E-4</v>
+        <v/>
       </c>
       <c r="G83" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F31,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G31:G31)),0)</f>
-        <v>6.9444444444444436E-4</v>
+        <v>0</v>
       </c>
       <c r="H83" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F31,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G31:H31)),0)</f>
@@ -35201,7 +35287,7 @@
       </c>
       <c r="T83" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>6.9444444444444436E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -35224,13 +35310,13 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F84" s="44">
+      <c r="F84" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>6.9444444444444436E-4</v>
+        <v/>
       </c>
       <c r="G84" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F32,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G32:G32)),0)</f>
-        <v>6.9444444444444436E-4</v>
+        <v>0</v>
       </c>
       <c r="H84" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F32,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G32:H32)),0)</f>
@@ -35282,7 +35368,7 @@
       </c>
       <c r="T84" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>6.9444444444444436E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -35305,9 +35391,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Elixir</v>
       </c>
-      <c r="F85" s="44" t="str">
+      <c r="F85" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G85" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F33,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G33:G33)),0)</f>
@@ -35323,7 +35409,7 @@
       </c>
       <c r="J85" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F33,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G33:J33)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K85" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F33,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G33:K33)),0)</f>
@@ -35363,7 +35449,7 @@
       </c>
       <c r="T85" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -35629,17 +35715,17 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F89" s="44">
+      <c r="F89" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v>6.9444444444444436E-4</v>
+        <v/>
       </c>
       <c r="G89" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F37,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G37:G37)),0)</f>
-        <v>1.3888888888888887E-3</v>
+        <v>0</v>
       </c>
       <c r="H89" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F37,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G37:H37)),0)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="I89" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F37,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G37:I37)),0)</f>
@@ -35687,7 +35773,7 @@
       </c>
       <c r="T89" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>2.222222222222222E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -35710,9 +35796,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F90" s="44" t="str">
+      <c r="F90" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G90" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F38,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G38:G38)),0)</f>
@@ -35752,7 +35838,7 @@
       </c>
       <c r="P90" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F38,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G38:P38)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q90" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F38,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G38:Q38)),0)</f>
@@ -35768,7 +35854,7 @@
       </c>
       <c r="T90" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -35953,9 +36039,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F93" s="44" t="str">
+      <c r="F93" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G93" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F41,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G41:G41)),0)</f>
@@ -35975,7 +36061,7 @@
       </c>
       <c r="K93" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F41,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G41:K41)),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L93" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F41,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G41:L41)),0)</f>
@@ -36011,7 +36097,7 @@
       </c>
       <c r="T93" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -36034,9 +36120,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F94" s="44" t="str">
+      <c r="F94" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G94" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F42,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G42:G42)),0)</f>
@@ -36060,7 +36146,7 @@
       </c>
       <c r="L94" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F42,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G42:L42)),0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M94" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F42,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G42:M42)),0)</f>
@@ -36092,7 +36178,7 @@
       </c>
       <c r="T94" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -36196,9 +36282,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F96" s="44" t="str">
+      <c r="F96" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G96" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F44,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G44:G44)),0)</f>
@@ -36222,7 +36308,7 @@
       </c>
       <c r="L96" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F44,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G44:L44)),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M96" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F44,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G44:M44)),0)</f>
@@ -36254,7 +36340,7 @@
       </c>
       <c r="T96" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -36277,9 +36363,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F97" s="44" t="str">
+      <c r="F97" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>0.25</v>
       </c>
       <c r="G97" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F45,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G45:G45)),0)</f>
@@ -36287,11 +36373,11 @@
       </c>
       <c r="H97" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F45,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G45:H45)),0)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I97" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F45,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G45:I45)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F45,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G45:J45)),0)</f>
@@ -36335,7 +36421,7 @@
       </c>
       <c r="T97" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -36502,7 +36588,7 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B100" s="9" t="str">
         <f>VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH(Remaining_Time[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
@@ -36601,9 +36687,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Building-Gold</v>
       </c>
-      <c r="F101" s="44" t="str">
+      <c r="F101" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G101" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F49,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G49:G49)),0)</f>
@@ -36623,11 +36709,11 @@
       </c>
       <c r="K101" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F49,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G49:K49)),0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L101" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F49,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G49:L49)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M101" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F49,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G49:M49)),0)</f>
@@ -36659,7 +36745,7 @@
       </c>
       <c r="T101" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -37409,11 +37495,11 @@
       </c>
       <c r="E111" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="F111" s="44" t="str">
+        <v>Upgrade-Elixir</v>
+      </c>
+      <c r="F111" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G111" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F59,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G59:G59)),0)</f>
@@ -37429,11 +37515,11 @@
       </c>
       <c r="J111" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F59,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G59:J59)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K111" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F59,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G59:K59)),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L111" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F59,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G59:L59)),0)</f>
@@ -37468,8 +37554,8 @@
         <v>0</v>
       </c>
       <c r="T111" s="51">
-        <f>IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -37654,9 +37740,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Upgrade-Elixir</v>
       </c>
-      <c r="F114" s="44" t="str">
+      <c r="F114" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="G114" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F62,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G62:G62)),0)</f>
@@ -37668,7 +37754,7 @@
       </c>
       <c r="I114" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F62,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G62:I62)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J114" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F62,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G62:J62)),0)</f>
@@ -37712,7 +37798,7 @@
       </c>
       <c r="T114" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -37735,9 +37821,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Upgrade-Elixir</v>
       </c>
-      <c r="F115" s="44" t="str">
+      <c r="F115" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="G115" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F63,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G63:G63)),0)</f>
@@ -37745,11 +37831,11 @@
       </c>
       <c r="H115" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F63,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G63:H63)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I115" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F63,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G63:I63)),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J115" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F63,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G63:J63)),0)</f>
@@ -37793,7 +37879,7 @@
       </c>
       <c r="T115" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -37814,7 +37900,7 @@
       </c>
       <c r="E116" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="F116" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
@@ -37873,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="T116" s="51">
-        <f>IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
+        <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
         <v>0</v>
       </c>
     </row>
@@ -37895,7 +37981,7 @@
       </c>
       <c r="E117" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="F117" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
@@ -37954,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="T117" s="51">
-        <f>IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
+        <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
         <v>0</v>
       </c>
     </row>
@@ -37976,11 +38062,11 @@
       </c>
       <c r="E118" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="F118" s="44" t="str">
+        <v>Upgrade-Elixir</v>
+      </c>
+      <c r="F118" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="G118" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F66,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G66:G66)),0)</f>
@@ -38000,7 +38086,7 @@
       </c>
       <c r="K118" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F66,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G66:K66)),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L118" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F66,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G66:L66)),0)</f>
@@ -38035,8 +38121,8 @@
         <v>0</v>
       </c>
       <c r="T118" s="51">
-        <f>IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -38057,7 +38143,7 @@
       </c>
       <c r="E119" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="F119" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
@@ -38116,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T119" s="51">
-        <f>IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
+        <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
         <v>0</v>
       </c>
     </row>
@@ -38138,7 +38224,7 @@
       </c>
       <c r="E120" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
-        <v>IGNORE</v>
+        <v>Upgrade-Elixir</v>
       </c>
       <c r="F120" s="44" t="str">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
@@ -38197,7 +38283,7 @@
         <v>0</v>
       </c>
       <c r="T120" s="51">
-        <f>IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
+        <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
         <v>0</v>
       </c>
     </row>
@@ -38219,11 +38305,11 @@
       </c>
       <c r="E121" s="112" t="str">
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="F121" s="44" t="str">
+        <v>Upgrade-Dark Elixir</v>
+      </c>
+      <c r="F121" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G121" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:G69)),0)</f>
@@ -38231,15 +38317,15 @@
       </c>
       <c r="H121" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:H69)),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I121" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:I69)),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J121" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:J69)),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K121" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F69,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G69:K69)),0)</f>
@@ -38278,8 +38364,8 @@
         <v>0</v>
       </c>
       <c r="T121" s="51">
-        <f>IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -38302,9 +38388,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Upgrade-Dark Elixir</v>
       </c>
-      <c r="F122" s="44" t="str">
+      <c r="F122" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G122" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:G70)),0)</f>
@@ -38312,15 +38398,15 @@
       </c>
       <c r="H122" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:H70)),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I122" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:I70)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J122" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:J70)),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K122" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F70,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G70:K70)),0)</f>
@@ -38360,7 +38446,7 @@
       </c>
       <c r="T122" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -38383,9 +38469,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Upgrade-Dark Elixir</v>
       </c>
-      <c r="F123" s="44" t="str">
+      <c r="F123" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="G123" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F71,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G71:G71)),0)</f>
@@ -38393,7 +38479,7 @@
       </c>
       <c r="H123" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F71,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G71:H71)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I123" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F71,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G71:I71)),0)</f>
@@ -38441,7 +38527,7 @@
       </c>
       <c r="T123" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -38464,9 +38550,9 @@
         <f>IF(COUNTIF(Skips,Remaining_Time[[#This Row],[Name]])+COUNTIF(Skips,Remaining_Time[[#This Row],[Category]])&gt;0,"IGNORE",Remaining_Time[Kind]&amp;"-"&amp;Remaining_Time[Resource])</f>
         <v>Upgrade-Dark Elixir</v>
       </c>
-      <c r="F124" s="44" t="str">
+      <c r="F124" s="44">
         <f ca="1">IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;MATCH(TRUE,INDEX(Remaining_Time[[#This Row],[1]:[12]]&lt;&gt;0,),0),Upgrades[#Headers],0),FALSE),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="G124" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F72,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G72:G72)),0)</f>
@@ -38474,7 +38560,7 @@
       </c>
       <c r="H124" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F72,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G72:H72)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I124" s="51">
         <f ca="1">IF(VALUE(Remaining_Time[#Headers])&lt;='Construction Dashboard'!$F72,IFERROR(VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH("T"&amp;Remaining_Time[#Headers],Upgrades[#Headers],0),FALSE),0)*MAX(0,SUM('Construction Dashboard'!$G72:I72)),0)</f>
@@ -38522,7 +38608,7 @@
       </c>
       <c r="T124" s="51">
         <f ca="1">IF(Remaining_Time[[#This Row],[MatchStr]]="IGNORE",0,SUM(Remaining_Time[[#This Row],[1]:[12]]))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -38608,7 +38694,7 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B126" s="48" t="str">
         <f>VLOOKUP(Remaining_Time[[#This Row],[Name]],Upgrades[],MATCH(Remaining_Time[[#Headers],[Kind]],Upgrades[#Headers],0),FALSE)</f>
